--- a/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,17 @@
     <sheet name="Потокорозподіл" sheetId="4" r:id="rId6"/>
     <sheet name="Таблиця 1-4" sheetId="6" r:id="rId7"/>
     <sheet name="Fрозр" sheetId="8" r:id="rId8"/>
+    <sheet name="мех міцн" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="128">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -744,6 +745,80 @@
   <si>
     <t>Гру-па</t>
   </si>
+  <si>
+    <t>АС-150/24</t>
+  </si>
+  <si>
+    <t>АС-120/19</t>
+  </si>
+  <si>
+    <t>4 – 4,5</t>
+  </si>
+  <si>
+    <t>АС-185/</t>
+  </si>
+  <si>
+    <t>АС-150/34</t>
+  </si>
+  <si>
+    <t>АС-120/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">за ПУЕ </t>
+  </si>
+  <si>
+    <t>фактичне</t>
+  </si>
+  <si>
+    <t>сталі</t>
+  </si>
+  <si>
+    <t>Алюміній</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Відношення </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>А : C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Реальні перетини, мм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Марка проводу</t>
+  </si>
+  <si>
+    <t>Sсум</t>
+  </si>
+  <si>
+    <t>навантаж</t>
+  </si>
+  <si>
+    <t>втрати</t>
+  </si>
 </sst>
 </file>
 
@@ -752,7 +827,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,22 +952,32 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1259,6 +1344,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1336,19 +1447,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,17 +1479,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1485,6 +1586,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2848,255 +2961,58 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>124240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19549</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Прямая соединительная линия 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5541065" y="4398065"/>
-          <a:ext cx="3801718" cy="2984"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>147102</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Прямая со стрелкой 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6913993" y="4414631"/>
-          <a:ext cx="10268" cy="828260"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>118607</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>124239</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Прямая со стрелкой 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9337150" y="4381501"/>
-          <a:ext cx="5632" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>604631</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Прямая со стрелкой 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5557630" y="4257261"/>
-          <a:ext cx="1200979" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>235226</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61291</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>210379</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61292</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Прямая со стрелкой 52"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7615030" y="4252291"/>
-          <a:ext cx="1200979" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>592231</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>184150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>255868</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>22225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13315" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s13315"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3448,13 +3364,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
-        <row r="15">
-          <cell r="J15">
-            <v>110</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
     </sheetDataSet>
@@ -3770,7 +3680,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3788,14 +3698,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="44" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3811,7 +3721,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -4018,7 +3928,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4048,7 +3958,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4429,7 +4339,7 @@
   <dimension ref="B1:W38"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4931,7 +4841,7 @@
   <dimension ref="B3:Z32"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5434,7 +5344,7 @@
   <dimension ref="G3:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,7 +5405,7 @@
         <v>97</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H6" si="0">ROUND(1.1*I5/10*2,1)</f>
+        <f>ROUND(1.1*I5/10*2,1)</f>
         <v>22.6</v>
       </c>
       <c r="I5">
@@ -5520,7 +5430,7 @@
         <v>93</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>ROUND(1.1*I6/10*2,1)</f>
         <v>10.8</v>
       </c>
       <c r="I6">
@@ -5656,7 +5566,7 @@
   <dimension ref="C2:M9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5666,26 +5576,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="51" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="50"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -6000,11 +5910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,7 +5932,7 @@
       </c>
       <c r="R2" s="15">
         <f>K5+Q5</f>
-        <v>32.799999999999997</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -6050,7 +5960,7 @@
       </c>
       <c r="R3">
         <f>L10+O10</f>
-        <v>32.799999999999997</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -6075,37 +5985,37 @@
       </c>
       <c r="E5" s="14">
         <f>J5</f>
-        <v>26.968</v>
+        <v>25.19</v>
       </c>
       <c r="F5" s="14">
         <f>K5</f>
-        <v>14.375</v>
+        <v>15.984</v>
       </c>
       <c r="J5" s="14">
         <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
-        <v>26.968</v>
+        <v>25.19</v>
       </c>
       <c r="K5" s="14">
         <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
-        <v>14.375</v>
+        <v>15.984</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="14">
         <f>J5-K10</f>
-        <v>-8.032</v>
+        <v>-1.8099999999999987</v>
       </c>
       <c r="N5" s="14">
         <f>K5-L10</f>
-        <v>-4.625</v>
+        <v>-3.016</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="14">
         <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>35.031999999999996</v>
+        <v>36.81</v>
       </c>
       <c r="Q5" s="14">
         <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>18.425000000000001</v>
+        <v>22.015999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -6119,11 +6029,11 @@
       </c>
       <c r="E6" s="14">
         <f>P5</f>
-        <v>35.031999999999996</v>
+        <v>36.81</v>
       </c>
       <c r="F6" s="14">
         <f>Q5</f>
-        <v>18.425000000000001</v>
+        <v>22.015999999999998</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>13</v>
@@ -6143,11 +6053,11 @@
       </c>
       <c r="E7" s="4">
         <f>M5</f>
-        <v>-8.032</v>
+        <v>-1.8099999999999987</v>
       </c>
       <c r="F7" s="14">
         <f>N5</f>
-        <v>-4.625</v>
+        <v>-3.016</v>
       </c>
       <c r="J7">
         <f>D5</f>
@@ -6175,12 +6085,12 @@
         <v>5.6</v>
       </c>
       <c r="E8">
-        <f>35</f>
-        <v>35</v>
+        <f>27</f>
+        <v>27</v>
       </c>
       <c r="F8">
-        <f>19</f>
-        <v>19</v>
+        <f>13.8</f>
+        <v>13.8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -6192,12 +6102,12 @@
         <f>'Вар1. Длинна'!H30</f>
         <v>7.8</v>
       </c>
-      <c r="E9" s="43">
-        <f>27</f>
-        <v>27</v>
-      </c>
-      <c r="F9" s="43">
-        <v>13.8</v>
+      <c r="E9" s="4">
+        <f>35</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -6207,7 +6117,7 @@
       <c r="F10" s="4"/>
       <c r="K10">
         <f>E8</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="L10">
         <f>19</f>
@@ -6215,11 +6125,11 @@
       </c>
       <c r="N10">
         <f>E9</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O10">
         <f>F9</f>
-        <v>13.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -6267,7 +6177,7 @@
       <c r="P12" t="s">
         <v>69</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="15">
         <f>J15+P15</f>
         <v>67</v>
       </c>
@@ -6420,40 +6330,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J22">
-        <f>F25</f>
-        <v>36</v>
-      </c>
-      <c r="K22">
-        <f>G25</f>
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <f>O29</f>
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <f>P29</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F24" t="str">
-        <f>E3</f>
-        <v>P</v>
-      </c>
-      <c r="G24" t="str">
-        <f>F3</f>
-        <v>Q</v>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -6469,12 +6354,12 @@
         <v>14.8</v>
       </c>
       <c r="F25">
-        <f>F26+F27</f>
-        <v>36</v>
+        <f>'Табл1-1  1-2'!B11</f>
+        <v>165</v>
       </c>
       <c r="G25">
-        <f>G26+G27</f>
-        <v>25</v>
+        <f>'Табл1-1  1-2'!C11</f>
+        <v>90.3</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -6487,12 +6372,12 @@
         <v>22.6</v>
       </c>
       <c r="F26">
-        <f>'Табл1-1  1-2'!B4</f>
-        <v>16</v>
+        <f>F25-'Табл1-1  1-2'!B5</f>
+        <v>145</v>
       </c>
       <c r="G26">
-        <f>'Табл1-1  1-2'!C4</f>
-        <v>12</v>
+        <f>G25-'Табл1-1  1-2'!C5</f>
+        <v>77.3</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -6514,21 +6399,36 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K29">
-        <f>F27</f>
-        <v>20</v>
-      </c>
-      <c r="L29">
-        <f>G27</f>
-        <v>13</v>
-      </c>
-      <c r="O29">
-        <f>F26</f>
-        <v>16</v>
-      </c>
-      <c r="P29">
-        <f>G26</f>
-        <v>12</v>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29">
+        <f>SQRT(F26^2+G26^2)</f>
+        <v>164.31764969107854</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31">
+        <f>0.05*F29</f>
+        <v>8.2158824845539282</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32">
+        <f>0.15*F29</f>
+        <v>24.647647453661779</v>
       </c>
     </row>
     <row r="34" spans="11:18" x14ac:dyDescent="0.25">
@@ -6549,6 +6449,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -6556,8 +6484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6593,10 +6521,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="60" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -6607,24 +6535,24 @@
         <f>Потокорозподіл!D5</f>
         <v>11.8</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <f>Потокорозподіл!E5</f>
-        <v>26.968</v>
+        <v>25.19</v>
       </c>
       <c r="G3" s="26">
         <v>1</v>
       </c>
       <c r="H3" s="26">
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
-        <v>91.4</v>
-      </c>
-      <c r="I3" s="60">
+        <v>88.4</v>
+      </c>
+      <c r="I3" s="56">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -6633,22 +6561,22 @@
         <f>Потокорозподіл!D6</f>
         <v>7.8</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="28">
         <f>Потокорозподіл!E6</f>
-        <v>35.031999999999996</v>
+        <v>36.81</v>
       </c>
       <c r="G4" s="27">
         <v>1</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" ref="H4:H16" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
-        <v>103.5</v>
-      </c>
-      <c r="I4" s="58"/>
+        <v>106</v>
+      </c>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -6657,22 +6585,22 @@
         <f>Потокорозподіл!D7</f>
         <v>5.6</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="28">
         <f>-Потокорозподіл!E7</f>
-        <v>8.032</v>
+        <v>1.8099999999999987</v>
       </c>
       <c r="G5" s="27">
         <v>1</v>
       </c>
       <c r="H5" s="26">
         <f t="shared" si="0"/>
-        <v>50.3</v>
-      </c>
-      <c r="I5" s="61"/>
+        <v>25.5</v>
+      </c>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="63" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -6685,22 +6613,22 @@
       </c>
       <c r="F6" s="28">
         <f>Потокорозподіл!E8</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G6" s="27">
         <v>2</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="0"/>
-        <v>73.3</v>
-      </c>
-      <c r="I6" s="57">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="I6" s="53">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="63"/>
-      <c r="C7" s="66"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -6709,248 +6637,248 @@
         <f>Потокорозподіл!D9</f>
         <v>7.8</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="28">
         <f>Потокорозподіл!E9</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G7" s="27">
         <v>2</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="0"/>
-        <v>64.900000000000006</v>
-      </c>
-      <c r="I7" s="61"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="31" t="str">
+      <c r="D8" s="29" t="str">
         <f>'Вар2. Длинна'!F5</f>
         <v>ВП-Г</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="29">
         <f>'Вар2. Длинна'!G5</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="28">
+        <f>Потокорозподіл!E10</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
+      </c>
+      <c r="I8" s="65">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="51"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="29" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="E9" s="29">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="F9" s="28">
         <f>Потокорозподіл!E11</f>
         <v>34.843000000000004</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>103.4</v>
-      </c>
-      <c r="I8" s="69">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="31" t="str">
-        <f>'Вар2. Длинна'!F6</f>
-        <v>ВП-Е</v>
-      </c>
-      <c r="E9" s="31">
-        <f>'Вар2. Длинна'!G6</f>
-        <v>11.9</v>
-      </c>
-      <c r="F9" s="32">
+        <v>103.6</v>
+      </c>
+      <c r="I9" s="66"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="51"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="29" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="E10" s="29">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="F10" s="28">
         <f>Потокорозподіл!E12</f>
         <v>32.156999999999996</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G10" s="29">
         <v>1</v>
       </c>
-      <c r="H9" s="31">
-        <f t="shared" si="0"/>
-        <v>99.6</v>
-      </c>
-      <c r="I9" s="70"/>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="31" t="str">
-        <f>'Вар2. Длинна'!F7</f>
-        <v>Е-Г</v>
-      </c>
-      <c r="E10" s="31">
-        <f>'Вар2. Длинна'!G7</f>
-        <v>14.5</v>
-      </c>
-      <c r="F10" s="32">
+      <c r="H10" s="29">
+        <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
+        <v>99.8</v>
+      </c>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51"/>
+      <c r="C11" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f>'Вар2. Длинна'!X23</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="E11" s="29">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="F11" s="28">
         <f>-Потокорозподіл!E13</f>
         <v>2.8430000000000035</v>
       </c>
-      <c r="G10" s="31">
-        <v>1</v>
-      </c>
-      <c r="H10" s="31">
-        <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
-        <v>33.6</v>
-      </c>
-      <c r="I10" s="71"/>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="55"/>
-      <c r="C11" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="31" t="str">
-        <f>'Вар2. Длинна'!X23</f>
-        <v>ВП-2</v>
-      </c>
-      <c r="E11" s="31">
-        <f>'Вар2. Длинна'!Y23</f>
-        <v>5.4</v>
-      </c>
-      <c r="F11" s="32">
+      <c r="G11" s="29">
+        <v>2</v>
+      </c>
+      <c r="H11" s="29">
+        <f>ROUND(4.34*SQRT(E11+16*F11/G11),1)</f>
+        <v>23</v>
+      </c>
+      <c r="I11" s="65">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="29" t="str">
+        <f>'Вар2. Длинна'!X24</f>
+        <v>Г-2</v>
+      </c>
+      <c r="E12" s="29">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="F12" s="28">
         <f>Потокорозподіл!E14</f>
         <v>67</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G12" s="29">
         <v>2</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="I11" s="69">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="31" t="str">
-        <f>'Вар2. Длинна'!X24</f>
-        <v>Г-2</v>
-      </c>
-      <c r="E12" s="31">
-        <f>'Вар2. Длинна'!Y24</f>
-        <v>7.2</v>
-      </c>
-      <c r="F12" s="32">
+        <v>101.2</v>
+      </c>
+      <c r="I12" s="66"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="59"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="29" t="str">
+        <f>'Вар2. Длинна'!X25</f>
+        <v>Е-2</v>
+      </c>
+      <c r="E13" s="29">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F13" s="28">
         <f>Потокорозподіл!E15</f>
         <v>32</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G13" s="29">
         <v>2</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H13" s="29">
         <f t="shared" si="0"/>
-        <v>70.400000000000006</v>
-      </c>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="31" t="str">
-        <f>'Вар2. Длинна'!X25</f>
-        <v>Е-2</v>
-      </c>
-      <c r="E13" s="31">
-        <f>'Вар2. Длинна'!Y25</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F13" s="32">
-        <f>Потокорозподіл!E16</f>
-        <v>35</v>
-      </c>
-      <c r="G13" s="31">
-        <v>2</v>
-      </c>
-      <c r="H13" s="31">
-        <f t="shared" si="0"/>
-        <v>73.7</v>
-      </c>
-      <c r="I13" s="71"/>
-    </row>
-    <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="54" t="s">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="I13" s="67"/>
+    </row>
+    <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="34" t="str">
+      <c r="C14" s="53"/>
+      <c r="D14" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="31">
         <f>'мережа зовнішньго електр.'!H4</f>
         <v>14.8</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="28">
         <f>Потокорозподіл!F25</f>
-        <v>36</v>
-      </c>
-      <c r="G14" s="34">
+        <v>165</v>
+      </c>
+      <c r="G14" s="31">
         <v>2</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="31">
         <f t="shared" si="0"/>
-        <v>75.5</v>
-      </c>
-      <c r="I14" s="69">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="34" t="str">
+        <v>158.6</v>
+      </c>
+      <c r="I14" s="65">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="31">
         <f>'мережа зовнішньго електр.'!H5</f>
         <v>22.6</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="28">
         <f>Потокорозподіл!F26</f>
-        <v>16</v>
-      </c>
-      <c r="G15" s="35">
+        <v>145</v>
+      </c>
+      <c r="G15" s="32">
         <v>2</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="32">
         <f t="shared" si="0"/>
-        <v>53.3</v>
-      </c>
-      <c r="I15" s="70"/>
-    </row>
-    <row r="16" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="34" t="str">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="I15" s="66"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="52"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="31">
         <f>'мережа зовнішньго електр.'!H6</f>
         <v>10.8</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="28">
         <f>Потокорозподіл!F27</f>
         <v>20</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="33">
         <v>2</v>
       </c>
-      <c r="H16" s="36">
-        <f t="shared" si="0"/>
+      <c r="H16" s="33">
+        <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7107,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7122,37 +7050,37 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="41">
+      <c r="M2" s="38">
         <v>0.8</v>
       </c>
       <c r="N2" t="s">
@@ -7160,24 +7088,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="37" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="75"/>
+      <c r="L3" s="71"/>
       <c r="M3" t="s">
         <v>89</v>
       </c>
@@ -7185,630 +7113,630 @@
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>'Таблиця 1-4'!F3</f>
-        <v>26.968</v>
+        <v>25.19</v>
       </c>
       <c r="B4">
         <f>[1]Потокорозподіл!F5</f>
         <v>2.1659999999999999</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="37" t="str">
+      <c r="E4" s="34" t="str">
         <f>'Таблиця 1-4'!D3</f>
         <v>ВП-В</v>
       </c>
-      <c r="F4" s="37" t="str">
+      <c r="F4" s="34" t="str">
         <f>COMPLEX(A4,B4)</f>
-        <v>26.968+2.166i</v>
-      </c>
-      <c r="G4" s="37">
+        <v>25.19+2.166i</v>
+      </c>
+      <c r="G4" s="34">
         <f>ROUND(1*IMABS(F4),2)</f>
-        <v>27.05</v>
-      </c>
-      <c r="H4" s="37">
+        <v>25.28</v>
+      </c>
+      <c r="H4" s="34">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="34">
         <f>'Таблиця 1-4'!G3</f>
         <v>1</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="34">
         <f>ROUND(G4/SQRT(3)/H4/I4*10^3,2)</f>
-        <v>141.97999999999999</v>
-      </c>
-      <c r="K4" s="38">
+        <v>132.69</v>
+      </c>
+      <c r="K4" s="35">
         <f>J4/$M$2</f>
-        <v>177.47499999999997</v>
-      </c>
-      <c r="L4" s="42">
+        <v>165.86249999999998</v>
+      </c>
+      <c r="L4" s="39">
         <v>185</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>'Таблиця 1-4'!F4</f>
-        <v>35.031999999999996</v>
+        <v>36.81</v>
       </c>
       <c r="B5">
         <f>[1]Потокорозподіл!F6</f>
         <v>1.8340000000000001</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="37" t="str">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="34" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F5" s="37" t="str">
+      <c r="F5" s="34" t="str">
         <f t="shared" ref="F5:F17" si="0">COMPLEX(A5,B5)</f>
-        <v>35.032+1.834i</v>
-      </c>
-      <c r="G5" s="37">
+        <v>36.81+1.834i</v>
+      </c>
+      <c r="G5" s="34">
         <f t="shared" ref="G5:G17" si="1">ROUND(1*IMABS(F5),2)</f>
-        <v>35.08</v>
-      </c>
-      <c r="H5" s="37">
-        <f>H4</f>
+        <v>36.86</v>
+      </c>
+      <c r="H5" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="34">
         <f>'Таблиця 1-4'!G4</f>
         <v>1</v>
       </c>
-      <c r="J5" s="37">
-        <f t="shared" ref="J5:J9" si="2">ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
-        <v>184.12</v>
-      </c>
-      <c r="K5" s="38">
-        <f t="shared" ref="K5:K16" si="3">J5/$M$2</f>
-        <v>230.15</v>
-      </c>
-      <c r="L5" s="42">
+      <c r="J5" s="34">
+        <f t="shared" ref="J5:J17" si="2">ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
+        <v>193.46</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" ref="K5:K17" si="3">J5/$M$2</f>
+        <v>241.82499999999999</v>
+      </c>
+      <c r="L5" s="39">
         <v>240</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>'Таблиця 1-4'!F5</f>
-        <v>8.032</v>
+        <v>1.8099999999999987</v>
       </c>
       <c r="B6">
         <f>[1]Потокорозподіл!F7</f>
         <v>0.16599999999999993</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="37" t="str">
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="34" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
       </c>
-      <c r="F6" s="37" t="str">
+      <c r="F6" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>8.032+0.166i</v>
-      </c>
-      <c r="G6" s="37">
+        <v>1.81+0.166i</v>
+      </c>
+      <c r="G6" s="34">
         <f t="shared" si="1"/>
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="H6" s="37">
-        <f>H5</f>
+        <v>1.82</v>
+      </c>
+      <c r="H6" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="34">
         <f>'Таблиця 1-4'!G5</f>
         <v>1</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="34">
         <f t="shared" si="2"/>
-        <v>42.15</v>
-      </c>
-      <c r="K6" s="38">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="K6" s="35">
         <f t="shared" si="3"/>
-        <v>52.687499999999993</v>
-      </c>
-      <c r="L6" s="42">
+        <v>11.9375</v>
+      </c>
+      <c r="L6" s="39">
         <v>70</v>
       </c>
-      <c r="M6" s="37"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>'Таблиця 1-4'!F6</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <f>[1]Потокорозподіл!F8</f>
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="37" t="str">
+      <c r="E7" s="34" t="str">
         <f>'Таблиця 1-4'!D6</f>
         <v>В-Д</v>
       </c>
-      <c r="F7" s="37" t="str">
+      <c r="F7" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>35+4i</v>
-      </c>
-      <c r="G7" s="37">
+        <v>27+4i</v>
+      </c>
+      <c r="G7" s="34">
         <f t="shared" si="1"/>
-        <v>35.229999999999997</v>
-      </c>
-      <c r="H7" s="37">
+        <v>27.29</v>
+      </c>
+      <c r="H7" s="34">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <f>'Таблиця 1-4'!G6</f>
         <v>2</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="34">
         <f t="shared" si="2"/>
-        <v>92.45</v>
-      </c>
-      <c r="K7" s="38">
+        <v>71.62</v>
+      </c>
+      <c r="K7" s="35">
         <f t="shared" si="3"/>
-        <v>115.5625</v>
-      </c>
-      <c r="L7" s="42">
+        <v>89.525000000000006</v>
+      </c>
+      <c r="L7" s="39">
         <v>120</v>
       </c>
-      <c r="M7" s="37"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>'Таблиця 1-4'!F7</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <f>[1]Потокорозподіл!F9</f>
         <v>2</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="37" t="str">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="34" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F8" s="37" t="str">
+      <c r="F8" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>27+2i</v>
-      </c>
-      <c r="G8" s="46">
+        <v>35+2i</v>
+      </c>
+      <c r="G8" s="34">
         <f t="shared" si="1"/>
-        <v>27.07</v>
-      </c>
-      <c r="H8" s="37">
-        <f>H7</f>
+        <v>35.06</v>
+      </c>
+      <c r="H8" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <f>'Таблиця 1-4'!G7</f>
         <v>2</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="34">
         <f t="shared" si="2"/>
-        <v>71.040000000000006</v>
-      </c>
-      <c r="K8" s="38">
+        <v>92.01</v>
+      </c>
+      <c r="K8" s="35">
         <f t="shared" si="3"/>
-        <v>88.8</v>
-      </c>
-      <c r="L8" s="42">
+        <v>115.0125</v>
+      </c>
+      <c r="L8" s="39">
         <v>95</v>
       </c>
-      <c r="M8" s="37"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>'Таблиця 1-4'!F8</f>
-        <v>34.843000000000004</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <f>[1]Потокорозподіл!F10</f>
         <v>2</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="37" t="str">
+      <c r="E9" s="34" t="str">
         <f>'Таблиця 1-4'!D8</f>
         <v>ВП-Г</v>
       </c>
-      <c r="F9" s="37" t="str">
+      <c r="F9" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>34.843+2i</v>
-      </c>
-      <c r="G9" s="37">
+        <v>2i</v>
+      </c>
+      <c r="G9" s="34">
         <f t="shared" si="1"/>
-        <v>34.9</v>
-      </c>
-      <c r="H9" s="37">
-        <f>H8</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="34">
         <f>'Таблиця 1-4'!G8</f>
         <v>1</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="34">
         <f t="shared" si="2"/>
-        <v>183.18</v>
-      </c>
-      <c r="K9" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="K9" s="35">
         <f t="shared" si="3"/>
-        <v>228.97499999999999</v>
-      </c>
-      <c r="L9" s="42">
+        <v>13.125</v>
+      </c>
+      <c r="L9" s="39">
         <v>240</v>
       </c>
-      <c r="M9" s="37"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>'Таблиця 1-4'!F9</f>
-        <v>32.156999999999996</v>
+        <v>34.843000000000004</v>
       </c>
       <c r="B10">
         <f>[1]Потокорозподіл!F11</f>
         <v>4.2350000000000003</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="37" t="str">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="34" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
       </c>
-      <c r="F10" s="37" t="str">
+      <c r="F10" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>32.157+4.235i</v>
-      </c>
-      <c r="G10" s="37">
+        <v>34.843+4.235i</v>
+      </c>
+      <c r="G10" s="34">
         <f t="shared" si="1"/>
-        <v>32.43</v>
-      </c>
-      <c r="H10" s="37">
-        <f t="shared" ref="H10:H14" si="4">H9</f>
+        <v>35.1</v>
+      </c>
+      <c r="H10" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="34">
         <f>'Таблиця 1-4'!G9</f>
         <v>1</v>
       </c>
-      <c r="J10" s="37">
-        <f t="shared" ref="J10:J17" si="5">ROUND(G10/SQRT(3)/H10/I10*10^3,2)</f>
-        <v>170.21</v>
-      </c>
-      <c r="K10" s="38">
+      <c r="J10" s="34">
+        <f t="shared" si="2"/>
+        <v>184.23</v>
+      </c>
+      <c r="K10" s="35">
         <f t="shared" si="3"/>
-        <v>212.76249999999999</v>
-      </c>
-      <c r="L10" s="42">
+        <v>230.28749999999997</v>
+      </c>
+      <c r="L10" s="39">
         <v>240</v>
       </c>
-      <c r="M10" s="37"/>
+      <c r="M10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>'Таблиця 1-4'!F10</f>
-        <v>2.8430000000000035</v>
+        <v>32.156999999999996</v>
       </c>
       <c r="B11">
         <f>[1]Потокорозподіл!F12</f>
         <v>3.7650000000000001</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="37" t="str">
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="34" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
       </c>
-      <c r="F11" s="37" t="str">
+      <c r="F11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>2.843+3.765i</v>
-      </c>
-      <c r="G11" s="37">
+        <v>32.157+3.765i</v>
+      </c>
+      <c r="G11" s="34">
         <f t="shared" si="1"/>
-        <v>4.72</v>
-      </c>
-      <c r="H11" s="37">
-        <f t="shared" si="4"/>
+        <v>32.380000000000003</v>
+      </c>
+      <c r="H11" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="34">
         <f>'Таблиця 1-4'!G10</f>
         <v>1</v>
       </c>
-      <c r="J11" s="37">
-        <f t="shared" si="5"/>
-        <v>24.77</v>
-      </c>
-      <c r="K11" s="38">
+      <c r="J11" s="34">
+        <f t="shared" si="2"/>
+        <v>169.95</v>
+      </c>
+      <c r="K11" s="35">
         <f t="shared" si="3"/>
-        <v>30.962499999999999</v>
-      </c>
-      <c r="L11" s="42">
+        <v>212.43749999999997</v>
+      </c>
+      <c r="L11" s="39">
         <v>70</v>
       </c>
-      <c r="M11" s="37"/>
+      <c r="M11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>'Таблиця 1-4'!F11</f>
-        <v>67</v>
+        <v>2.8430000000000035</v>
       </c>
       <c r="B12">
         <f>[1]Потокорозподіл!F13</f>
         <v>0.76500000000000012</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="72" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="37" t="str">
+      <c r="E12" s="34" t="str">
         <f>'Таблиця 1-4'!D11</f>
         <v>ВП-2</v>
       </c>
-      <c r="F12" s="37" t="str">
+      <c r="F12" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>67+0.765i</v>
-      </c>
-      <c r="G12" s="37">
+        <v>2.843+0.765i</v>
+      </c>
+      <c r="G12" s="34">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="H12" s="37">
-        <f t="shared" si="4"/>
+        <v>2.94</v>
+      </c>
+      <c r="H12" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="34">
         <f>'Таблиця 1-4'!G11</f>
         <v>2</v>
       </c>
-      <c r="J12" s="37">
-        <f t="shared" si="5"/>
-        <v>175.83</v>
-      </c>
-      <c r="K12" s="38">
+      <c r="J12" s="34">
+        <f t="shared" si="2"/>
+        <v>7.72</v>
+      </c>
+      <c r="K12" s="35">
         <f t="shared" si="3"/>
-        <v>219.78749999999999</v>
-      </c>
-      <c r="L12" s="42">
+        <v>9.6499999999999986</v>
+      </c>
+      <c r="L12" s="39">
         <v>240</v>
       </c>
-      <c r="M12" s="37"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>'Таблиця 1-4'!F12</f>
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <f>[1]Потокорозподіл!F14</f>
         <v>8</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="37" t="str">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="34" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
       </c>
-      <c r="F13" s="37" t="str">
+      <c r="F13" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>32+8i</v>
-      </c>
-      <c r="G13" s="37">
+        <v>67+8i</v>
+      </c>
+      <c r="G13" s="34">
         <f t="shared" si="1"/>
-        <v>32.979999999999997</v>
-      </c>
-      <c r="H13" s="37">
-        <f t="shared" si="4"/>
+        <v>67.48</v>
+      </c>
+      <c r="H13" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="34">
         <f>'Таблиця 1-4'!G12</f>
         <v>2</v>
       </c>
-      <c r="J13" s="37">
-        <f t="shared" si="5"/>
-        <v>86.55</v>
-      </c>
-      <c r="K13" s="38">
+      <c r="J13" s="34">
+        <f t="shared" si="2"/>
+        <v>177.09</v>
+      </c>
+      <c r="K13" s="35">
         <f t="shared" si="3"/>
-        <v>108.18749999999999</v>
-      </c>
-      <c r="L13" s="42">
+        <v>221.36249999999998</v>
+      </c>
+      <c r="L13" s="39">
         <v>120</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>'Таблиця 1-4'!F13</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <f>[1]Потокорозподіл!F15</f>
         <v>5</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="37" t="str">
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="34" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
       </c>
-      <c r="F14" s="37" t="str">
+      <c r="F14" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>35+5i</v>
-      </c>
-      <c r="G14" s="37">
+        <v>32+5i</v>
+      </c>
+      <c r="G14" s="34">
         <f t="shared" si="1"/>
-        <v>35.36</v>
-      </c>
-      <c r="H14" s="37">
-        <f t="shared" si="4"/>
+        <v>32.39</v>
+      </c>
+      <c r="H14" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="34">
         <f>'Таблиця 1-4'!G13</f>
         <v>2</v>
       </c>
-      <c r="J14" s="37">
-        <f t="shared" si="5"/>
-        <v>92.8</v>
-      </c>
-      <c r="K14" s="38">
+      <c r="J14" s="34">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="K14" s="35">
         <f t="shared" si="3"/>
-        <v>115.99999999999999</v>
-      </c>
-      <c r="L14" s="42">
+        <v>106.25</v>
+      </c>
+      <c r="L14" s="39">
         <v>120</v>
       </c>
-      <c r="M14" s="37"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>'Таблиця 1-4'!F14</f>
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="B15">
         <f>[1]Потокорозподіл!F16</f>
         <v>3</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="37" t="str">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="34" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
       </c>
-      <c r="F15" s="37" t="str">
+      <c r="F15" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>36+3i</v>
-      </c>
-      <c r="G15" s="46">
+        <v>165+3i</v>
+      </c>
+      <c r="G15" s="34">
         <f t="shared" si="1"/>
-        <v>36.119999999999997</v>
-      </c>
-      <c r="H15" s="37">
-        <f>H14</f>
+        <v>165.03</v>
+      </c>
+      <c r="H15" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="34">
         <f>'Таблиця 1-4'!G14</f>
         <v>2</v>
       </c>
-      <c r="J15" s="37">
-        <f t="shared" si="5"/>
-        <v>94.79</v>
-      </c>
-      <c r="K15" s="38">
+      <c r="J15" s="34">
+        <f t="shared" si="2"/>
+        <v>433.09</v>
+      </c>
+      <c r="K15" s="35">
         <f t="shared" si="3"/>
-        <v>118.4875</v>
-      </c>
-      <c r="L15" s="42">
+        <v>541.36249999999995</v>
+      </c>
+      <c r="L15" s="39">
         <v>120</v>
       </c>
-      <c r="M15" s="37"/>
+      <c r="M15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>'Таблиця 1-4'!F15</f>
-        <v>16</v>
-      </c>
-      <c r="B16" s="40">
+        <v>145</v>
+      </c>
+      <c r="B16" s="37">
         <f>[1]Потокорозподіл!F17</f>
         <v>37</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="37" t="str">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="34" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
       </c>
-      <c r="F16" s="37" t="str">
+      <c r="F16" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>16+37i</v>
-      </c>
-      <c r="G16" s="46">
+        <v>145+37i</v>
+      </c>
+      <c r="G16" s="34">
         <f t="shared" si="1"/>
-        <v>40.31</v>
-      </c>
-      <c r="H16" s="37">
-        <f>[1]Unom!J15</f>
+        <v>149.65</v>
+      </c>
+      <c r="H16" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="34">
         <f>'Таблиця 1-4'!G15</f>
         <v>2</v>
       </c>
-      <c r="J16" s="37">
-        <f t="shared" si="5"/>
-        <v>105.79</v>
-      </c>
-      <c r="K16" s="38">
+      <c r="J16" s="34">
+        <f t="shared" si="2"/>
+        <v>392.73</v>
+      </c>
+      <c r="K16" s="35">
         <f t="shared" si="3"/>
-        <v>132.23750000000001</v>
-      </c>
-      <c r="L16" s="37">
+        <v>490.91250000000002</v>
+      </c>
+      <c r="L16" s="34">
         <v>150</v>
       </c>
-      <c r="M16" s="37"/>
+      <c r="M16" s="34"/>
     </row>
     <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>'Таблиця 1-4'!F16</f>
         <v>20</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="37">
         <f>[1]Потокорозподіл!F18</f>
         <v>22</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="37" t="str">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="34" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
       </c>
-      <c r="F17" s="37" t="str">
+      <c r="F17" s="34" t="str">
         <f t="shared" si="0"/>
         <v>20+22i</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="34">
         <f t="shared" si="1"/>
         <v>29.73</v>
       </c>
-      <c r="H17" s="37">
-        <f>H16</f>
+      <c r="H17" s="34">
+        <f>110</f>
         <v>110</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="34">
         <f>'Таблиця 1-4'!G16</f>
         <v>2</v>
       </c>
-      <c r="J17" s="37">
-        <f t="shared" si="5"/>
+      <c r="J17" s="34">
+        <f t="shared" si="2"/>
         <v>78.02</v>
       </c>
-      <c r="K17" s="38">
-        <f t="shared" ref="K17" si="6">J17/$M$2</f>
+      <c r="K17" s="35">
+        <f t="shared" si="3"/>
         <v>97.524999999999991</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="34">
         <v>120</v>
       </c>
-      <c r="M17" s="37"/>
+      <c r="M17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7830,4 +7758,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="79"/>
+    </row>
+    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="77"/>
+      <c r="D4" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="41">
+        <v>114</v>
+      </c>
+      <c r="E5" s="41">
+        <v>26.6</v>
+      </c>
+      <c r="F5" s="40">
+        <f>D5/E3:E5</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="41">
+        <v>147</v>
+      </c>
+      <c r="E6" s="41">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F6" s="40">
+        <f>D6/E4:E6</f>
+        <v>4.2857142857142865</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="e">
+        <f>D7/E5:E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="41">
+        <v>118</v>
+      </c>
+      <c r="E10" s="41">
+        <v>18.8</v>
+      </c>
+      <c r="F10" s="40">
+        <f>D10/E4:E10</f>
+        <v>6.2765957446808507</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="41">
+        <v>149</v>
+      </c>
+      <c r="E11" s="41">
+        <v>24.2</v>
+      </c>
+      <c r="F11" s="40">
+        <f>D11/E5:E11</f>
+        <v>6.1570247933884303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>втрати</t>
+  </si>
+  <si>
+    <t>Е-1</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1370,11 +1373,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1566,12 +1587,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,6 +1602,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1597,6 +1618,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2966,15 +2997,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>592231</xdr:colOff>
+          <xdr:colOff>20527</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>184150</xdr:rowOff>
+          <xdr:rowOff>117475</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>255868</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>296309</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>22225</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3661,8 +3692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4840,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4925,7 +4956,7 @@
         <v>80</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G7" si="1">ROUND(1.1*H6/10*2,1)</f>
+        <f>ROUND(1.1*H6/10*2,1)</f>
         <v>11.9</v>
       </c>
       <c r="H6">
@@ -4959,7 +4990,7 @@
         <v>81</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G6:G7" si="1">ROUND(1.1*H7/10*2,1)</f>
         <v>14.5</v>
       </c>
       <c r="H7">
@@ -5186,11 +5217,15 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="P26">
-        <f>P24+P25</f>
-        <v>11.100000000000001</v>
+        <f>ROUND(1.1*Q26/10*2,1)</f>
+        <v>10.6</v>
+      </c>
+      <c r="Q26">
+        <f>SQRT(($K$10-K12)^2+($L$10-L12)^2)</f>
+        <v>48.259714048054619</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
@@ -5566,7 +5601,7 @@
   <dimension ref="C2:M9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5696,8 +5731,8 @@
         <v>39.480000000000004</v>
       </c>
       <c r="K6" s="8">
-        <f>'Вар2. Длинна'!P26*2+'Вар2. Длинна'!P24*1.6</f>
-        <v>37.880000000000003</v>
+        <f>'Вар2. Длинна'!P25*2+'Вар2. Длинна'!P24*1.6+'Вар2. Длинна'!P26*2</f>
+        <v>39.480000000000004</v>
       </c>
       <c r="L6" s="8">
         <f>'Вар2. Длинна'!Y23*2+'Вар2. Длинна'!Y25*2+'Вар2. Длинна'!Y24*1.6</f>
@@ -5740,12 +5775,12 @@
         <f t="shared" si="0"/>
         <v>51.480000000000004</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="8">
         <f>K6+K5*3</f>
-        <v>43.88</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="0"/>
+        <v>45.480000000000004</v>
+      </c>
+      <c r="L7" s="83">
+        <f>L6+L5*3</f>
         <v>44.92</v>
       </c>
       <c r="M7" s="8">
@@ -5810,10 +5845,10 @@
         <v>62</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>62</v>
@@ -5913,8 +5948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="B3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,13 +6086,13 @@
         <f>'Вар1. Длинна'!H7</f>
         <v>5.6</v>
       </c>
-      <c r="E7" s="4">
-        <f>M5</f>
-        <v>-1.8099999999999987</v>
+      <c r="E7" s="14">
+        <f>-M5</f>
+        <v>1.8099999999999987</v>
       </c>
       <c r="F7" s="14">
-        <f>N5</f>
-        <v>-3.016</v>
+        <f>-N5</f>
+        <v>3.016</v>
       </c>
       <c r="J7">
         <f>D5</f>
@@ -6196,12 +6231,12 @@
         <v>14.5</v>
       </c>
       <c r="E13" s="14">
-        <f>M15</f>
-        <v>-2.8430000000000035</v>
+        <f>-M15</f>
+        <v>2.8430000000000035</v>
       </c>
       <c r="F13" s="14">
-        <f>N15</f>
-        <v>-1.3919999999999995</v>
+        <f>-N15</f>
+        <v>1.3919999999999995</v>
       </c>
       <c r="Q13">
         <f>K20+N20</f>
@@ -6458,15 +6493,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -6484,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6569,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="26">
-        <f t="shared" ref="H4:H16" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
+        <f t="shared" ref="H4:H15" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>106</v>
       </c>
       <c r="I4" s="54"/>
@@ -6586,7 +6621,7 @@
         <v>5.6</v>
       </c>
       <c r="F5" s="28">
-        <f>-Потокорозподіл!E7</f>
+        <f>Потокорозподіл!E7</f>
         <v>1.8099999999999987</v>
       </c>
       <c r="G5" s="27">
@@ -6666,15 +6701,15 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F8" s="28">
-        <f>Потокорозподіл!E10</f>
-        <v>0</v>
+        <f>Потокорозподіл!E11</f>
+        <v>34.843000000000004</v>
       </c>
       <c r="G8" s="29">
         <v>1</v>
       </c>
       <c r="H8" s="30">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>103.4</v>
       </c>
       <c r="I8" s="65">
         <v>110</v>
@@ -6692,15 +6727,15 @@
         <v>11.9</v>
       </c>
       <c r="F9" s="28">
-        <f>Потокорозподіл!E11</f>
-        <v>34.843000000000004</v>
+        <f>Потокорозподіл!E12</f>
+        <v>32.156999999999996</v>
       </c>
       <c r="G9" s="29">
         <v>1</v>
       </c>
       <c r="H9" s="29">
         <f t="shared" si="0"/>
-        <v>103.6</v>
+        <v>99.6</v>
       </c>
       <c r="I9" s="66"/>
     </row>
@@ -6716,15 +6751,15 @@
         <v>14.5</v>
       </c>
       <c r="F10" s="28">
-        <f>Потокорозподіл!E12</f>
-        <v>32.156999999999996</v>
+        <f>Потокорозподіл!E13</f>
+        <v>2.8430000000000035</v>
       </c>
       <c r="G10" s="29">
         <v>1</v>
       </c>
       <c r="H10" s="29">
         <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
-        <v>99.8</v>
+        <v>33.6</v>
       </c>
       <c r="I10" s="67"/>
     </row>
@@ -6742,15 +6777,15 @@
         <v>5.4</v>
       </c>
       <c r="F11" s="28">
-        <f>-Потокорозподіл!E13</f>
-        <v>2.8430000000000035</v>
+        <f>Потокорозподіл!E14</f>
+        <v>67</v>
       </c>
       <c r="G11" s="29">
         <v>2</v>
       </c>
       <c r="H11" s="29">
         <f>ROUND(4.34*SQRT(E11+16*F11/G11),1)</f>
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I11" s="65">
         <v>110</v>
@@ -6768,15 +6803,15 @@
         <v>7.2</v>
       </c>
       <c r="F12" s="28">
-        <f>Потокорозподіл!E14</f>
-        <v>67</v>
+        <f>Потокорозподіл!E15</f>
+        <v>32</v>
       </c>
       <c r="G12" s="29">
         <v>2</v>
       </c>
       <c r="H12" s="29">
         <f t="shared" si="0"/>
-        <v>101.2</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="I12" s="66"/>
     </row>
@@ -6792,15 +6827,15 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="F13" s="28">
-        <f>Потокорозподіл!E15</f>
-        <v>32</v>
+        <f>Потокорозподіл!E16</f>
+        <v>35</v>
       </c>
       <c r="G13" s="29">
         <v>2</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="0"/>
-        <v>70.599999999999994</v>
+        <v>73.7</v>
       </c>
       <c r="I13" s="67"/>
     </row>
@@ -7033,10 +7068,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7048,8 +7083,8 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="68" t="s">
         <v>111</v>
       </c>
@@ -7068,10 +7103,10 @@
       <c r="H2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="74" t="s">
+      <c r="J2" s="72" t="s">
         <v>105</v>
       </c>
       <c r="K2" s="36" t="s">
@@ -7080,17 +7115,17 @@
       <c r="L2" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="38">
+      <c r="N2" s="38">
         <v>0.8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+    <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="34" t="s">
         <v>101</v>
       </c>
@@ -7100,17 +7135,18 @@
       <c r="H3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="75"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" t="s">
+      <c r="L3" s="69"/>
+      <c r="M3" s="81"/>
+      <c r="N3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>'Таблиця 1-4'!F3</f>
         <v>25.19</v>
@@ -7150,15 +7186,15 @@
         <v>132.69</v>
       </c>
       <c r="K4" s="35">
-        <f>J4/$M$2</f>
+        <f>J4/$N$2</f>
         <v>165.86249999999998</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="80">
         <v>185</v>
       </c>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="82"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>'Таблиця 1-4'!F4</f>
         <v>36.81</v>
@@ -7167,8 +7203,8 @@
         <f>[1]Потокорозподіл!F6</f>
         <v>1.8340000000000001</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="34" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -7194,7 +7230,7 @@
         <v>193.46</v>
       </c>
       <c r="K5" s="35">
-        <f t="shared" ref="K5:K17" si="3">J5/$M$2</f>
+        <f>J5/$N$2</f>
         <v>241.82499999999999</v>
       </c>
       <c r="L5" s="39">
@@ -7202,7 +7238,7 @@
       </c>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>'Таблиця 1-4'!F5</f>
         <v>1.8099999999999987</v>
@@ -7211,8 +7247,8 @@
         <f>[1]Потокорозподіл!F7</f>
         <v>0.16599999999999993</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="34" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -7222,7 +7258,7 @@
         <v>1.81+0.166i</v>
       </c>
       <c r="G6" s="34">
-        <f t="shared" si="1"/>
+        <f>ROUND(1*IMABS(F6),2)</f>
         <v>1.82</v>
       </c>
       <c r="H6" s="34">
@@ -7238,7 +7274,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="K6" s="35">
-        <f t="shared" si="3"/>
+        <f>J6/$N$2</f>
         <v>11.9375</v>
       </c>
       <c r="L6" s="39">
@@ -7246,7 +7282,7 @@
       </c>
       <c r="M6" s="34"/>
     </row>
-    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>'Таблиця 1-4'!F6</f>
         <v>27</v>
@@ -7255,7 +7291,7 @@
         <f>[1]Потокорозподіл!F8</f>
         <v>4</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="68" t="s">
         <v>90</v>
       </c>
@@ -7284,7 +7320,7 @@
         <v>71.62</v>
       </c>
       <c r="K7" s="35">
-        <f t="shared" si="3"/>
+        <f>J7/$N$2</f>
         <v>89.525000000000006</v>
       </c>
       <c r="L7" s="39">
@@ -7292,7 +7328,7 @@
       </c>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>'Таблиця 1-4'!F7</f>
         <v>35</v>
@@ -7301,14 +7337,14 @@
         <f>[1]Потокорозподіл!F9</f>
         <v>2</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="34" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
       <c r="F8" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>COMPLEX(A8,B8)</f>
         <v>35+2i</v>
       </c>
       <c r="G8" s="34">
@@ -7328,7 +7364,7 @@
         <v>92.01</v>
       </c>
       <c r="K8" s="35">
-        <f t="shared" si="3"/>
+        <f>J8/$N$2</f>
         <v>115.0125</v>
       </c>
       <c r="L8" s="39">
@@ -7336,10 +7372,10 @@
       </c>
       <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>'Таблиця 1-4'!F8</f>
-        <v>0</v>
+        <v>34.843000000000004</v>
       </c>
       <c r="B9">
         <f>[1]Потокорозподіл!F10</f>
@@ -7356,12 +7392,12 @@
         <v>ВП-Г</v>
       </c>
       <c r="F9" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>2i</v>
+        <f>COMPLEX(A9,B9)</f>
+        <v>34.843+2i</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>34.9</v>
       </c>
       <c r="H9" s="34">
         <f>110</f>
@@ -7373,39 +7409,39 @@
       </c>
       <c r="J9" s="34">
         <f t="shared" si="2"/>
-        <v>10.5</v>
+        <v>183.18</v>
       </c>
       <c r="K9" s="35">
-        <f t="shared" si="3"/>
-        <v>13.125</v>
+        <f>J9/$N$2</f>
+        <v>228.97499999999999</v>
       </c>
       <c r="L9" s="39">
         <v>240</v>
       </c>
       <c r="M9" s="34"/>
     </row>
-    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>'Таблиця 1-4'!F9</f>
-        <v>34.843000000000004</v>
+        <v>32.156999999999996</v>
       </c>
       <c r="B10">
         <f>[1]Потокорозподіл!F11</f>
         <v>4.2350000000000003</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="34" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
       </c>
       <c r="F10" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>34.843+4.235i</v>
+        <v>32.157+4.235i</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
-        <v>35.1</v>
+        <v>32.43</v>
       </c>
       <c r="H10" s="34">
         <f>110</f>
@@ -7417,39 +7453,39 @@
       </c>
       <c r="J10" s="34">
         <f t="shared" si="2"/>
-        <v>184.23</v>
+        <v>170.21</v>
       </c>
       <c r="K10" s="35">
-        <f t="shared" si="3"/>
-        <v>230.28749999999997</v>
+        <f>J10/$N$2</f>
+        <v>212.76249999999999</v>
       </c>
       <c r="L10" s="39">
         <v>240</v>
       </c>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>'Таблиця 1-4'!F10</f>
-        <v>32.156999999999996</v>
+        <v>2.8430000000000035</v>
       </c>
       <c r="B11">
         <f>[1]Потокорозподіл!F12</f>
         <v>3.7650000000000001</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="34" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
       </c>
       <c r="F11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>32.157+3.765i</v>
+        <v>2.843+3.765i</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
-        <v>32.380000000000003</v>
+        <v>4.72</v>
       </c>
       <c r="H11" s="34">
         <f>110</f>
@@ -7461,27 +7497,27 @@
       </c>
       <c r="J11" s="34">
         <f t="shared" si="2"/>
-        <v>169.95</v>
+        <v>24.77</v>
       </c>
       <c r="K11" s="35">
-        <f t="shared" si="3"/>
-        <v>212.43749999999997</v>
+        <f>J11/$N$2</f>
+        <v>30.962499999999999</v>
       </c>
       <c r="L11" s="39">
         <v>70</v>
       </c>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>'Таблиця 1-4'!F11</f>
-        <v>2.8430000000000035</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <f>[1]Потокорозподіл!F13</f>
         <v>0.76500000000000012</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="68" t="s">
         <v>91</v>
       </c>
@@ -7491,11 +7527,11 @@
       </c>
       <c r="F12" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>2.843+0.765i</v>
+        <v>67+0.765i</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
-        <v>2.94</v>
+        <v>67</v>
       </c>
       <c r="H12" s="34">
         <f>110</f>
@@ -7507,39 +7543,39 @@
       </c>
       <c r="J12" s="34">
         <f t="shared" si="2"/>
-        <v>7.72</v>
+        <v>175.83</v>
       </c>
       <c r="K12" s="35">
-        <f t="shared" si="3"/>
-        <v>9.6499999999999986</v>
+        <f>J12/$N$2</f>
+        <v>219.78749999999999</v>
       </c>
       <c r="L12" s="39">
         <v>240</v>
       </c>
       <c r="M12" s="34"/>
     </row>
-    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>'Таблиця 1-4'!F12</f>
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <f>[1]Потокорозподіл!F14</f>
         <v>8</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="34" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
       </c>
       <c r="F13" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>67+8i</v>
+        <v>32+8i</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
-        <v>67.48</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="H13" s="34">
         <f>110</f>
@@ -7551,39 +7587,39 @@
       </c>
       <c r="J13" s="34">
         <f t="shared" si="2"/>
-        <v>177.09</v>
+        <v>86.55</v>
       </c>
       <c r="K13" s="35">
-        <f t="shared" si="3"/>
-        <v>221.36249999999998</v>
+        <f>J13/$N$2</f>
+        <v>108.18749999999999</v>
       </c>
       <c r="L13" s="39">
         <v>120</v>
       </c>
       <c r="M13" s="34"/>
     </row>
-    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>'Таблиця 1-4'!F13</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <f>[1]Потокорозподіл!F15</f>
         <v>5</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="34" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
       </c>
       <c r="F14" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>32+5i</v>
+        <v>35+5i</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
-        <v>32.39</v>
+        <v>35.36</v>
       </c>
       <c r="H14" s="34">
         <f>110</f>
@@ -7595,18 +7631,18 @@
       </c>
       <c r="J14" s="34">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>92.8</v>
       </c>
       <c r="K14" s="35">
-        <f t="shared" si="3"/>
-        <v>106.25</v>
+        <f>J14/$N$2</f>
+        <v>115.99999999999999</v>
       </c>
       <c r="L14" s="39">
         <v>120</v>
       </c>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>'Таблиця 1-4'!F14</f>
         <v>165</v>
@@ -7630,8 +7666,8 @@
         <v>165.03</v>
       </c>
       <c r="H15" s="34">
-        <f>110</f>
-        <v>110</v>
+        <f>220</f>
+        <v>220</v>
       </c>
       <c r="I15" s="34">
         <f>'Таблиця 1-4'!G14</f>
@@ -7639,18 +7675,18 @@
       </c>
       <c r="J15" s="34">
         <f t="shared" si="2"/>
-        <v>433.09</v>
+        <v>216.55</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" si="3"/>
-        <v>541.36249999999995</v>
+        <f>J15/$N$2</f>
+        <v>270.6875</v>
       </c>
       <c r="L15" s="39">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="M15" s="34"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>'Таблиця 1-4'!F15</f>
         <v>145</v>
@@ -7659,8 +7695,8 @@
         <f>[1]Потокорозподіл!F17</f>
         <v>37</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="34" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -7674,8 +7710,8 @@
         <v>149.65</v>
       </c>
       <c r="H16" s="34">
-        <f>110</f>
-        <v>110</v>
+        <f>220</f>
+        <v>220</v>
       </c>
       <c r="I16" s="34">
         <f>'Таблиця 1-4'!G15</f>
@@ -7683,14 +7719,14 @@
       </c>
       <c r="J16" s="34">
         <f t="shared" si="2"/>
-        <v>392.73</v>
+        <v>196.36</v>
       </c>
       <c r="K16" s="35">
-        <f t="shared" si="3"/>
-        <v>490.91250000000002</v>
+        <f>J16/$N$2</f>
+        <v>245.45000000000002</v>
       </c>
       <c r="L16" s="34">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="M16" s="34"/>
     </row>
@@ -7703,8 +7739,8 @@
         <f>[1]Потокорозподіл!F18</f>
         <v>22</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="34" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -7718,8 +7754,8 @@
         <v>29.73</v>
       </c>
       <c r="H17" s="34">
-        <f>110</f>
-        <v>110</v>
+        <f>220</f>
+        <v>220</v>
       </c>
       <c r="I17" s="34">
         <f>'Таблиця 1-4'!G16</f>
@@ -7727,25 +7763,19 @@
       </c>
       <c r="J17" s="34">
         <f t="shared" si="2"/>
-        <v>78.02</v>
+        <v>39.01</v>
       </c>
       <c r="K17" s="35">
-        <f t="shared" si="3"/>
-        <v>97.524999999999991</v>
+        <f>J17/$N$2</f>
+        <v>48.762499999999996</v>
       </c>
       <c r="L17" s="34">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -7754,6 +7784,12 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,16 @@
     <sheet name="Таблиця 1-3" sheetId="3" r:id="rId5"/>
     <sheet name="Потокорозподіл" sheetId="4" r:id="rId6"/>
     <sheet name="Таблиця 1-4" sheetId="6" r:id="rId7"/>
-    <sheet name="Fрозр" sheetId="8" r:id="rId8"/>
-    <sheet name="мех міцн" sheetId="9" r:id="rId9"/>
+    <sheet name="мех міцн" sheetId="9" r:id="rId8"/>
+    <sheet name="Fрозр" sheetId="8" r:id="rId9"/>
+    <sheet name="нагрів" sheetId="10" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -746,22 +744,10 @@
     <t>Гру-па</t>
   </si>
   <si>
-    <t>АС-150/24</t>
-  </si>
-  <si>
-    <t>АС-120/19</t>
-  </si>
-  <si>
     <t>4 – 4,5</t>
   </si>
   <si>
-    <t>АС-185/</t>
-  </si>
-  <si>
     <t>АС-150/34</t>
-  </si>
-  <si>
-    <t>АС-120/24</t>
   </si>
   <si>
     <t xml:space="preserve">за ПУЕ </t>
@@ -822,6 +808,225 @@
   <si>
     <t>Е-1</t>
   </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ном</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, кВ</t>
+    </r>
+  </si>
+  <si>
+    <t>ДЖ-ВП</t>
+  </si>
+  <si>
+    <t>зовн.мережа</t>
+  </si>
+  <si>
+    <t>АС-185/43</t>
+  </si>
+  <si>
+    <t>АС-240/56</t>
+  </si>
+  <si>
+    <t>АС-300/67</t>
+  </si>
+  <si>
+    <t>Так</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>діл</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+jQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>діл, МВ×А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>діл, МВ×А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ав</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>доп, А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ав</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>доп</t>
+    </r>
+  </si>
+  <si>
+    <t>Остаточний вибір</t>
+  </si>
+  <si>
+    <t>7,5 – 8</t>
+  </si>
+  <si>
+    <t>АС-400/51</t>
+  </si>
+  <si>
+    <t>АС-120/27</t>
+  </si>
+  <si>
+    <t>відключення ВП-В</t>
+  </si>
+  <si>
+    <t>відключення ВП-Д</t>
+  </si>
+  <si>
+    <t>Д-В</t>
+  </si>
+  <si>
+    <t>відключення ВП-Е</t>
+  </si>
+  <si>
+    <t>відключення ВП-Г</t>
+  </si>
+  <si>
+    <t>Г-Е</t>
+  </si>
+  <si>
+    <t>Кільце</t>
+  </si>
+  <si>
+    <t>Магістраль</t>
+  </si>
 </sst>
 </file>
 
@@ -830,7 +1035,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,16 +1176,29 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1348,16 +1566,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
         <color rgb="FF000000"/>
-      </bottom>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1368,6 +1639,30 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1376,7 +1671,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1384,18 +1681,33 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1495,21 +1807,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1587,47 +1892,160 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2997,15 +3415,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>20527</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>117475</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>296309</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3307,100 +3725,139 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Рис 1-2 Довжини"/>
-      <sheetName val="Таблиця 1-3"/>
-      <sheetName val="Потокорозподіл"/>
-      <sheetName val="Unom"/>
-      <sheetName val="Fрозр"/>
-      <sheetName val="мех міцн"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="5">
-          <cell r="F5">
-            <v>2.1659999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>1.8340000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>0.16599999999999993</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>4.2350000000000003</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>3.7650000000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>0.76500000000000012</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>22</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>76199</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>76199</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>164306</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3692,7 +4149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3711,7 +4168,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3729,14 +4186,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="41" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3752,7 +4209,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -3959,7 +4416,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3989,7 +4446,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4362,6 +4819,736 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="74"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="104"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="76"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="82" t="str">
+        <f>COMPLEX(62,38)</f>
+        <v>62+38i</v>
+      </c>
+      <c r="F5" s="82">
+        <f>IMABS(E5)</f>
+        <v>72.718635850791372</v>
+      </c>
+      <c r="G5" s="82">
+        <v>110</v>
+      </c>
+      <c r="H5" s="109">
+        <f>(F5/SQRT(3)/G5)*1000</f>
+        <v>381.67385439597064</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="82">
+        <v>680</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="76"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="82" t="str">
+        <f>COMPLEX(27,19)</f>
+        <v>27+19i</v>
+      </c>
+      <c r="F6" s="82">
+        <f>IMABS(E6)</f>
+        <v>33.015148038438355</v>
+      </c>
+      <c r="G6" s="82">
+        <v>110</v>
+      </c>
+      <c r="H6" s="82">
+        <f>(F6/SQRT(3)/G6)*1000</f>
+        <v>173.28458733934301</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="82">
+        <v>450</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="79"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
+    </row>
+    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="79"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="82" t="str">
+        <f>E5</f>
+        <v>62+38i</v>
+      </c>
+      <c r="F8" s="82">
+        <f>IMABS(E8)</f>
+        <v>72.718635850791372</v>
+      </c>
+      <c r="G8" s="82">
+        <v>110</v>
+      </c>
+      <c r="H8" s="109">
+        <f>(F8/SQRT(3)/G8)*1000</f>
+        <v>381.67385439597064</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="82">
+        <v>610</v>
+      </c>
+      <c r="K8" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="79"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="82" t="str">
+        <f>COMPLEX(35,19)</f>
+        <v>35+19i</v>
+      </c>
+      <c r="F9" s="82">
+        <f>IMABS(E9)</f>
+        <v>39.824615503479755</v>
+      </c>
+      <c r="G9" s="82">
+        <v>110</v>
+      </c>
+      <c r="H9" s="113">
+        <f>(F9/SQRT(3)/G9)*1000</f>
+        <v>209.02502255733981</v>
+      </c>
+      <c r="I9" s="82" t="str">
+        <f>I6</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="J9" s="82">
+        <v>450</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="79"/>
+      <c r="C10" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="113" t="str">
+        <f>'Таблиця 1-4'!D6</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E10" s="113" t="str">
+        <f>Fрозр!F7</f>
+        <v>27+13.8i</v>
+      </c>
+      <c r="F10" s="113">
+        <f>Fрозр!G7</f>
+        <v>30.32</v>
+      </c>
+      <c r="G10" s="113">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="H10" s="113">
+        <f>(F10/SQRT(3)/G10)*1000</f>
+        <v>159.13872874390415</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="113">
+        <v>375</v>
+      </c>
+      <c r="K10" s="113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="79"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="113" t="str">
+        <f>'Таблиця 1-4'!D7</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="E11" s="113" t="str">
+        <f>Fрозр!F8</f>
+        <v>35+19i</v>
+      </c>
+      <c r="F11" s="113">
+        <f>Fрозр!G8</f>
+        <v>39.82</v>
+      </c>
+      <c r="G11" s="113">
+        <f>110</f>
+        <v>110</v>
+      </c>
+      <c r="H11" s="113">
+        <f>(F11/SQRT(3)/G11)*1000</f>
+        <v>209.00079744664453</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="113">
+        <v>450</v>
+      </c>
+      <c r="K11" s="113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="117"/>
+    </row>
+    <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="76"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="82" t="str">
+        <f>COMPLEX(62,32.5)</f>
+        <v>62+32.5i</v>
+      </c>
+      <c r="F13" s="82">
+        <f>IMABS(E13)</f>
+        <v>70.001785691509326</v>
+      </c>
+      <c r="G13" s="82">
+        <v>110</v>
+      </c>
+      <c r="H13" s="109">
+        <f>(F13/SQRT(3)/G13)*1000</f>
+        <v>367.41408920679464</v>
+      </c>
+      <c r="I13" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="82">
+        <v>610</v>
+      </c>
+      <c r="K13" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="76"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="82" t="str">
+        <f>COMPLEX(27,15.5)</f>
+        <v>27+15.5i</v>
+      </c>
+      <c r="F14" s="82">
+        <f>IMABS(E14)</f>
+        <v>31.132780152116194</v>
+      </c>
+      <c r="G14" s="82">
+        <v>110</v>
+      </c>
+      <c r="H14" s="82">
+        <f>(F14/SQRT(3)/G14)*1000</f>
+        <v>163.40471819496113</v>
+      </c>
+      <c r="I14" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="82">
+        <v>450</v>
+      </c>
+      <c r="K14" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="79"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="115" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="117"/>
+    </row>
+    <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="79"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="82" t="str">
+        <f>E13</f>
+        <v>62+32.5i</v>
+      </c>
+      <c r="F16" s="82">
+        <f>IMABS(E16)</f>
+        <v>70.001785691509326</v>
+      </c>
+      <c r="G16" s="82">
+        <v>110</v>
+      </c>
+      <c r="H16" s="109">
+        <f>(F16/SQRT(3)/G16)*1000</f>
+        <v>367.41408920679464</v>
+      </c>
+      <c r="I16" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="82">
+        <v>680</v>
+      </c>
+      <c r="K16" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="79"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="82" t="str">
+        <f>COMPLEX(35,17)</f>
+        <v>35+17i</v>
+      </c>
+      <c r="F17" s="82">
+        <f>IMABS(E17)</f>
+        <v>38.910152916687437</v>
+      </c>
+      <c r="G17" s="82">
+        <v>110</v>
+      </c>
+      <c r="H17" s="82">
+        <f>(F17/SQRT(3)/G17)*1000</f>
+        <v>204.22533873326358</v>
+      </c>
+      <c r="I17" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="82">
+        <v>450</v>
+      </c>
+      <c r="K17" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="79"/>
+      <c r="C18" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="114" t="str">
+        <f>Fрозр!E12</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="E18" s="114" t="str">
+        <f>Fрозр!F12</f>
+        <v>67+32.5i</v>
+      </c>
+      <c r="F18" s="114">
+        <f>Fрозр!G12</f>
+        <v>74.47</v>
+      </c>
+      <c r="G18" s="114">
+        <f>Fрозр!H12</f>
+        <v>110</v>
+      </c>
+      <c r="H18" s="113">
+        <f>(F18/SQRT(3)/G18)*1000</f>
+        <v>390.86613224137665</v>
+      </c>
+      <c r="I18" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="114">
+        <v>680</v>
+      </c>
+      <c r="K18" s="114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="79"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="114" t="str">
+        <f>Fрозр!E13</f>
+        <v>Г-2</v>
+      </c>
+      <c r="E19" s="114" t="str">
+        <f>Fрозр!F13</f>
+        <v>32+15.5i</v>
+      </c>
+      <c r="F19" s="114">
+        <f>Fрозр!G13</f>
+        <v>35.56</v>
+      </c>
+      <c r="G19" s="114">
+        <f>Fрозр!H13</f>
+        <v>110</v>
+      </c>
+      <c r="H19" s="113">
+        <f t="shared" ref="H18:H23" si="0">(F19/SQRT(3)/G19)*1000</f>
+        <v>186.64159611257361</v>
+      </c>
+      <c r="I19" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="114">
+        <v>375</v>
+      </c>
+      <c r="K19" s="114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="79"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="114" t="str">
+        <f>Fрозр!E14</f>
+        <v>Е-2</v>
+      </c>
+      <c r="E20" s="114" t="str">
+        <f>Fрозр!F14</f>
+        <v>35+17i</v>
+      </c>
+      <c r="F20" s="114">
+        <f>Fрозр!G14</f>
+        <v>38.909999999999997</v>
+      </c>
+      <c r="G20" s="114">
+        <f>Fрозр!H14</f>
+        <v>110</v>
+      </c>
+      <c r="H20" s="113">
+        <f t="shared" si="0"/>
+        <v>204.22453612880309</v>
+      </c>
+      <c r="I20" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="114">
+        <v>450</v>
+      </c>
+      <c r="K20" s="114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="114" t="str">
+        <f>'Таблиця 1-4'!D14</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E21" s="114" t="str">
+        <f>Fрозр!F15</f>
+        <v>165+90.3i</v>
+      </c>
+      <c r="F21" s="114">
+        <f>Fрозр!G15</f>
+        <v>188.09</v>
+      </c>
+      <c r="G21" s="114">
+        <f>Fрозр!H15</f>
+        <v>220</v>
+      </c>
+      <c r="H21" s="113">
+        <f t="shared" si="0"/>
+        <v>493.60823696307597</v>
+      </c>
+      <c r="I21" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="114">
+        <v>825</v>
+      </c>
+      <c r="K21" s="114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="51"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="114" t="str">
+        <f>'Таблиця 1-4'!D15</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E22" s="114" t="str">
+        <f>Fрозр!F16</f>
+        <v>145+77.3i</v>
+      </c>
+      <c r="F22" s="114">
+        <f>Fрозр!G16</f>
+        <v>164.32</v>
+      </c>
+      <c r="G22" s="114">
+        <f>Fрозр!H16</f>
+        <v>220</v>
+      </c>
+      <c r="H22" s="113">
+        <f t="shared" si="0"/>
+        <v>431.22816469654236</v>
+      </c>
+      <c r="I22" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="114">
+        <v>680</v>
+      </c>
+      <c r="K22" s="114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="81"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="114" t="str">
+        <f>'Таблиця 1-4'!D16</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E23" s="114" t="str">
+        <f>Fрозр!F17</f>
+        <v>20+13i</v>
+      </c>
+      <c r="F23" s="114">
+        <f>Fрозр!G17</f>
+        <v>23.85</v>
+      </c>
+      <c r="G23" s="114">
+        <f>Fрозр!H17</f>
+        <v>220</v>
+      </c>
+      <c r="H23" s="113">
+        <f t="shared" si="0"/>
+        <v>62.590017818966253</v>
+      </c>
+      <c r="I23" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="114">
+        <v>610</v>
+      </c>
+      <c r="K23" s="114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -4990,7 +6177,7 @@
         <v>81</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G6:G7" si="1">ROUND(1.1*H7/10*2,1)</f>
+        <f t="shared" ref="G7" si="1">ROUND(1.1*H7/10*2,1)</f>
         <v>14.5</v>
       </c>
       <c r="H7">
@@ -5217,7 +6404,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P26">
         <f>ROUND(1.1*Q26/10*2,1)</f>
@@ -5379,7 +6566,7 @@
   <dimension ref="G3:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,6 +6673,13 @@
       </c>
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7">
+        <f>H4+H5</f>
+        <v>37.400000000000006</v>
+      </c>
       <c r="J7" t="str">
         <f>'Вар2. Длинна'!J7</f>
         <v>В</v>
@@ -5611,26 +6805,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="47" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="46"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -5779,7 +6973,7 @@
         <f>K6+K5*3</f>
         <v>45.480000000000004</v>
       </c>
-      <c r="L7" s="83">
+      <c r="L7" s="40">
         <f>L6+L5*3</f>
         <v>44.92</v>
       </c>
@@ -5949,7 +7143,7 @@
   <dimension ref="A2:R35"/>
   <sheetViews>
     <sheetView topLeftCell="B3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,10 +7629,10 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F29">
         <f>SQRT(F26^2+G26^2)</f>
@@ -6447,7 +7641,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
         <v>63</v>
@@ -6520,7 +7714,7 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6556,10 +7750,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="57" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -6581,13 +7775,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>88.4</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="53">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -6607,11 +7801,11 @@
         <f t="shared" ref="H4:H15" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>106</v>
       </c>
-      <c r="I4" s="54"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -6631,11 +7825,11 @@
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-      <c r="I5" s="57"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51"/>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="60" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -6657,13 +7851,13 @@
         <f t="shared" si="0"/>
         <v>64.599999999999994</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="50">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -6683,13 +7877,13 @@
         <f t="shared" si="0"/>
         <v>73.599999999999994</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="60" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -6711,13 +7905,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="62">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -6737,11 +7931,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="66"/>
+      <c r="I9" s="63"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="51"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -6761,11 +7955,11 @@
         <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
         <v>33.6</v>
       </c>
-      <c r="I10" s="67"/>
+      <c r="I10" s="64"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="51"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="60" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -6787,13 +7981,13 @@
         <f>ROUND(4.34*SQRT(E11+16*F11/G11),1)</f>
         <v>101</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="62">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -6813,11 +8007,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="66"/>
+      <c r="I12" s="63"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -6837,13 +8031,13 @@
         <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -6863,13 +8057,13 @@
         <f t="shared" si="0"/>
         <v>158.6</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="62">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -6889,11 +8083,11 @@
         <f t="shared" si="0"/>
         <v>149.19999999999999</v>
       </c>
-      <c r="I15" s="66"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="52"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -6913,7 +8107,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="67"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7068,10 +8262,171 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="77"/>
+    </row>
+    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="78">
+        <v>114</v>
+      </c>
+      <c r="E5" s="78">
+        <v>26.6</v>
+      </c>
+      <c r="F5" s="83">
+        <f>D5/E5</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="78">
+        <v>147</v>
+      </c>
+      <c r="E6" s="78">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F6" s="83">
+        <f t="shared" ref="F6:F9" si="0">D6/E6</f>
+        <v>4.2857142857142865</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="78">
+        <v>185</v>
+      </c>
+      <c r="E7" s="78">
+        <v>43.1</v>
+      </c>
+      <c r="F7" s="83">
+        <f t="shared" si="0"/>
+        <v>4.2923433874709973</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="78">
+        <v>241</v>
+      </c>
+      <c r="E8" s="78">
+        <v>56.3</v>
+      </c>
+      <c r="F8" s="83">
+        <f t="shared" si="0"/>
+        <v>4.2806394316163416</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="78">
+        <v>288.5</v>
+      </c>
+      <c r="E9" s="78">
+        <v>67.3</v>
+      </c>
+      <c r="F9" s="83">
+        <f t="shared" si="0"/>
+        <v>4.2867756315007428</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="78">
+        <v>394</v>
+      </c>
+      <c r="E10" s="78">
+        <v>51.1</v>
+      </c>
+      <c r="F10" s="83">
+        <f t="shared" ref="F10" si="1">D10/E10</f>
+        <v>7.7103718199608604</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7085,13 +8440,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="65" t="s">
         <v>109</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -7103,19 +8458,22 @@
       <c r="H2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="70" t="s">
         <v>105</v>
       </c>
       <c r="K2" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="38">
+      <c r="M2" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="37">
         <v>0.8</v>
       </c>
       <c r="O2" t="s">
@@ -7123,99 +8481,101 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="34" t="s">
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="81"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>'Таблиця 1-4'!F3</f>
+        <f>Потокорозподіл!E5</f>
         <v>25.19</v>
       </c>
       <c r="B4">
-        <f>[1]Потокорозподіл!F5</f>
-        <v>2.1659999999999999</v>
-      </c>
-      <c r="C4" s="68" t="s">
+        <f>Потокорозподіл!F5</f>
+        <v>15.984</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="34" t="str">
+      <c r="E4" s="92" t="str">
         <f>'Таблиця 1-4'!D3</f>
         <v>ВП-В</v>
       </c>
-      <c r="F4" s="34" t="str">
+      <c r="F4" s="92" t="str">
         <f>COMPLEX(A4,B4)</f>
-        <v>25.19+2.166i</v>
-      </c>
-      <c r="G4" s="34">
+        <v>25.19+15.984i</v>
+      </c>
+      <c r="G4" s="92">
         <f>ROUND(1*IMABS(F4),2)</f>
-        <v>25.28</v>
-      </c>
-      <c r="H4" s="34">
+        <v>29.83</v>
+      </c>
+      <c r="H4" s="92">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="92">
         <f>'Таблиця 1-4'!G3</f>
         <v>1</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="92">
         <f>ROUND(G4/SQRT(3)/H4/I4*10^3,2)</f>
-        <v>132.69</v>
-      </c>
-      <c r="K4" s="35">
-        <f>J4/$N$2</f>
-        <v>165.86249999999998</v>
-      </c>
-      <c r="L4" s="80">
-        <v>185</v>
-      </c>
-      <c r="M4" s="82"/>
+        <v>156.57</v>
+      </c>
+      <c r="K4" s="93">
+        <f t="shared" ref="K4:K17" si="0">J4/$N$2</f>
+        <v>195.71249999999998</v>
+      </c>
+      <c r="L4" s="94">
+        <v>240</v>
+      </c>
+      <c r="M4" s="39">
+        <v>240</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>'Таблиця 1-4'!F4</f>
+        <f>Потокорозподіл!E6</f>
         <v>36.81</v>
       </c>
       <c r="B5">
-        <f>[1]Потокорозподіл!F6</f>
-        <v>1.8340000000000001</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+        <f>Потокорозподіл!F6</f>
+        <v>22.015999999999998</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="34" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
       </c>
       <c r="F5" s="34" t="str">
-        <f t="shared" ref="F5:F17" si="0">COMPLEX(A5,B5)</f>
-        <v>36.81+1.834i</v>
+        <f t="shared" ref="F5:F17" si="1">COMPLEX(A5,B5)</f>
+        <v>36.81+22.016i</v>
       </c>
       <c r="G5" s="34">
-        <f t="shared" ref="G5:G17" si="1">ROUND(1*IMABS(F5),2)</f>
-        <v>36.86</v>
+        <f t="shared" ref="G5:G17" si="2">ROUND(1*IMABS(F5),2)</f>
+        <v>42.89</v>
       </c>
       <c r="H5" s="34">
         <f>110</f>
@@ -7226,73 +8586,77 @@
         <v>1</v>
       </c>
       <c r="J5" s="34">
-        <f t="shared" ref="J5:J17" si="2">ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
-        <v>193.46</v>
+        <f t="shared" ref="J5:J17" si="3">ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
+        <v>225.11</v>
       </c>
       <c r="K5" s="35">
-        <f>J5/$N$2</f>
-        <v>241.82499999999999</v>
-      </c>
-      <c r="L5" s="39">
-        <v>240</v>
-      </c>
-      <c r="M5" s="34"/>
+        <f t="shared" si="0"/>
+        <v>281.38749999999999</v>
+      </c>
+      <c r="L5" s="38">
+        <v>300</v>
+      </c>
+      <c r="M5" s="96">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>'Таблиця 1-4'!F5</f>
+        <f>Потокорозподіл!E7</f>
         <v>1.8099999999999987</v>
       </c>
       <c r="B6">
-        <f>[1]Потокорозподіл!F7</f>
-        <v>0.16599999999999993</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="34" t="str">
+        <f>Потокорозподіл!F7</f>
+        <v>3.016</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="71" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
       </c>
-      <c r="F6" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>1.81+0.166i</v>
-      </c>
-      <c r="G6" s="34">
+      <c r="F6" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>1.81+3.016i</v>
+      </c>
+      <c r="G6" s="71">
         <f>ROUND(1*IMABS(F6),2)</f>
-        <v>1.82</v>
-      </c>
-      <c r="H6" s="34">
+        <v>3.52</v>
+      </c>
+      <c r="H6" s="71">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="71">
         <f>'Таблиця 1-4'!G5</f>
         <v>1</v>
       </c>
-      <c r="J6" s="34">
-        <f t="shared" si="2"/>
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="K6" s="35">
-        <f>J6/$N$2</f>
-        <v>11.9375</v>
-      </c>
-      <c r="L6" s="39">
+      <c r="J6" s="71">
+        <f t="shared" si="3"/>
+        <v>18.48</v>
+      </c>
+      <c r="K6" s="98">
+        <f t="shared" si="0"/>
+        <v>23.099999999999998</v>
+      </c>
+      <c r="L6" s="99">
         <v>70</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="100">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>'Таблиця 1-4'!F6</f>
+        <f>Потокорозподіл!E8</f>
         <v>27</v>
       </c>
       <c r="B7">
-        <f>[1]Потокорозподіл!F8</f>
-        <v>4</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="68" t="s">
+        <f>Потокорозподіл!F8</f>
+        <v>13.8</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="87" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="34" t="str">
@@ -7300,12 +8664,12 @@
         <v>В-Д</v>
       </c>
       <c r="F7" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>27+4i</v>
+        <f t="shared" si="1"/>
+        <v>27+13.8i</v>
       </c>
       <c r="G7" s="34">
-        <f t="shared" si="1"/>
-        <v>27.29</v>
+        <f t="shared" si="2"/>
+        <v>30.32</v>
       </c>
       <c r="H7" s="34">
         <f>110</f>
@@ -7316,40 +8680,42 @@
         <v>2</v>
       </c>
       <c r="J7" s="34">
-        <f t="shared" si="2"/>
-        <v>71.62</v>
+        <f t="shared" si="3"/>
+        <v>79.569999999999993</v>
       </c>
       <c r="K7" s="35">
-        <f>J7/$N$2</f>
-        <v>89.525000000000006</v>
-      </c>
-      <c r="L7" s="39">
+        <f t="shared" si="0"/>
+        <v>99.462499999999991</v>
+      </c>
+      <c r="L7" s="38">
         <v>120</v>
       </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="34">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>'Таблиця 1-4'!F7</f>
+        <f>Потокорозподіл!E9</f>
         <v>35</v>
       </c>
       <c r="B8">
-        <f>[1]Потокорозподіл!F9</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+        <f>Потокорозподіл!F9</f>
+        <v>19</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="34" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
       <c r="F8" s="34" t="str">
         <f>COMPLEX(A8,B8)</f>
-        <v>35+2i</v>
+        <v>35+19i</v>
       </c>
       <c r="G8" s="34">
-        <f t="shared" si="1"/>
-        <v>35.06</v>
+        <f t="shared" si="2"/>
+        <v>39.82</v>
       </c>
       <c r="H8" s="34">
         <f>110</f>
@@ -7360,31 +8726,33 @@
         <v>2</v>
       </c>
       <c r="J8" s="34">
-        <f t="shared" si="2"/>
-        <v>92.01</v>
+        <f t="shared" si="3"/>
+        <v>104.5</v>
       </c>
       <c r="K8" s="35">
-        <f>J8/$N$2</f>
-        <v>115.0125</v>
-      </c>
-      <c r="L8" s="39">
-        <v>95</v>
-      </c>
-      <c r="M8" s="34"/>
+        <f t="shared" si="0"/>
+        <v>130.625</v>
+      </c>
+      <c r="L8" s="38">
+        <v>150</v>
+      </c>
+      <c r="M8" s="34">
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>'Таблиця 1-4'!F8</f>
+        <f>Потокорозподіл!E11</f>
         <v>34.843000000000004</v>
       </c>
       <c r="B9">
-        <f>[1]Потокорозподіл!F10</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="68" t="s">
+        <f>Потокорозподіл!F11</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="65" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="34" t="str">
@@ -7393,11 +8761,11 @@
       </c>
       <c r="F9" s="34" t="str">
         <f>COMPLEX(A9,B9)</f>
-        <v>34.843+2i</v>
+        <v>34.843+16.892i</v>
       </c>
       <c r="G9" s="34">
-        <f t="shared" si="1"/>
-        <v>34.9</v>
+        <f t="shared" si="2"/>
+        <v>38.72</v>
       </c>
       <c r="H9" s="34">
         <f>110</f>
@@ -7408,40 +8776,42 @@
         <v>1</v>
       </c>
       <c r="J9" s="34">
-        <f t="shared" si="2"/>
-        <v>183.18</v>
+        <f t="shared" si="3"/>
+        <v>203.23</v>
       </c>
       <c r="K9" s="35">
-        <f>J9/$N$2</f>
-        <v>228.97499999999999</v>
-      </c>
-      <c r="L9" s="39">
-        <v>240</v>
-      </c>
-      <c r="M9" s="34"/>
+        <f t="shared" si="0"/>
+        <v>254.03749999999997</v>
+      </c>
+      <c r="L9" s="38">
+        <v>300</v>
+      </c>
+      <c r="M9" s="34">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>'Таблиця 1-4'!F9</f>
+        <f>Потокорозподіл!E12</f>
         <v>32.156999999999996</v>
       </c>
       <c r="B10">
-        <f>[1]Потокорозподіл!F11</f>
-        <v>4.2350000000000003</v>
-      </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+        <f>Потокорозподіл!F12</f>
+        <v>15.608000000000001</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="34" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
       </c>
       <c r="F10" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>32.157+4.235i</v>
+        <f t="shared" si="1"/>
+        <v>32.157+15.608i</v>
       </c>
       <c r="G10" s="34">
-        <f t="shared" si="1"/>
-        <v>32.43</v>
+        <f t="shared" si="2"/>
+        <v>35.74</v>
       </c>
       <c r="H10" s="34">
         <f>110</f>
@@ -7452,40 +8822,42 @@
         <v>1</v>
       </c>
       <c r="J10" s="34">
-        <f t="shared" si="2"/>
-        <v>170.21</v>
+        <f t="shared" si="3"/>
+        <v>187.59</v>
       </c>
       <c r="K10" s="35">
-        <f>J10/$N$2</f>
-        <v>212.76249999999999</v>
-      </c>
-      <c r="L10" s="39">
+        <f t="shared" si="0"/>
+        <v>234.48749999999998</v>
+      </c>
+      <c r="L10" s="38">
         <v>240</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="34">
+        <v>240</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>'Таблиця 1-4'!F10</f>
+        <f>Потокорозподіл!E13</f>
         <v>2.8430000000000035</v>
       </c>
       <c r="B11">
-        <f>[1]Потокорозподіл!F12</f>
-        <v>3.7650000000000001</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
+        <f>Потокорозподіл!F13</f>
+        <v>1.3919999999999995</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="34" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
       </c>
       <c r="F11" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>2.843+3.765i</v>
+        <f t="shared" si="1"/>
+        <v>2.843+1.392i</v>
       </c>
       <c r="G11" s="34">
-        <f t="shared" si="1"/>
-        <v>4.72</v>
+        <f t="shared" si="2"/>
+        <v>3.17</v>
       </c>
       <c r="H11" s="34">
         <f>110</f>
@@ -7496,29 +8868,31 @@
         <v>1</v>
       </c>
       <c r="J11" s="34">
-        <f t="shared" si="2"/>
-        <v>24.77</v>
+        <f t="shared" si="3"/>
+        <v>16.64</v>
       </c>
       <c r="K11" s="35">
-        <f>J11/$N$2</f>
-        <v>30.962499999999999</v>
-      </c>
-      <c r="L11" s="39">
+        <f t="shared" si="0"/>
+        <v>20.8</v>
+      </c>
+      <c r="L11" s="38">
         <v>70</v>
       </c>
-      <c r="M11" s="34"/>
+      <c r="M11" s="34">
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>'Таблиця 1-4'!F11</f>
+        <f>Потокорозподіл!E14</f>
         <v>67</v>
       </c>
       <c r="B12">
-        <f>[1]Потокорозподіл!F13</f>
-        <v>0.76500000000000012</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="68" t="s">
+        <f>Потокорозподіл!F14</f>
+        <v>32.5</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="65" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="34" t="str">
@@ -7526,12 +8900,12 @@
         <v>ВП-2</v>
       </c>
       <c r="F12" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>67+0.765i</v>
+        <f>COMPLEX(A12,B12)</f>
+        <v>67+32.5i</v>
       </c>
       <c r="G12" s="34">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <f>ROUND(1*IMABS(F12),2)</f>
+        <v>74.47</v>
       </c>
       <c r="H12" s="34">
         <f>110</f>
@@ -7542,17 +8916,19 @@
         <v>2</v>
       </c>
       <c r="J12" s="34">
-        <f t="shared" si="2"/>
-        <v>175.83</v>
+        <f t="shared" si="3"/>
+        <v>195.43</v>
       </c>
       <c r="K12" s="35">
-        <f>J12/$N$2</f>
-        <v>219.78749999999999</v>
-      </c>
-      <c r="L12" s="39">
-        <v>240</v>
-      </c>
-      <c r="M12" s="34"/>
+        <f t="shared" si="0"/>
+        <v>244.28749999999999</v>
+      </c>
+      <c r="L12" s="38">
+        <v>300</v>
+      </c>
+      <c r="M12" s="34">
+        <v>300</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -7560,22 +8936,22 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <f>[1]Потокорозподіл!F14</f>
-        <v>8</v>
-      </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+        <f>Потокорозподіл!F15</f>
+        <v>15.5</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="34" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
       </c>
       <c r="F13" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>32+8i</v>
+        <f t="shared" si="1"/>
+        <v>32+15.5i</v>
       </c>
       <c r="G13" s="34">
-        <f t="shared" si="1"/>
-        <v>32.979999999999997</v>
+        <f t="shared" si="2"/>
+        <v>35.56</v>
       </c>
       <c r="H13" s="34">
         <f>110</f>
@@ -7586,17 +8962,19 @@
         <v>2</v>
       </c>
       <c r="J13" s="34">
-        <f t="shared" si="2"/>
-        <v>86.55</v>
+        <f t="shared" si="3"/>
+        <v>93.32</v>
       </c>
       <c r="K13" s="35">
-        <f>J13/$N$2</f>
-        <v>108.18749999999999</v>
-      </c>
-      <c r="L13" s="39">
+        <f t="shared" si="0"/>
+        <v>116.64999999999999</v>
+      </c>
+      <c r="L13" s="38">
         <v>120</v>
       </c>
-      <c r="M13" s="34"/>
+      <c r="M13" s="34">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -7604,22 +8982,22 @@
         <v>35</v>
       </c>
       <c r="B14">
-        <f>[1]Потокорозподіл!F15</f>
-        <v>5</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+        <f>Потокорозподіл!F16</f>
+        <v>17</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="34" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
       </c>
       <c r="F14" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>35+5i</v>
+        <f t="shared" si="1"/>
+        <v>35+17i</v>
       </c>
       <c r="G14" s="34">
-        <f t="shared" si="1"/>
-        <v>35.36</v>
+        <f t="shared" si="2"/>
+        <v>38.909999999999997</v>
       </c>
       <c r="H14" s="34">
         <f>110</f>
@@ -7630,40 +9008,42 @@
         <v>2</v>
       </c>
       <c r="J14" s="34">
-        <f t="shared" si="2"/>
-        <v>92.8</v>
+        <f t="shared" si="3"/>
+        <v>102.11</v>
       </c>
       <c r="K14" s="35">
-        <f>J14/$N$2</f>
-        <v>115.99999999999999</v>
-      </c>
-      <c r="L14" s="39">
-        <v>120</v>
-      </c>
-      <c r="M14" s="34"/>
+        <f t="shared" si="0"/>
+        <v>127.63749999999999</v>
+      </c>
+      <c r="L14" s="38">
+        <v>150</v>
+      </c>
+      <c r="M14" s="34">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>'Таблиця 1-4'!F14</f>
+        <f>Потокорозподіл!F25</f>
         <v>165</v>
       </c>
       <c r="B15">
-        <f>[1]Потокорозподіл!F16</f>
-        <v>3</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+        <f>Потокорозподіл!G25</f>
+        <v>90.3</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="34" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
       </c>
       <c r="F15" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>165+3i</v>
+        <f t="shared" si="1"/>
+        <v>165+90.3i</v>
       </c>
       <c r="G15" s="34">
-        <f t="shared" si="1"/>
-        <v>165.03</v>
+        <f t="shared" si="2"/>
+        <v>188.09</v>
       </c>
       <c r="H15" s="34">
         <f>220</f>
@@ -7674,40 +9054,42 @@
         <v>2</v>
       </c>
       <c r="J15" s="34">
-        <f t="shared" si="2"/>
-        <v>216.55</v>
+        <f t="shared" si="3"/>
+        <v>246.8</v>
       </c>
       <c r="K15" s="35">
-        <f>J15/$N$2</f>
-        <v>270.6875</v>
-      </c>
-      <c r="L15" s="39">
-        <v>300</v>
-      </c>
-      <c r="M15" s="34"/>
+        <f t="shared" si="0"/>
+        <v>308.5</v>
+      </c>
+      <c r="L15" s="38">
+        <v>400</v>
+      </c>
+      <c r="M15" s="34">
+        <v>400</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>'Таблиця 1-4'!F15</f>
+        <f>Потокорозподіл!F26</f>
         <v>145</v>
       </c>
-      <c r="B16" s="37">
-        <f>[1]Потокорозподіл!F17</f>
-        <v>37</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="B16">
+        <f>Потокорозподіл!G26</f>
+        <v>77.3</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="34" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
       </c>
       <c r="F16" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>145+37i</v>
+        <f t="shared" si="1"/>
+        <v>145+77.3i</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="1"/>
-        <v>149.65</v>
+        <f t="shared" si="2"/>
+        <v>164.32</v>
       </c>
       <c r="H16" s="34">
         <f>220</f>
@@ -7718,40 +9100,42 @@
         <v>2</v>
       </c>
       <c r="J16" s="34">
-        <f t="shared" si="2"/>
-        <v>196.36</v>
+        <f t="shared" si="3"/>
+        <v>215.61</v>
       </c>
       <c r="K16" s="35">
-        <f>J16/$N$2</f>
-        <v>245.45000000000002</v>
+        <f t="shared" si="0"/>
+        <v>269.51249999999999</v>
       </c>
       <c r="L16" s="34">
         <v>300</v>
       </c>
-      <c r="M16" s="34"/>
+      <c r="M16" s="34">
+        <v>300</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>'Таблиця 1-4'!F16</f>
+        <f>Потокорозподіл!F27</f>
         <v>20</v>
       </c>
-      <c r="B17" s="37">
-        <f>[1]Потокорозподіл!F18</f>
-        <v>22</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
+      <c r="B17">
+        <f>Потокорозподіл!G27</f>
+        <v>13</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="34" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
       </c>
       <c r="F17" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>20+22i</v>
+        <f t="shared" si="1"/>
+        <v>20+13i</v>
       </c>
       <c r="G17" s="34">
-        <f t="shared" si="1"/>
-        <v>29.73</v>
+        <f t="shared" si="2"/>
+        <v>23.85</v>
       </c>
       <c r="H17" s="34">
         <f>220</f>
@@ -7762,20 +9146,29 @@
         <v>2</v>
       </c>
       <c r="J17" s="34">
-        <f t="shared" si="2"/>
-        <v>39.01</v>
+        <f t="shared" si="3"/>
+        <v>31.3</v>
       </c>
       <c r="K17" s="35">
-        <f>J17/$N$2</f>
-        <v>48.762499999999996</v>
+        <f t="shared" si="0"/>
+        <v>39.125</v>
       </c>
       <c r="L17" s="34">
         <v>70</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="34">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -7784,147 +9177,8 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G11"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="77"/>
-      <c r="D4" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="41">
-        <v>114</v>
-      </c>
-      <c r="E5" s="41">
-        <v>26.6</v>
-      </c>
-      <c r="F5" s="40">
-        <f>D5/E3:E5</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="41">
-        <v>147</v>
-      </c>
-      <c r="E6" s="41">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="F6" s="40">
-        <f>D6/E4:E6</f>
-        <v>4.2857142857142865</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41" t="e">
-        <f>D7/E5:E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="41">
-        <v>118</v>
-      </c>
-      <c r="E10" s="41">
-        <v>18.8</v>
-      </c>
-      <c r="F10" s="40">
-        <f>D10/E4:E10</f>
-        <v>6.2765957446808507</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="41">
-        <v>149</v>
-      </c>
-      <c r="E11" s="41">
-        <v>24.2</v>
-      </c>
-      <c r="F11" s="40">
-        <f>D11/E5:E11</f>
-        <v>6.1570247933884303</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Вар2. Длинна" sheetId="5" r:id="rId3"/>
     <sheet name="мережа зовнішньго електр." sheetId="7" r:id="rId4"/>
     <sheet name="Таблиця 1-3" sheetId="3" r:id="rId5"/>
-    <sheet name="Потокорозподіл" sheetId="4" r:id="rId6"/>
+    <sheet name="мех міцн" sheetId="9" r:id="rId6"/>
     <sheet name="Таблиця 1-4" sheetId="6" r:id="rId7"/>
-    <sheet name="мех міцн" sheetId="9" r:id="rId8"/>
+    <sheet name="Потокорозподіл" sheetId="4" r:id="rId8"/>
     <sheet name="Fрозр" sheetId="8" r:id="rId9"/>
     <sheet name="нагрів" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -1035,7 +1035,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,8 +1183,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,6 +1200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1817,6 +1829,54 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1889,163 +1949,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2812,6 +2839,266 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9219" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9219"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9218" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>295275</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3465,266 +3752,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9220" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9220"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9219" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9219"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9218" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9218"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9217" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9217"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9221" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9221"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3732,15 +3759,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>11907</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>130969</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>76199</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>88108</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>230981</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3768,23 +3795,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3797,15 +3811,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>11906</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>11906</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>76199</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>164306</xdr:rowOff>
+          <xdr:colOff>88107</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>64294</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3833,23 +3847,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4168,7 +4169,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4186,14 +4187,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="57" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4209,7 +4210,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -4416,7 +4417,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="57" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4446,7 +4447,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4826,13 +4827,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
@@ -4842,634 +4843,645 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="116" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="104"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="107"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="82" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="82" t="str">
+      <c r="E5" s="43" t="str">
         <f>COMPLEX(62,38)</f>
         <v>62+38i</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="43">
         <f>IMABS(E5)</f>
         <v>72.718635850791372</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="43">
         <v>110</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H5" s="54">
         <f>(F5/SQRT(3)/G5)*1000</f>
         <v>381.67385439597064</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="82">
+      <c r="J5" s="43">
         <v>680</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="82" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="82" t="str">
+      <c r="E6" s="43" t="str">
         <f>COMPLEX(27,19)</f>
         <v>27+19i</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="43">
         <f>IMABS(E6)</f>
         <v>33.015148038438355</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="43">
         <v>110</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="43">
         <f>(F6/SQRT(3)/G6)*1000</f>
         <v>173.28458733934301</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="82">
+      <c r="J6" s="43">
         <v>450</v>
       </c>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="79"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="115" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="79"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="82" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="82" t="str">
+      <c r="E8" s="43" t="str">
         <f>E5</f>
         <v>62+38i</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="43">
         <f>IMABS(E8)</f>
         <v>72.718635850791372</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="43">
         <v>110</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="54">
         <f>(F8/SQRT(3)/G8)*1000</f>
         <v>381.67385439597064</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="82">
+      <c r="J8" s="43">
         <v>610</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="79"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="82" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="82" t="str">
+      <c r="E9" s="43" t="str">
         <f>COMPLEX(35,19)</f>
         <v>35+19i</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="43">
         <f>IMABS(E9)</f>
         <v>39.824615503479755</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="43">
         <v>110</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="55">
         <f>(F9/SQRT(3)/G9)*1000</f>
         <v>209.02502255733981</v>
       </c>
-      <c r="I9" s="82" t="str">
+      <c r="I9" s="43" t="str">
         <f>I6</f>
         <v>АС-150/34</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="43">
         <v>450</v>
       </c>
-      <c r="K9" s="82" t="s">
+      <c r="K9" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="79"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="113" t="str">
+      <c r="D10" s="121" t="str">
         <f>'Таблиця 1-4'!D6</f>
         <v>В-Д</v>
       </c>
-      <c r="E10" s="113" t="str">
+      <c r="E10" s="121" t="str">
         <f>Fрозр!F7</f>
-        <v>27+13.8i</v>
-      </c>
-      <c r="F10" s="113">
-        <f>Fрозр!G7</f>
-        <v>30.32</v>
-      </c>
-      <c r="G10" s="113">
+        <v>35+19i</v>
+      </c>
+      <c r="F10" s="122">
+        <f t="shared" ref="F10:F11" si="0">IMABS(E10)</f>
+        <v>39.824615503479755</v>
+      </c>
+      <c r="G10" s="121">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="H10" s="113">
+      <c r="H10" s="121">
         <f>(F10/SQRT(3)/G10)*1000</f>
-        <v>159.13872874390415</v>
-      </c>
-      <c r="I10" s="113" t="s">
+        <v>209.02502255733981</v>
+      </c>
+      <c r="I10" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="113">
+      <c r="J10" s="121">
         <v>375</v>
       </c>
-      <c r="K10" s="113" t="s">
+      <c r="K10" s="121" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="79"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="113" t="str">
+      <c r="B11" s="100"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="121" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
-      <c r="E11" s="113" t="str">
+      <c r="E11" s="121" t="str">
         <f>Fрозр!F8</f>
-        <v>35+19i</v>
-      </c>
-      <c r="F11" s="113">
-        <f>Fрозр!G8</f>
-        <v>39.82</v>
-      </c>
-      <c r="G11" s="113">
+        <v>62+32.8i</v>
+      </c>
+      <c r="F11" s="122">
+        <f>IMABS(E11)</f>
+        <v>70.141571125830936</v>
+      </c>
+      <c r="G11" s="121">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="H11" s="113">
+      <c r="H11" s="121">
         <f>(F11/SQRT(3)/G11)*1000</f>
-        <v>209.00079744664453</v>
-      </c>
-      <c r="I11" s="113" t="s">
+        <v>368.14777246256159</v>
+      </c>
+      <c r="I11" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="113">
+      <c r="J11" s="121">
         <v>450</v>
       </c>
-      <c r="K11" s="113" t="s">
+      <c r="K11" s="121" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="117"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="76"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="82" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="43" t="str">
         <f>COMPLEX(62,32.5)</f>
         <v>62+32.5i</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="43">
         <f>IMABS(E13)</f>
         <v>70.001785691509326</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="43">
         <v>110</v>
       </c>
-      <c r="H13" s="109">
+      <c r="H13" s="54">
         <f>(F13/SQRT(3)/G13)*1000</f>
         <v>367.41408920679464</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="82">
+      <c r="J13" s="43">
         <v>610</v>
       </c>
-      <c r="K13" s="82" t="s">
+      <c r="K13" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="82" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="82" t="str">
+      <c r="E14" s="43" t="str">
         <f>COMPLEX(27,15.5)</f>
         <v>27+15.5i</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="43">
         <f>IMABS(E14)</f>
         <v>31.132780152116194</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="43">
         <v>110</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="43">
         <f>(F14/SQRT(3)/G14)*1000</f>
         <v>163.40471819496113</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="82">
+      <c r="J14" s="43">
         <v>450</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="79"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="115" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="117"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
     </row>
     <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="79"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="82" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="82" t="str">
+      <c r="E16" s="43" t="str">
         <f>E13</f>
         <v>62+32.5i</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="43">
         <f>IMABS(E16)</f>
         <v>70.001785691509326</v>
       </c>
-      <c r="G16" s="82">
+      <c r="G16" s="43">
         <v>110</v>
       </c>
-      <c r="H16" s="109">
+      <c r="H16" s="54">
         <f>(F16/SQRT(3)/G16)*1000</f>
         <v>367.41408920679464</v>
       </c>
-      <c r="I16" s="82" t="s">
+      <c r="I16" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="82">
+      <c r="J16" s="43">
         <v>680</v>
       </c>
-      <c r="K16" s="82" t="s">
+      <c r="K16" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="79"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="82" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="43" t="str">
         <f>COMPLEX(35,17)</f>
         <v>35+17i</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="43">
         <f>IMABS(E17)</f>
         <v>38.910152916687437</v>
       </c>
-      <c r="G17" s="82">
+      <c r="G17" s="43">
         <v>110</v>
       </c>
-      <c r="H17" s="82">
+      <c r="H17" s="43">
         <f>(F17/SQRT(3)/G17)*1000</f>
         <v>204.22533873326358</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="82">
+      <c r="J17" s="43">
         <v>450</v>
       </c>
-      <c r="K17" s="82" t="s">
+      <c r="K17" s="43" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="76" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="114" t="str">
+      <c r="D18" s="56" t="str">
         <f>Fрозр!E12</f>
         <v>ВП-2</v>
       </c>
-      <c r="E18" s="114" t="str">
+      <c r="E18" s="56" t="str">
         <f>Fрозр!F12</f>
         <v>67+32.5i</v>
       </c>
-      <c r="F18" s="114">
+      <c r="F18" s="56">
         <f>Fрозр!G12</f>
         <v>74.47</v>
       </c>
-      <c r="G18" s="114">
+      <c r="G18" s="56">
         <f>Fрозр!H12</f>
         <v>110</v>
       </c>
-      <c r="H18" s="113">
+      <c r="H18" s="55">
         <f>(F18/SQRT(3)/G18)*1000</f>
         <v>390.86613224137665</v>
       </c>
-      <c r="I18" s="114" t="s">
+      <c r="I18" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="114">
+      <c r="J18" s="56">
         <v>680</v>
       </c>
-      <c r="K18" s="114" t="s">
+      <c r="K18" s="56" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="114" t="str">
+      <c r="B19" s="100"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="56" t="str">
         <f>Fрозр!E13</f>
         <v>Г-2</v>
       </c>
-      <c r="E19" s="114" t="str">
+      <c r="E19" s="56" t="str">
         <f>Fрозр!F13</f>
         <v>32+15.5i</v>
       </c>
-      <c r="F19" s="114">
+      <c r="F19" s="56">
         <f>Fрозр!G13</f>
         <v>35.56</v>
       </c>
-      <c r="G19" s="114">
+      <c r="G19" s="56">
         <f>Fрозр!H13</f>
         <v>110</v>
       </c>
-      <c r="H19" s="113">
-        <f t="shared" ref="H18:H23" si="0">(F19/SQRT(3)/G19)*1000</f>
+      <c r="H19" s="55">
+        <f t="shared" ref="H19:H23" si="1">(F19/SQRT(3)/G19)*1000</f>
         <v>186.64159611257361</v>
       </c>
-      <c r="I19" s="114" t="s">
+      <c r="I19" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="J19" s="114">
+      <c r="J19" s="56">
         <v>375</v>
       </c>
-      <c r="K19" s="114" t="s">
+      <c r="K19" s="56" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="79"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="114" t="str">
+      <c r="B20" s="100"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="56" t="str">
         <f>Fрозр!E14</f>
         <v>Е-2</v>
       </c>
-      <c r="E20" s="114" t="str">
+      <c r="E20" s="56" t="str">
         <f>Fрозр!F14</f>
         <v>35+17i</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="56">
         <f>Fрозр!G14</f>
         <v>38.909999999999997</v>
       </c>
-      <c r="G20" s="114">
+      <c r="G20" s="56">
         <f>Fрозр!H14</f>
         <v>110</v>
       </c>
-      <c r="H20" s="113">
-        <f t="shared" si="0"/>
+      <c r="H20" s="55">
+        <f t="shared" si="1"/>
         <v>204.22453612880309</v>
       </c>
-      <c r="I20" s="114" t="s">
+      <c r="I20" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="114">
+      <c r="J20" s="56">
         <v>450</v>
       </c>
-      <c r="K20" s="114" t="s">
+      <c r="K20" s="56" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="114" t="str">
+      <c r="C21" s="101"/>
+      <c r="D21" s="56" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
       </c>
-      <c r="E21" s="114" t="str">
+      <c r="E21" s="56" t="str">
         <f>Fрозр!F15</f>
         <v>165+90.3i</v>
       </c>
-      <c r="F21" s="114">
+      <c r="F21" s="56">
         <f>Fрозр!G15</f>
         <v>188.09</v>
       </c>
-      <c r="G21" s="114">
+      <c r="G21" s="56">
         <f>Fрозр!H15</f>
         <v>220</v>
       </c>
-      <c r="H21" s="113">
-        <f t="shared" si="0"/>
+      <c r="H21" s="55">
+        <f t="shared" si="1"/>
         <v>493.60823696307597</v>
       </c>
-      <c r="I21" s="114" t="s">
+      <c r="I21" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="114">
+      <c r="J21" s="56">
         <v>825</v>
       </c>
-      <c r="K21" s="114" t="s">
+      <c r="K21" s="56" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="51"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="114" t="str">
+      <c r="B22" s="67"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="56" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
       </c>
-      <c r="E22" s="114" t="str">
+      <c r="E22" s="56" t="str">
         <f>Fрозр!F16</f>
         <v>145+77.3i</v>
       </c>
-      <c r="F22" s="114">
+      <c r="F22" s="56">
         <f>Fрозр!G16</f>
         <v>164.32</v>
       </c>
-      <c r="G22" s="114">
+      <c r="G22" s="56">
         <f>Fрозр!H16</f>
         <v>220</v>
       </c>
-      <c r="H22" s="113">
-        <f t="shared" si="0"/>
+      <c r="H22" s="55">
+        <f t="shared" si="1"/>
         <v>431.22816469654236</v>
       </c>
-      <c r="I22" s="114" t="s">
+      <c r="I22" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="J22" s="114">
+      <c r="J22" s="56">
         <v>680</v>
       </c>
-      <c r="K22" s="114" t="s">
+      <c r="K22" s="56" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="81"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="114" t="str">
+      <c r="B23" s="102"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="56" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
       </c>
-      <c r="E23" s="114" t="str">
+      <c r="E23" s="56" t="str">
         <f>Fрозр!F17</f>
         <v>20+13i</v>
       </c>
-      <c r="F23" s="114">
+      <c r="F23" s="56">
         <f>Fрозр!G17</f>
         <v>23.85</v>
       </c>
-      <c r="G23" s="114">
+      <c r="G23" s="56">
         <f>Fрозр!H17</f>
         <v>220</v>
       </c>
-      <c r="H23" s="113">
-        <f t="shared" si="0"/>
+      <c r="H23" s="55">
+        <f t="shared" si="1"/>
         <v>62.590017818966253</v>
       </c>
-      <c r="I23" s="114" t="s">
+      <c r="I23" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="114">
+      <c r="J23" s="56">
         <v>610</v>
       </c>
-      <c r="K23" s="114" t="s">
+      <c r="K23" s="56" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="B12:B20"/>
     <mergeCell ref="B21:B23"/>
@@ -5481,17 +5493,6 @@
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="B4:B11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5505,15 +5506,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5530,15 +5531,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5557,7 +5558,7 @@
   <dimension ref="B1:W38"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6805,26 +6806,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="44" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -7139,573 +7140,163 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="15">
-        <f>J5+P5</f>
-        <v>62</v>
-      </c>
-      <c r="R2" s="15">
-        <f>K5+Q5</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3">
-        <f>K10+N10</f>
-        <v>62</v>
-      </c>
-      <c r="R3">
-        <f>L10+O10</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="str">
-        <f>'Вар1. Длинна'!G5</f>
-        <v>ВП-В</v>
-      </c>
-      <c r="D5">
-        <f>'Вар1. Длинна'!H5</f>
-        <v>11.8</v>
-      </c>
-      <c r="E5" s="14">
-        <f>J5</f>
-        <v>25.19</v>
-      </c>
-      <c r="F5" s="14">
-        <f>K5</f>
-        <v>15.984</v>
-      </c>
-      <c r="J5" s="14">
-        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
-        <v>25.19</v>
-      </c>
-      <c r="K5" s="14">
-        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
-        <v>15.984</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="14">
-        <f>J5-K10</f>
-        <v>-1.8099999999999987</v>
-      </c>
-      <c r="N5" s="14">
-        <f>K5-L10</f>
-        <v>-3.016</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="14">
-        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>36.81</v>
-      </c>
-      <c r="Q5" s="14">
-        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>22.015999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" t="str">
-        <f>'Вар1. Длинна'!G6</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="D6">
-        <f>'Вар1. Длинна'!H6</f>
-        <v>7.8</v>
-      </c>
-      <c r="E6" s="14">
-        <f>P5</f>
-        <v>36.81</v>
-      </c>
-      <c r="F6" s="14">
-        <f>Q5</f>
-        <v>22.015999999999998</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" t="str">
-        <f>'Вар1. Длинна'!G7</f>
-        <v>В-Д</v>
-      </c>
-      <c r="D7">
-        <f>'Вар1. Длинна'!H7</f>
-        <v>5.6</v>
-      </c>
-      <c r="E7" s="14">
-        <f>-M5</f>
-        <v>1.8099999999999987</v>
-      </c>
-      <c r="F7" s="14">
-        <f>-N5</f>
-        <v>3.016</v>
-      </c>
-      <c r="J7">
-        <f>D5</f>
-        <v>11.8</v>
-      </c>
-      <c r="M7">
-        <f>D7</f>
-        <v>5.6</v>
-      </c>
-      <c r="P7">
-        <f>D6</f>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="str">
-        <f>'Вар1. Длинна'!G29</f>
-        <v>В-Д</v>
-      </c>
-      <c r="D8">
-        <f>'Вар1. Длинна'!H29</f>
-        <v>5.6</v>
-      </c>
-      <c r="E8">
-        <f>27</f>
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <f>13.8</f>
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="str">
-        <f>'Вар1. Длинна'!G30</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="D9" s="4">
-        <f>'Вар1. Длинна'!H30</f>
-        <v>7.8</v>
-      </c>
-      <c r="E9" s="4">
-        <f>35</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="K10">
-        <f>E8</f>
-        <v>27</v>
-      </c>
-      <c r="L10">
-        <f>19</f>
-        <v>19</v>
-      </c>
-      <c r="N10">
-        <f>E9</f>
-        <v>35</v>
-      </c>
-      <c r="O10">
-        <f>F9</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'Таблиця 1-3'!I4</f>
-        <v>а)</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f>'Вар2. Длинна'!F5</f>
-        <v>ВП-Г</v>
-      </c>
-      <c r="D11" s="3">
-        <f>'Вар2. Длинна'!G5</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E11" s="14">
-        <f>J15</f>
-        <v>34.843000000000004</v>
-      </c>
-      <c r="F11" s="14">
-        <f>K15</f>
-        <v>16.891999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="str">
-        <f>'Вар2. Длинна'!F6</f>
-        <v>ВП-Е</v>
-      </c>
-      <c r="D12" s="3">
-        <f>'Вар2. Длинна'!G6</f>
-        <v>11.9</v>
-      </c>
-      <c r="E12" s="14">
-        <f>P15</f>
-        <v>32.156999999999996</v>
-      </c>
-      <c r="F12" s="14">
-        <f>Q15</f>
-        <v>15.608000000000001</v>
-      </c>
-      <c r="P12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="15">
-        <f>J15+P15</f>
-        <v>67</v>
-      </c>
-      <c r="R12">
-        <f>K15+Q15</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="str">
-        <f>'Вар2. Длинна'!F7</f>
-        <v>Е-Г</v>
-      </c>
-      <c r="D13" s="3">
-        <f>'Вар2. Длинна'!G7</f>
-        <v>14.5</v>
-      </c>
-      <c r="E13" s="14">
-        <f>-M15</f>
-        <v>2.8430000000000035</v>
-      </c>
-      <c r="F13" s="14">
-        <f>-N15</f>
-        <v>1.3919999999999995</v>
-      </c>
-      <c r="Q13">
-        <f>K20+N20</f>
-        <v>67</v>
-      </c>
-      <c r="R13">
-        <f>L20+O20</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f>'Таблиця 1-3'!L4</f>
-        <v>г)</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f>'Вар2. Длинна'!X23</f>
-        <v>ВП-2</v>
-      </c>
-      <c r="D14" s="3">
-        <f>'Вар2. Длинна'!Y23</f>
-        <v>5.4</v>
-      </c>
-      <c r="E14" s="4">
-        <f>E15+E16</f>
-        <v>67</v>
-      </c>
-      <c r="F14" s="4">
-        <f>F15+F16</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="str">
-        <f>'Вар2. Длинна'!X24</f>
-        <v>Г-2</v>
-      </c>
-      <c r="D15" s="3">
-        <f>'Вар2. Длинна'!Y24</f>
-        <v>7.2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="J15" s="14">
-        <f>ROUND((K20*(M17+P17)+N20*P17)/(J17+M17+P17),3)</f>
-        <v>34.843000000000004</v>
-      </c>
-      <c r="K15" s="14">
-        <f>ROUND((L20*(M17+P17)+O20*P17)/(J17+M17+P17),3)</f>
-        <v>16.891999999999999</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="14">
-        <f>P15-N20</f>
-        <v>-2.8430000000000035</v>
-      </c>
-      <c r="N15" s="14">
-        <f>Q15-O20</f>
-        <v>-1.3919999999999995</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="14">
-        <f>ROUND((K20*J17+N20*(J17+M17))/(J17+M17+P17),3)</f>
-        <v>32.156999999999996</v>
-      </c>
-      <c r="Q15" s="14">
-        <f>ROUND((L20*J17+O20*(J17+M17))/(J17+M17+P17),3)</f>
-        <v>15.608000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="str">
-        <f>'Вар2. Длинна'!X25</f>
-        <v>Е-2</v>
-      </c>
-      <c r="D16" s="3">
-        <f>'Вар2. Длинна'!Y25</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E16" s="4">
-        <v>35</v>
-      </c>
-      <c r="F16" s="4">
-        <v>17</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J17">
-        <f>D11</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M17">
-        <f>D13</f>
-        <v>14.5</v>
-      </c>
-      <c r="P17">
-        <f>D12</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K20">
-        <f>E15</f>
-        <v>32</v>
-      </c>
-      <c r="L20">
-        <f>F15</f>
-        <v>15.5</v>
-      </c>
-      <c r="N20">
-        <f>E16</f>
-        <v>35</v>
-      </c>
-      <c r="O20">
-        <f>F16</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="str">
-        <f>'Таблиця 1-4'!D14</f>
-        <v>ДЖ-3</v>
-      </c>
-      <c r="E25">
-        <f>'Таблиця 1-4'!E14</f>
-        <v>14.8</v>
-      </c>
-      <c r="F25">
-        <f>'Табл1-1  1-2'!B11</f>
-        <v>165</v>
-      </c>
-      <c r="G25">
-        <f>'Табл1-1  1-2'!C11</f>
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" t="str">
-        <f>'Таблиця 1-4'!D15</f>
-        <v>3-ВП</v>
-      </c>
-      <c r="E26">
-        <f>'Таблиця 1-4'!E15</f>
-        <v>22.6</v>
-      </c>
-      <c r="F26">
-        <f>F25-'Табл1-1  1-2'!B5</f>
-        <v>145</v>
-      </c>
-      <c r="G26">
-        <f>G25-'Табл1-1  1-2'!C5</f>
-        <v>77.3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D27" t="str">
-        <f>'Таблиця 1-4'!D16</f>
-        <v>3-Б</v>
-      </c>
-      <c r="E27">
-        <f>'Таблиця 1-4'!E16</f>
-        <v>10.8</v>
-      </c>
-      <c r="F27">
-        <f>'Табл1-1  1-2'!B5</f>
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <f>'Табл1-1  1-2'!C5</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29">
-        <f>SQRT(F26^2+G26^2)</f>
-        <v>164.31764969107854</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31">
-        <f>0.05*F29</f>
-        <v>8.2158824845539282</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32">
-        <f>0.15*F29</f>
-        <v>24.647647453661779</v>
-      </c>
-    </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="L35" s="10"/>
-      <c r="O35" s="10"/>
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="81"/>
+    </row>
+    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="81"/>
+      <c r="D4" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="42">
+        <v>114</v>
+      </c>
+      <c r="E5" s="42">
+        <v>26.6</v>
+      </c>
+      <c r="F5" s="44">
+        <f>D5/E5</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="42">
+        <v>147</v>
+      </c>
+      <c r="E6" s="42">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F6" s="44">
+        <f t="shared" ref="F6:F9" si="0">D6/E6</f>
+        <v>4.2857142857142865</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="42">
+        <v>185</v>
+      </c>
+      <c r="E7" s="42">
+        <v>43.1</v>
+      </c>
+      <c r="F7" s="44">
+        <f t="shared" si="0"/>
+        <v>4.2923433874709973</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="42">
+        <v>241</v>
+      </c>
+      <c r="E8" s="42">
+        <v>56.3</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" si="0"/>
+        <v>4.2806394316163416</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="42">
+        <v>288.5</v>
+      </c>
+      <c r="E9" s="42">
+        <v>67.3</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" si="0"/>
+        <v>4.2867756315007428</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="42">
+        <v>394</v>
+      </c>
+      <c r="E10" s="42">
+        <v>51.1</v>
+      </c>
+      <c r="F10" s="44">
+        <f t="shared" ref="F10" si="1">D10/E10</f>
+        <v>7.7103718199608604</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -7714,7 +7305,7 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7750,10 +7341,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -7775,13 +7366,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>88.4</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="69">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -7801,11 +7392,11 @@
         <f t="shared" ref="H4:H15" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>106</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="59"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -7825,11 +7416,11 @@
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-      <c r="I5" s="54"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="60" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="76" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -7841,23 +7432,23 @@
         <v>5.6</v>
       </c>
       <c r="F6" s="28">
-        <f>Потокорозподіл!E8</f>
-        <v>27</v>
+        <f>35</f>
+        <v>35</v>
       </c>
       <c r="G6" s="27">
         <v>2</v>
       </c>
       <c r="H6" s="26">
-        <f t="shared" si="0"/>
-        <v>64.599999999999994</v>
-      </c>
-      <c r="I6" s="50">
+        <f>ROUND(4.34*SQRT(E6+16*F6/G6),1)</f>
+        <v>73.3</v>
+      </c>
+      <c r="I6" s="66">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -7867,23 +7458,23 @@
         <v>7.8</v>
       </c>
       <c r="F7" s="28">
-        <f>Потокорозподіл!E9</f>
-        <v>35</v>
+        <f>62</f>
+        <v>62</v>
       </c>
       <c r="G7" s="27">
         <v>2</v>
       </c>
       <c r="H7" s="26">
-        <f t="shared" si="0"/>
-        <v>73.599999999999994</v>
-      </c>
-      <c r="I7" s="54"/>
+        <f>ROUND(4.34*SQRT(E7+16*F7/G7),1)</f>
+        <v>97.4</v>
+      </c>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="76" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -7905,13 +7496,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="78">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -7931,11 +7522,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -7955,11 +7546,11 @@
         <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
         <v>33.6</v>
       </c>
-      <c r="I10" s="64"/>
+      <c r="I10" s="80"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="76" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -7981,13 +7572,13 @@
         <f>ROUND(4.34*SQRT(E11+16*F11/G11),1)</f>
         <v>101</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="78">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -8007,11 +7598,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -8031,13 +7622,13 @@
         <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
-      <c r="I13" s="64"/>
+      <c r="I13" s="80"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="50"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -8057,13 +7648,13 @@
         <f t="shared" si="0"/>
         <v>158.6</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="78">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -8083,11 +7674,11 @@
         <f t="shared" si="0"/>
         <v>149.19999999999999</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="31" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -8107,7 +7698,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="64"/>
+      <c r="I16" s="80"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8261,163 +7852,573 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="77"/>
-    </row>
-    <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="77"/>
-      <c r="D4" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="78">
-        <v>114</v>
-      </c>
-      <c r="E5" s="78">
-        <v>26.6</v>
-      </c>
-      <c r="F5" s="83">
-        <f>D5/E5</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="78">
-        <v>147</v>
-      </c>
-      <c r="E6" s="78">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="F6" s="83">
-        <f t="shared" ref="F6:F9" si="0">D6/E6</f>
-        <v>4.2857142857142865</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="78">
-        <v>185</v>
-      </c>
-      <c r="E7" s="78">
-        <v>43.1</v>
-      </c>
-      <c r="F7" s="83">
-        <f t="shared" si="0"/>
-        <v>4.2923433874709973</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="78">
-        <v>241</v>
-      </c>
-      <c r="E8" s="78">
-        <v>56.3</v>
-      </c>
-      <c r="F8" s="83">
-        <f t="shared" si="0"/>
-        <v>4.2806394316163416</v>
-      </c>
-      <c r="G8" s="78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="78">
-        <v>288.5</v>
-      </c>
-      <c r="E9" s="78">
-        <v>67.3</v>
-      </c>
-      <c r="F9" s="83">
-        <f t="shared" si="0"/>
-        <v>4.2867756315007428</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="78">
-        <v>394</v>
-      </c>
-      <c r="E10" s="78">
-        <v>51.1</v>
-      </c>
-      <c r="F10" s="83">
-        <f t="shared" ref="F10" si="1">D10/E10</f>
-        <v>7.7103718199608604</v>
-      </c>
-      <c r="G10" s="78" t="s">
-        <v>138</v>
-      </c>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="15">
+        <f>J5+P5</f>
+        <v>62</v>
+      </c>
+      <c r="R2" s="15">
+        <f>K5+Q5</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3">
+        <f>K10+N10</f>
+        <v>62</v>
+      </c>
+      <c r="R3">
+        <f>L10+O10</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Вар1. Длинна'!G5</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="D5">
+        <f>'Вар1. Длинна'!H5</f>
+        <v>11.8</v>
+      </c>
+      <c r="E5" s="14">
+        <f>J5</f>
+        <v>25.19</v>
+      </c>
+      <c r="F5" s="14">
+        <f>K5</f>
+        <v>15.984</v>
+      </c>
+      <c r="J5" s="14">
+        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
+        <v>25.19</v>
+      </c>
+      <c r="K5" s="14">
+        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
+        <v>15.984</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="14">
+        <f>J5-K10</f>
+        <v>-1.8099999999999987</v>
+      </c>
+      <c r="N5" s="14">
+        <f>K5-L10</f>
+        <v>-3.016</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="14">
+        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>36.81</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>22.015999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>'Вар1. Длинна'!G6</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D6">
+        <f>'Вар1. Длинна'!H6</f>
+        <v>7.8</v>
+      </c>
+      <c r="E6" s="14">
+        <f>P5</f>
+        <v>36.81</v>
+      </c>
+      <c r="F6" s="14">
+        <f>Q5</f>
+        <v>22.015999999999998</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>'Вар1. Длинна'!G7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D7">
+        <f>'Вар1. Длинна'!H7</f>
+        <v>5.6</v>
+      </c>
+      <c r="E7" s="14">
+        <f>-M5</f>
+        <v>1.8099999999999987</v>
+      </c>
+      <c r="F7" s="14">
+        <f>-N5</f>
+        <v>3.016</v>
+      </c>
+      <c r="J7">
+        <f>D5</f>
+        <v>11.8</v>
+      </c>
+      <c r="M7">
+        <f>D7</f>
+        <v>5.6</v>
+      </c>
+      <c r="P7">
+        <f>D6</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'Вар1. Длинна'!G29</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D8">
+        <f>'Вар1. Длинна'!H29</f>
+        <v>5.6</v>
+      </c>
+      <c r="E8">
+        <f>27</f>
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f>13.8</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="str">
+        <f>'Вар1. Длинна'!G30</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D9" s="4">
+        <f>'Вар1. Длинна'!H30</f>
+        <v>7.8</v>
+      </c>
+      <c r="E9" s="4">
+        <f>35</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="K10">
+        <f>E8</f>
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <f>E9</f>
+        <v>35</v>
+      </c>
+      <c r="O10">
+        <f>F9</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Таблиця 1-3'!I4</f>
+        <v>а)</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>'Вар2. Длинна'!F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'Вар2. Длинна'!G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11" s="14">
+        <f>J15</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="F11" s="14">
+        <f>K15</f>
+        <v>16.891999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="E12" s="14">
+        <f>P15</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="F12" s="14">
+        <f>Q15</f>
+        <v>15.608000000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="15">
+        <f>J15+P15</f>
+        <v>67</v>
+      </c>
+      <c r="R12">
+        <f>K15+Q15</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="E13" s="14">
+        <f>-M15</f>
+        <v>2.8430000000000035</v>
+      </c>
+      <c r="F13" s="14">
+        <f>-N15</f>
+        <v>1.3919999999999995</v>
+      </c>
+      <c r="Q13">
+        <f>K20+N20</f>
+        <v>67</v>
+      </c>
+      <c r="R13">
+        <f>L20+O20</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>'Таблиця 1-3'!L4</f>
+        <v>г)</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>'Вар2. Длинна'!X23</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E15+E16</f>
+        <v>67</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F15+F16</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="str">
+        <f>'Вар2. Длинна'!X24</f>
+        <v>Г-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="J15" s="14">
+        <f>ROUND((K20*(M17+P17)+N20*P17)/(J17+M17+P17),3)</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="K15" s="14">
+        <f>ROUND((L20*(M17+P17)+O20*P17)/(J17+M17+P17),3)</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="14">
+        <f>P15-N20</f>
+        <v>-2.8430000000000035</v>
+      </c>
+      <c r="N15" s="14">
+        <f>Q15-O20</f>
+        <v>-1.3919999999999995</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="14">
+        <f>ROUND((K20*J17+N20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="Q15" s="14">
+        <f>ROUND((L20*J17+O20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>15.608000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="str">
+        <f>'Вар2. Длинна'!X25</f>
+        <v>Е-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E16" s="4">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>D11</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M17">
+        <f>D13</f>
+        <v>14.5</v>
+      </c>
+      <c r="P17">
+        <f>D12</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>E15</f>
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <f>F15</f>
+        <v>15.5</v>
+      </c>
+      <c r="N20">
+        <f>E16</f>
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <f>F16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="str">
+        <f>'Таблиця 1-4'!D14</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E25">
+        <f>'Таблиця 1-4'!E14</f>
+        <v>14.8</v>
+      </c>
+      <c r="F25">
+        <f>'Табл1-1  1-2'!B11</f>
+        <v>165</v>
+      </c>
+      <c r="G25">
+        <f>'Табл1-1  1-2'!C11</f>
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>'Таблиця 1-4'!D15</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E26">
+        <f>'Таблиця 1-4'!E15</f>
+        <v>22.6</v>
+      </c>
+      <c r="F26">
+        <f>F25-'Табл1-1  1-2'!B5</f>
+        <v>145</v>
+      </c>
+      <c r="G26">
+        <f>G25-'Табл1-1  1-2'!C5</f>
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>'Таблиця 1-4'!D16</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E27">
+        <f>'Таблиця 1-4'!E16</f>
+        <v>10.8</v>
+      </c>
+      <c r="F27">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29">
+        <f>SQRT(F26^2+G26^2)</f>
+        <v>164.31764969107854</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31">
+        <f>0.05*F29</f>
+        <v>8.2158824845539282</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32">
+        <f>0.15*F29</f>
+        <v>24.647647453661779</v>
+      </c>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="L35" s="10"/>
+      <c r="O35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -8425,8 +8426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8440,13 +8441,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="82" t="s">
         <v>109</v>
       </c>
       <c r="F2" s="36" t="s">
@@ -8458,19 +8459,19 @@
       <c r="H2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="87" t="s">
         <v>105</v>
       </c>
       <c r="K2" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="82" t="s">
         <v>137</v>
       </c>
       <c r="N2" s="37">
@@ -8481,25 +8482,25 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="68"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="88" t="s">
+      <c r="I3" s="86"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
       <c r="N3" t="s">
         <v>89</v>
       </c>
@@ -8513,41 +8514,41 @@
         <f>Потокорозподіл!F5</f>
         <v>15.984</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="92" t="str">
+      <c r="E4" s="47" t="str">
         <f>'Таблиця 1-4'!D3</f>
         <v>ВП-В</v>
       </c>
-      <c r="F4" s="92" t="str">
+      <c r="F4" s="47" t="str">
         <f>COMPLEX(A4,B4)</f>
         <v>25.19+15.984i</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="47">
         <f>ROUND(1*IMABS(F4),2)</f>
         <v>29.83</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="47">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="47">
         <f>'Таблиця 1-4'!G3</f>
         <v>1</v>
       </c>
-      <c r="J4" s="92">
+      <c r="J4" s="47">
         <f>ROUND(G4/SQRT(3)/H4/I4*10^3,2)</f>
         <v>156.57</v>
       </c>
-      <c r="K4" s="93">
+      <c r="K4" s="48">
         <f t="shared" ref="K4:K17" si="0">J4/$N$2</f>
         <v>195.71249999999998</v>
       </c>
-      <c r="L4" s="94">
+      <c r="L4" s="49">
         <v>240</v>
       </c>
       <c r="M4" s="39">
@@ -8563,8 +8564,8 @@
         <f>Потокорозподіл!F6</f>
         <v>22.015999999999998</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="34" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -8596,7 +8597,7 @@
       <c r="L5" s="38">
         <v>300</v>
       </c>
-      <c r="M5" s="96">
+      <c r="M5" s="50">
         <v>300</v>
       </c>
     </row>
@@ -8609,135 +8610,135 @@
         <f>Потокорозподіл!F7</f>
         <v>3.016</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="71" t="str">
+      <c r="C6" s="90"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="41" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
       </c>
-      <c r="F6" s="71" t="str">
+      <c r="F6" s="41" t="str">
         <f t="shared" si="1"/>
         <v>1.81+3.016i</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="41">
         <f>ROUND(1*IMABS(F6),2)</f>
         <v>3.52</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="41">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="41">
         <f>'Таблиця 1-4'!G5</f>
         <v>1</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="41">
         <f t="shared" si="3"/>
         <v>18.48</v>
       </c>
-      <c r="K6" s="98">
+      <c r="K6" s="51">
         <f t="shared" si="0"/>
         <v>23.099999999999998</v>
       </c>
-      <c r="L6" s="99">
+      <c r="L6" s="52">
         <v>70</v>
       </c>
-      <c r="M6" s="100">
+      <c r="M6" s="53">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>Потокорозподіл!E8</f>
-        <v>27</v>
+        <f>35</f>
+        <v>35</v>
       </c>
       <c r="B7">
-        <f>Потокорозподіл!F8</f>
-        <v>13.8</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="87" t="s">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="34" t="str">
+      <c r="E7" s="118" t="str">
         <f>'Таблиця 1-4'!D6</f>
         <v>В-Д</v>
       </c>
-      <c r="F7" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>27+13.8i</v>
-      </c>
-      <c r="G7" s="34">
-        <f t="shared" si="2"/>
-        <v>30.32</v>
-      </c>
-      <c r="H7" s="34">
+      <c r="F7" s="118" t="str">
+        <f>COMPLEX(A7,B7)</f>
+        <v>35+19i</v>
+      </c>
+      <c r="G7" s="119">
+        <f t="shared" ref="G7:G9" si="4">ROUND(1*IMABS(F7),2)</f>
+        <v>39.82</v>
+      </c>
+      <c r="H7" s="118">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="118">
         <f>'Таблиця 1-4'!G6</f>
         <v>2</v>
       </c>
-      <c r="J7" s="34">
-        <f t="shared" si="3"/>
-        <v>79.569999999999993</v>
-      </c>
-      <c r="K7" s="35">
+      <c r="J7" s="118">
+        <f>ROUND(G7/SQRT(3)/H7/I7*10^3,2)</f>
+        <v>104.5</v>
+      </c>
+      <c r="K7" s="120">
         <f t="shared" si="0"/>
-        <v>99.462499999999991</v>
-      </c>
-      <c r="L7" s="38">
-        <v>120</v>
-      </c>
-      <c r="M7" s="34">
-        <v>120</v>
+        <v>130.625</v>
+      </c>
+      <c r="L7" s="118">
+        <v>150</v>
+      </c>
+      <c r="M7" s="118">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>Потокорозподіл!E9</f>
-        <v>35</v>
+        <f>62</f>
+        <v>62</v>
       </c>
       <c r="B8">
-        <f>Потокорозподіл!F9</f>
-        <v>19</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="34" t="str">
+        <f>32.8</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="118" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F8" s="34" t="str">
+      <c r="F8" s="118" t="str">
         <f>COMPLEX(A8,B8)</f>
-        <v>35+19i</v>
-      </c>
-      <c r="G8" s="34">
-        <f t="shared" si="2"/>
-        <v>39.82</v>
-      </c>
-      <c r="H8" s="34">
+        <v>62+32.8i</v>
+      </c>
+      <c r="G8" s="119">
+        <f t="shared" si="4"/>
+        <v>70.14</v>
+      </c>
+      <c r="H8" s="118">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="118">
         <f>'Таблиця 1-4'!G7</f>
         <v>2</v>
       </c>
-      <c r="J8" s="34">
-        <f t="shared" si="3"/>
-        <v>104.5</v>
-      </c>
-      <c r="K8" s="35">
+      <c r="J8" s="118">
+        <f>ROUND(G8/SQRT(3)/H8/I8*10^3,2)</f>
+        <v>184.07</v>
+      </c>
+      <c r="K8" s="120">
         <f t="shared" si="0"/>
-        <v>130.625</v>
-      </c>
-      <c r="L8" s="38">
-        <v>150</v>
-      </c>
-      <c r="M8" s="34">
-        <v>150</v>
+        <v>230.08749999999998</v>
+      </c>
+      <c r="L8" s="118">
+        <v>240</v>
+      </c>
+      <c r="M8" s="118">
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8749,10 +8750,10 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="34" t="str">
@@ -8763,8 +8764,8 @@
         <f>COMPLEX(A9,B9)</f>
         <v>34.843+16.892i</v>
       </c>
-      <c r="G9" s="34">
-        <f t="shared" si="2"/>
+      <c r="G9" s="41">
+        <f t="shared" si="4"/>
         <v>38.72</v>
       </c>
       <c r="H9" s="34">
@@ -8799,8 +8800,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="34" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -8845,8 +8846,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="34" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -8891,8 +8892,8 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="65" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="82" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="34" t="str">
@@ -8939,8 +8940,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="34" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -8985,8 +8986,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="34" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -9031,8 +9032,8 @@
         <f>Потокорозподіл!G25</f>
         <v>90.3</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="34" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -9077,8 +9078,8 @@
         <f>Потокорозподіл!G26</f>
         <v>77.3</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="34" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -9123,8 +9124,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="34" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -9162,13 +9163,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -9177,6 +9171,13 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,17 @@
     <sheet name="Таблиця 1-3" sheetId="3" r:id="rId5"/>
     <sheet name="мех міцн" sheetId="9" r:id="rId6"/>
     <sheet name="Таблиця 1-4" sheetId="6" r:id="rId7"/>
-    <sheet name="Потокорозподіл" sheetId="4" r:id="rId8"/>
-    <sheet name="Fрозр" sheetId="8" r:id="rId9"/>
-    <sheet name="нагрів" sheetId="10" r:id="rId10"/>
+    <sheet name="Fрозр" sheetId="8" r:id="rId8"/>
+    <sheet name="нагрів" sheetId="10" r:id="rId9"/>
+    <sheet name="Потокорозподіл" sheetId="4" r:id="rId10"/>
+    <sheet name="падіння напруги" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="172">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -1027,13 +1028,119 @@
   <si>
     <t>Магістраль</t>
   </si>
+  <si>
+    <t>Варі</t>
+  </si>
+  <si>
+    <t>ант</t>
+  </si>
+  <si>
+    <t>Ом</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>діл,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>діл,</t>
+    </r>
+  </si>
+  <si>
+    <t>До точки Г</t>
+  </si>
+  <si>
+    <t>До точки Д</t>
+  </si>
+  <si>
+    <t>Зовн</t>
+  </si>
+  <si>
+    <t>ДЖ – 3</t>
+  </si>
+  <si>
+    <t>3 – ВП</t>
+  </si>
+  <si>
+    <t>3 -Б</t>
+  </si>
+  <si>
+    <t>кільце</t>
+  </si>
+  <si>
+    <t>магістраль</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                  до точки В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                 до точки Д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                     до точки Д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                    до точки Г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                    до точки Е</t>
+  </si>
+  <si>
+    <t>L, км</t>
+  </si>
+  <si>
+    <t>МВ×А</t>
+  </si>
+  <si>
+    <r>
+      <t>DU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>кОм</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1190,27 +1297,15 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="42">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1715,11 +1810,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,9 +2019,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1811,9 +2029,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1859,24 +2074,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1994,6 +2206,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2006,35 +2239,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2042,38 +2272,66 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3099,6 +3357,115 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3701,16 +4068,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3752,29 +4119,29 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>11907</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>130969</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>88108</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>230981</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
+            <xdr:cNvPr id="19458" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15361"/>
+                  <a14:compatExt spid="_x0000_s19458"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3788,17 +4155,16 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3808,25 +4174,25 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>11906</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>11906</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>88107</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>64294</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
+            <xdr:cNvPr id="19457" name="Object 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15362"/>
+                  <a14:compatExt spid="_x0000_s19457"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3840,17 +4206,16 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4150,8 +4515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,7 +4534,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4187,14 +4552,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="54" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4210,7 +4575,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -4417,7 +4782,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4447,7 +4812,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4825,674 +5190,1552 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K23"/>
+  <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A9" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="114" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="15">
+        <f>J5+P5</f>
+        <v>62</v>
+      </c>
+      <c r="R2" s="15">
+        <f>K5+Q5</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="113"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="117"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="99" t="s">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3">
+        <f>K10+N10</f>
+        <v>62</v>
+      </c>
+      <c r="R3">
+        <f>L10+O10</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Вар1. Длинна'!G5</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="D5">
+        <f>'Вар1. Длинна'!H5</f>
+        <v>11.8</v>
+      </c>
+      <c r="E5" s="14">
+        <f>J5</f>
+        <v>26.968</v>
+      </c>
+      <c r="F5" s="14">
+        <f>K5</f>
+        <v>14.375</v>
+      </c>
+      <c r="J5" s="14">
+        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
+        <v>26.968</v>
+      </c>
+      <c r="K5" s="14">
+        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
+        <v>14.375</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="14">
+        <f>J5-K10</f>
+        <v>-8.032</v>
+      </c>
+      <c r="N5" s="14">
+        <f>K5-L10</f>
+        <v>-4.625</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="14">
+        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>18.425000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>'Вар1. Длинна'!G6</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D6">
+        <f>'Вар1. Длинна'!H6</f>
+        <v>7.8</v>
+      </c>
+      <c r="E6" s="14">
+        <f>P5</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="F6" s="14">
+        <f>Q5</f>
+        <v>18.425000000000001</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>'Вар1. Длинна'!G7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D7">
+        <f>'Вар1. Длинна'!H7</f>
+        <v>5.6</v>
+      </c>
+      <c r="E7" s="14">
+        <f>--M5</f>
+        <v>-8.032</v>
+      </c>
+      <c r="F7" s="14">
+        <f>--N5</f>
+        <v>-4.625</v>
+      </c>
+      <c r="J7">
+        <f>D5</f>
+        <v>11.8</v>
+      </c>
+      <c r="M7">
+        <f>D7</f>
+        <v>5.6</v>
+      </c>
+      <c r="P7">
+        <f>D6</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'Вар1. Длинна'!G29</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D8">
+        <f>'Вар1. Длинна'!H29</f>
+        <v>5.6</v>
+      </c>
+      <c r="E8">
+        <f>35</f>
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <f>19</f>
         <v>19</v>
       </c>
-      <c r="C4" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="107"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="43" t="str">
-        <f>COMPLEX(62,38)</f>
-        <v>62+38i</v>
-      </c>
-      <c r="F5" s="43">
-        <f>IMABS(E5)</f>
-        <v>72.718635850791372</v>
-      </c>
-      <c r="G5" s="43">
-        <v>110</v>
-      </c>
-      <c r="H5" s="54">
-        <f>(F5/SQRT(3)/G5)*1000</f>
-        <v>381.67385439597064</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="43">
-        <v>680</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="99"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="43" t="str">
-        <f>COMPLEX(27,19)</f>
-        <v>27+19i</v>
-      </c>
-      <c r="F6" s="43">
-        <f>IMABS(E6)</f>
-        <v>33.015148038438355</v>
-      </c>
-      <c r="G6" s="43">
-        <v>110</v>
-      </c>
-      <c r="H6" s="43">
-        <f>(F6/SQRT(3)/G6)*1000</f>
-        <v>173.28458733934301</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="43">
-        <v>450</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="100"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
-    </row>
-    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="100"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="43" t="str">
-        <f>E5</f>
-        <v>62+38i</v>
-      </c>
-      <c r="F8" s="43">
-        <f>IMABS(E8)</f>
-        <v>72.718635850791372</v>
-      </c>
-      <c r="G8" s="43">
-        <v>110</v>
-      </c>
-      <c r="H8" s="54">
-        <f>(F8/SQRT(3)/G8)*1000</f>
-        <v>381.67385439597064</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="43">
-        <v>610</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="100"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="43" t="str">
-        <f>COMPLEX(35,19)</f>
-        <v>35+19i</v>
-      </c>
-      <c r="F9" s="43">
-        <f>IMABS(E9)</f>
-        <v>39.824615503479755</v>
-      </c>
-      <c r="G9" s="43">
-        <v>110</v>
-      </c>
-      <c r="H9" s="55">
-        <f>(F9/SQRT(3)/G9)*1000</f>
-        <v>209.02502255733981</v>
-      </c>
-      <c r="I9" s="43" t="str">
-        <f>I6</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="J9" s="43">
-        <v>450</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="100"/>
-      <c r="C10" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="121" t="str">
-        <f>'Таблиця 1-4'!D6</f>
-        <v>В-Д</v>
-      </c>
-      <c r="E10" s="121" t="str">
-        <f>Fрозр!F7</f>
-        <v>35+19i</v>
-      </c>
-      <c r="F10" s="122">
-        <f t="shared" ref="F10:F11" si="0">IMABS(E10)</f>
-        <v>39.824615503479755</v>
-      </c>
-      <c r="G10" s="121">
-        <f>110</f>
-        <v>110</v>
-      </c>
-      <c r="H10" s="121">
-        <f>(F10/SQRT(3)/G10)*1000</f>
-        <v>209.02502255733981</v>
-      </c>
-      <c r="I10" s="121" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" s="121">
-        <v>375</v>
-      </c>
-      <c r="K10" s="121" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="100"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="121" t="str">
-        <f>'Таблиця 1-4'!D7</f>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="str">
+        <f>'Вар1. Длинна'!G30</f>
         <v>ВП-Д</v>
       </c>
-      <c r="E11" s="121" t="str">
-        <f>Fрозр!F8</f>
-        <v>62+32.8i</v>
-      </c>
-      <c r="F11" s="122">
-        <f>IMABS(E11)</f>
-        <v>70.141571125830936</v>
-      </c>
-      <c r="G11" s="121">
-        <f>110</f>
-        <v>110</v>
-      </c>
-      <c r="H11" s="121">
-        <f>(F11/SQRT(3)/G11)*1000</f>
-        <v>368.14777246256159</v>
-      </c>
-      <c r="I11" s="121" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="121">
-        <v>450</v>
-      </c>
-      <c r="K11" s="121" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-    </row>
-    <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="43" t="str">
-        <f>COMPLEX(62,32.5)</f>
-        <v>62+32.5i</v>
-      </c>
-      <c r="F13" s="43">
-        <f>IMABS(E13)</f>
-        <v>70.001785691509326</v>
-      </c>
-      <c r="G13" s="43">
-        <v>110</v>
-      </c>
-      <c r="H13" s="54">
-        <f>(F13/SQRT(3)/G13)*1000</f>
-        <v>367.41408920679464</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="43">
-        <v>610</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="43" t="str">
-        <f>COMPLEX(27,15.5)</f>
-        <v>27+15.5i</v>
-      </c>
-      <c r="F14" s="43">
-        <f>IMABS(E14)</f>
-        <v>31.132780152116194</v>
-      </c>
-      <c r="G14" s="43">
-        <v>110</v>
-      </c>
-      <c r="H14" s="43">
-        <f>(F14/SQRT(3)/G14)*1000</f>
-        <v>163.40471819496113</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="43">
-        <v>450</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="100"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-    </row>
-    <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="100"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="43" t="str">
-        <f>E13</f>
-        <v>62+32.5i</v>
-      </c>
-      <c r="F16" s="43">
-        <f>IMABS(E16)</f>
-        <v>70.001785691509326</v>
-      </c>
-      <c r="G16" s="43">
-        <v>110</v>
-      </c>
-      <c r="H16" s="54">
-        <f>(F16/SQRT(3)/G16)*1000</f>
-        <v>367.41408920679464</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="43">
-        <v>680</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="100"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="43" t="str">
-        <f>COMPLEX(35,17)</f>
-        <v>35+17i</v>
-      </c>
-      <c r="F17" s="43">
-        <f>IMABS(E17)</f>
-        <v>38.910152916687437</v>
-      </c>
-      <c r="G17" s="43">
-        <v>110</v>
-      </c>
-      <c r="H17" s="43">
-        <f>(F17/SQRT(3)/G17)*1000</f>
-        <v>204.22533873326358</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="43">
-        <v>450</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="100"/>
-      <c r="C18" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="56" t="str">
-        <f>Fрозр!E12</f>
+      <c r="D9" s="4">
+        <f>'Вар1. Длинна'!H30</f>
+        <v>7.8</v>
+      </c>
+      <c r="E9" s="4">
+        <f>62</f>
+        <v>62</v>
+      </c>
+      <c r="F9" s="4">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="K10">
+        <f>E8</f>
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <f>27</f>
+        <v>27</v>
+      </c>
+      <c r="O10">
+        <f>13.8</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Таблиця 1-3'!I4</f>
+        <v>а)</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>'Вар2. Длинна'!F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'Вар2. Длинна'!G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11" s="14">
+        <f>J15</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="F11" s="14">
+        <f>K15</f>
+        <v>16.891999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="E12" s="14">
+        <f>P15</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="F12" s="14">
+        <f>Q15</f>
+        <v>15.608000000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="15">
+        <f>J15+P15</f>
+        <v>67</v>
+      </c>
+      <c r="R12">
+        <f>K15+Q15</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="E13" s="14">
+        <f>-M15</f>
+        <v>2.8430000000000035</v>
+      </c>
+      <c r="F13" s="14">
+        <f>-N15</f>
+        <v>1.3919999999999995</v>
+      </c>
+      <c r="Q13">
+        <f>K20+N20</f>
+        <v>67</v>
+      </c>
+      <c r="R13">
+        <f>L20+O20</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>'Таблиця 1-3'!L4</f>
+        <v>г)</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>'Вар2. Длинна'!X23</f>
         <v>ВП-2</v>
       </c>
-      <c r="E18" s="56" t="str">
-        <f>Fрозр!F12</f>
-        <v>67+32.5i</v>
-      </c>
-      <c r="F18" s="56">
-        <f>Fрозр!G12</f>
-        <v>74.47</v>
-      </c>
-      <c r="G18" s="56">
-        <f>Fрозр!H12</f>
-        <v>110</v>
-      </c>
-      <c r="H18" s="55">
-        <f>(F18/SQRT(3)/G18)*1000</f>
-        <v>390.86613224137665</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="56">
-        <v>680</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="100"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="56" t="str">
-        <f>Fрозр!E13</f>
+      <c r="D14" s="3">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E15+E16</f>
+        <v>67</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F15+F16</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="str">
+        <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
       </c>
-      <c r="E19" s="56" t="str">
-        <f>Fрозр!F13</f>
-        <v>32+15.5i</v>
-      </c>
-      <c r="F19" s="56">
-        <f>Fрозр!G13</f>
-        <v>35.56</v>
-      </c>
-      <c r="G19" s="56">
-        <f>Fрозр!H13</f>
-        <v>110</v>
-      </c>
-      <c r="H19" s="55">
-        <f t="shared" ref="H19:H23" si="1">(F19/SQRT(3)/G19)*1000</f>
-        <v>186.64159611257361</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="56">
-        <v>375</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="100"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="56" t="str">
-        <f>Fрозр!E14</f>
+      <c r="D15" s="3">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="J15" s="14">
+        <f>ROUND((K20*(M17+P17)+N20*P17)/(J17+M17+P17),3)</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="K15" s="14">
+        <f>ROUND((L20*(M17+P17)+O20*P17)/(J17+M17+P17),3)</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="14">
+        <f>P15-N20</f>
+        <v>-2.8430000000000035</v>
+      </c>
+      <c r="N15" s="14">
+        <f>Q15-O20</f>
+        <v>-1.3919999999999995</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="14">
+        <f>ROUND((K20*J17+N20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="Q15" s="14">
+        <f>ROUND((L20*J17+O20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>15.608000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="str">
+        <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
       </c>
-      <c r="E20" s="56" t="str">
-        <f>Fрозр!F14</f>
-        <v>35+17i</v>
-      </c>
-      <c r="F20" s="56">
-        <f>Fрозр!G14</f>
-        <v>38.909999999999997</v>
-      </c>
-      <c r="G20" s="56">
-        <f>Fрозр!H14</f>
-        <v>110</v>
-      </c>
-      <c r="H20" s="55">
-        <f t="shared" si="1"/>
-        <v>204.22453612880309</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="56">
-        <v>450</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="56" t="str">
+      <c r="D16" s="3">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E16" s="4">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>D11</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M17">
+        <f>D13</f>
+        <v>14.5</v>
+      </c>
+      <c r="P17">
+        <f>D12</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>E15</f>
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <f>F15</f>
+        <v>15.5</v>
+      </c>
+      <c r="N20">
+        <f>E16</f>
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <f>F16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
       </c>
-      <c r="E21" s="56" t="str">
-        <f>Fрозр!F15</f>
-        <v>165+90.3i</v>
-      </c>
-      <c r="F21" s="56">
-        <f>Fрозр!G15</f>
-        <v>188.09</v>
-      </c>
-      <c r="G21" s="56">
-        <f>Fрозр!H15</f>
-        <v>220</v>
-      </c>
-      <c r="H21" s="55">
-        <f t="shared" si="1"/>
-        <v>493.60823696307597</v>
-      </c>
-      <c r="I21" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="56">
-        <v>825</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="56" t="str">
+      <c r="E25">
+        <f>'Таблиця 1-4'!E14</f>
+        <v>14.8</v>
+      </c>
+      <c r="F25">
+        <f>166.15</f>
+        <v>166.15</v>
+      </c>
+      <c r="G25">
+        <f>116.7</f>
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
       </c>
-      <c r="E22" s="56" t="str">
-        <f>Fрозр!F16</f>
-        <v>145+77.3i</v>
-      </c>
-      <c r="F22" s="56">
-        <f>Fрозр!G16</f>
-        <v>164.32</v>
-      </c>
-      <c r="G22" s="56">
-        <f>Fрозр!H16</f>
-        <v>220</v>
-      </c>
-      <c r="H22" s="55">
-        <f t="shared" si="1"/>
-        <v>431.22816469654236</v>
-      </c>
-      <c r="I22" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="56">
-        <v>680</v>
-      </c>
-      <c r="K22" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="102"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="56" t="str">
+      <c r="E26">
+        <f>'Таблиця 1-4'!E15</f>
+        <v>22.6</v>
+      </c>
+      <c r="F26">
+        <f>F25-'Табл1-1  1-2'!B5</f>
+        <v>146.15</v>
+      </c>
+      <c r="G26">
+        <f>G25-'Табл1-1  1-2'!C5</f>
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
       </c>
-      <c r="E23" s="56" t="str">
-        <f>Fрозр!F17</f>
+      <c r="E27">
+        <f>'Таблиця 1-4'!E16</f>
+        <v>10.8</v>
+      </c>
+      <c r="F27">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>165</v>
+      </c>
+      <c r="E29">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31">
+        <f>SQRT(D29^2+E29^2)</f>
+        <v>188.09330131612873</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33">
+        <f>0.05*F31</f>
+        <v>9.4046650658064372</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <f>0.15*F31</f>
+        <v>28.213995197419308</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="10"/>
+      <c r="P35" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:Z39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="120"/>
+      <c r="D4" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+    </row>
+    <row r="6" spans="3:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="119" t="str">
+        <f>нагрів!D5</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="F6" s="119" t="str">
+        <f>нагрів!I5</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="G6" s="124">
+        <f>'Таблиця 1-4'!E4</f>
+        <v>7.8</v>
+      </c>
+      <c r="H6" s="127">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I6" s="127">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J6" s="126">
+        <f>H6*G6</f>
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="K6" s="126">
+        <f>I6*G6</f>
+        <v>3.1590000000000003</v>
+      </c>
+      <c r="L6" s="119" t="str">
+        <f>нагрів!E5</f>
+        <v>62+38i</v>
+      </c>
+      <c r="M6" s="126">
+        <f>(IMREAL(L6)*J6+IMAGINARY(L6)*K6)/$N$6</f>
+        <v>1.2407672727272729</v>
+      </c>
+      <c r="N6" s="115">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="129"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="119" t="str">
+        <f>нагрів!D6</f>
+        <v>Д-В</v>
+      </c>
+      <c r="F7" s="119" t="str">
+        <f>нагрів!I6</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G7" s="125">
+        <f>'Таблиця 1-4'!E5</f>
+        <v>5.6</v>
+      </c>
+      <c r="H7" s="127">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I7" s="126">
+        <v>0.42</v>
+      </c>
+      <c r="J7" s="126">
+        <f>H7*G7</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K7" s="126">
+        <f>I7*G7</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L7" s="119" t="str">
+        <f>нагрів!E6</f>
+        <v>27+19i</v>
+      </c>
+      <c r="M7" s="126">
+        <f>(IMREAL(L7)*J7+IMAGINARY(L7)*K7)/$N$6</f>
+        <v>0.67841454545454538</v>
+      </c>
+      <c r="N7" s="115"/>
+    </row>
+    <row r="8" spans="3:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="129"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="126">
+        <f>M6+M7</f>
+        <v>1.9191818181818183</v>
+      </c>
+      <c r="P8" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="33"/>
+    </row>
+    <row r="9" spans="3:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="129"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="123" t="str">
+        <f>нагрів!D7</f>
+        <v>відключення ВП-Д</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="132"/>
+      <c r="P9" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="33"/>
+    </row>
+    <row r="10" spans="3:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="129"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="119" t="str">
+        <f>нагрів!D8</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="F10" s="119" t="str">
+        <f>нагрів!I8</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="G10" s="119">
+        <f>'Таблиця 1-4'!E3</f>
+        <v>11.8</v>
+      </c>
+      <c r="H10" s="127">
+        <v>0.12</v>
+      </c>
+      <c r="I10" s="127">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J10" s="126">
+        <f>H10*G10</f>
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="K10" s="126">
+        <f>I10*G10</f>
+        <v>4.7790000000000008</v>
+      </c>
+      <c r="L10" s="119" t="str">
+        <f>нагрів!E10</f>
+        <v>35+19i</v>
+      </c>
+      <c r="M10" s="126">
+        <f>(IMREAL(L10)*J10+IMAGINARY(L10)*K10)/$N$6</f>
+        <v>1.2760090909090911</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="119" t="str">
+        <f>нагрів!D9</f>
+        <v>В-Д</v>
+      </c>
+      <c r="F11" s="119" t="str">
+        <f>нагрів!I9</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G11" s="119">
+        <f>G7</f>
+        <v>5.6</v>
+      </c>
+      <c r="H11" s="127">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I11" s="126">
+        <v>0.42</v>
+      </c>
+      <c r="J11" s="126">
+        <f>H11*G11</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K11" s="126">
+        <f>I11*G11</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L11" s="119" t="str">
+        <f>нагрів!E11</f>
+        <v>62+32.8i</v>
+      </c>
+      <c r="M11" s="126">
+        <f>(IMREAL(L11)*J11+IMAGINARY(L11)*K11)/$N$6</f>
+        <v>1.3262836363636361</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="123" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="126">
+        <f>M10+M11</f>
+        <v>2.6022927272727272</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="129"/>
+      <c r="D13" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="119" t="str">
+        <f>Fрозр!E7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="F13" s="119" t="str">
+        <f>нагрів!I10</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G13" s="119">
+        <f>Потокорозподіл!D8</f>
+        <v>5.6</v>
+      </c>
+      <c r="H13" s="127">
+        <f>H11</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I13" s="126">
+        <f>I11</f>
+        <v>0.42</v>
+      </c>
+      <c r="J13" s="119">
+        <f>H13*G13</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K13" s="119">
+        <f>I13*G13</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L13" s="119" t="str">
+        <f>нагрів!E10</f>
+        <v>35+19i</v>
+      </c>
+      <c r="M13" s="126">
+        <f>(IMREAL(L13)*J13+IMAGINARY(L13)*K13)/$N$6</f>
+        <v>0.75905454545454543</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="119" t="str">
+        <f>Fрозр!E8</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="F14" s="119" t="str">
+        <f>нагрів!I11</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="G14" s="119">
+        <f>Потокорозподіл!D9</f>
+        <v>7.8</v>
+      </c>
+      <c r="H14" s="127">
+        <f>H10</f>
+        <v>0.12</v>
+      </c>
+      <c r="I14" s="127">
+        <f>I10</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J14" s="119">
+        <f>H14*G14</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="K14" s="119">
+        <f>I14*G14</f>
+        <v>3.1590000000000003</v>
+      </c>
+      <c r="L14" s="119" t="str">
+        <f>нагрів!E11</f>
+        <v>62+32.8i</v>
+      </c>
+      <c r="M14" s="126">
+        <f>(IMREAL(L14)*J14+IMAGINARY(L14)*K14)/$N$6</f>
+        <v>1.4695199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="126">
+        <f>M13+M14</f>
+        <v>2.2285745454545456</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="123" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="132"/>
+    </row>
+    <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="120"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="119" t="str">
+        <f>нагрів!D13</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="F17" s="119" t="str">
+        <f>нагрів!I13</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="G17" s="119">
+        <v>7.8</v>
+      </c>
+      <c r="H17" s="127">
+        <f>H10</f>
+        <v>0.12</v>
+      </c>
+      <c r="I17" s="127">
+        <f>I10</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J17" s="119">
+        <f>H17*G17</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="K17" s="119">
+        <f>I17*G17</f>
+        <v>3.1590000000000003</v>
+      </c>
+      <c r="L17" s="119" t="str">
+        <f>нагрів!E13</f>
+        <v>62+32.5i</v>
+      </c>
+      <c r="M17" s="126">
+        <f>(IMREAL(L17)*J17+IMAGINARY(L14)*K17)/$N$6</f>
+        <v>1.4695199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="120"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="119" t="str">
+        <f>нагрів!D14</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="F18" s="119" t="str">
+        <f>нагрів!I14</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G18" s="119">
+        <v>5.6</v>
+      </c>
+      <c r="H18" s="127">
+        <f>H11</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I18" s="126">
+        <f>I11</f>
+        <v>0.42</v>
+      </c>
+      <c r="J18" s="119">
+        <f>H18*G18</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K18" s="119">
+        <f>I18*G18</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L18" s="119" t="str">
+        <f>нагрів!E14</f>
+        <v>27+15.5i</v>
+      </c>
+      <c r="M18" s="126">
+        <f>(IMREAL(L18)*J18+IMAGINARY(L15)*K18)/$N$6</f>
+        <v>0.27216000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="120"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="126">
+        <f>M17+M18</f>
+        <v>1.7416799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="120"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="132"/>
+    </row>
+    <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="120"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="119" t="str">
+        <f>нагрів!D16</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="F21" s="119" t="str">
+        <f>нагрів!I16</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="G21" s="119">
+        <f>11.8</f>
+        <v>11.8</v>
+      </c>
+      <c r="H21" s="119">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I21" s="119">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J21" s="125">
+        <f>H21*G21</f>
+        <v>0.40120000000000006</v>
+      </c>
+      <c r="K21" s="125">
+        <f>G21*I21</f>
+        <v>4.7790000000000008</v>
+      </c>
+      <c r="L21" s="119" t="str">
+        <f>нагрів!E16</f>
+        <v>62+32.5i</v>
+      </c>
+      <c r="M21" s="126">
+        <f>(IMREAL(L21)*J21+IMAGINARY(L21)*K21)/$N$6</f>
+        <v>1.6381081818181822</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="120"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="119" t="str">
+        <f>нагрів!D17</f>
+        <v>Г-Е</v>
+      </c>
+      <c r="F22" s="119" t="str">
+        <f>нагрів!I17</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G22" s="119">
+        <v>5.6</v>
+      </c>
+      <c r="H22" s="119">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I22" s="119">
+        <v>0.42</v>
+      </c>
+      <c r="J22" s="125">
+        <f>H22*G22</f>
+        <v>1.1088</v>
+      </c>
+      <c r="K22" s="125">
+        <f>G22*I22</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="L22" s="119" t="str">
+        <f>нагрів!E17</f>
+        <v>35+17i</v>
+      </c>
+      <c r="M22" s="126">
+        <f>(IMREAL(L22)*J22+IMAGINARY(L22)*K22)/$N$6</f>
+        <v>0.71629090909090909</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="120"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="123" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="126">
+        <f>M21+M22</f>
+        <v>2.3543990909090913</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="120"/>
+      <c r="D24" s="120" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="119" t="str">
+        <f>нагрів!D18</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="F24" s="119" t="str">
+        <f>нагрів!I18</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="G24" s="119">
+        <f>'Таблиця 1-4'!E11</f>
+        <v>5.4</v>
+      </c>
+      <c r="H24" s="119">
+        <f>H21</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I24" s="119">
+        <f>I21</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J24" s="119">
+        <f>H24*G24</f>
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="K24" s="119">
+        <f>I24*G24</f>
+        <v>2.1870000000000003</v>
+      </c>
+      <c r="L24" s="119" t="str">
+        <f>нагрів!E18</f>
+        <v>67+32.5i</v>
+      </c>
+      <c r="M24" s="126">
+        <f>(IMREAL(L24)*J24+IMAGINARY(L24)*K24)/$N$6</f>
+        <v>0.75798818181818195</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="119" t="str">
+        <f>нагрів!D19</f>
+        <v>Г-2</v>
+      </c>
+      <c r="F25" s="119" t="str">
+        <f>нагрів!I19</f>
+        <v>АС-120/27</v>
+      </c>
+      <c r="G25" s="119">
+        <f>'Таблиця 1-4'!E12</f>
+        <v>7.2</v>
+      </c>
+      <c r="H25" s="119">
+        <f>0.249</f>
+        <v>0.249</v>
+      </c>
+      <c r="I25" s="119">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="J25" s="119">
+        <f>H25*G25</f>
+        <v>1.7927999999999999</v>
+      </c>
+      <c r="K25" s="119">
+        <f>I25*G25</f>
+        <v>3.0743999999999998</v>
+      </c>
+      <c r="L25" s="119" t="str">
+        <f>нагрів!E19</f>
+        <v>32+15.5i</v>
+      </c>
+      <c r="M25" s="126">
+        <f t="shared" ref="M25:M26" si="0">(IMREAL(L25)*J25+IMAGINARY(L25)*K25)/$N$6</f>
+        <v>0.9547527272727272</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="119" t="str">
+        <f>нагрів!D20</f>
+        <v>Е-2</v>
+      </c>
+      <c r="F26" s="119" t="str">
+        <f>нагрів!I20</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="G26" s="119">
+        <f>'Таблиця 1-4'!E13</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H26" s="127">
+        <f>H18</f>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I26" s="126">
+        <f>I18</f>
+        <v>0.42</v>
+      </c>
+      <c r="J26" s="119">
+        <f>H26*G26</f>
+        <v>1.6434000000000002</v>
+      </c>
+      <c r="K26" s="119">
+        <f>I26*G26</f>
+        <v>3.4860000000000002</v>
+      </c>
+      <c r="L26" s="119" t="str">
+        <f>нагрів!E20</f>
+        <v>35+17i</v>
+      </c>
+      <c r="M26" s="126">
+        <f t="shared" si="0"/>
+        <v>1.0616454545454546</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="123" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="126">
+        <f>M26</f>
+        <v>1.0616454545454546</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="126">
+        <f>M24+M25</f>
+        <v>1.7127409090909091</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="128"/>
+      <c r="E29" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="119" t="str">
+        <f>нагрів!I21</f>
+        <v>АС-400/51</v>
+      </c>
+      <c r="G29" s="119">
+        <v>14.8</v>
+      </c>
+      <c r="H29" s="119">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I29" s="119">
+        <v>0.42</v>
+      </c>
+      <c r="J29" s="126">
+        <f>H29*G29</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K29" s="126">
+        <f>I29*G29</f>
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="L29" s="119" t="str">
+        <f>нагрів!E21</f>
+        <v>166.15+116.7i</v>
+      </c>
+      <c r="M29" s="119">
+        <f>(IMREAL(L29)*J29+IMAGINARY(L29)*K29)/$N$29</f>
+        <v>4.1356077272727276</v>
+      </c>
+      <c r="N29">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="120"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="119" t="str">
+        <f>нагрів!I22</f>
+        <v>АС-300/67</v>
+      </c>
+      <c r="G30" s="119">
+        <v>22.6</v>
+      </c>
+      <c r="H30" s="119">
+        <f>0.034</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I30" s="119">
+        <f>0.429</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J30" s="126">
+        <f t="shared" ref="J30:J31" si="1">H30*G30</f>
+        <v>0.76840000000000008</v>
+      </c>
+      <c r="K30" s="126">
+        <f t="shared" ref="K30:K31" si="2">I30*G30</f>
+        <v>9.6954000000000011</v>
+      </c>
+      <c r="L30" s="119" t="str">
+        <f>нагрів!E22</f>
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="M30" s="119">
+        <f>(IMREAL(L30)*J30+IMAGINARY(L30)*K30)/$N$29</f>
+        <v>5.0805210909090919</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="120"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="119" t="str">
+        <f>нагрів!I23</f>
+        <v>АС-240/56</v>
+      </c>
+      <c r="G31" s="119">
+        <v>10.8</v>
+      </c>
+      <c r="H31" s="127">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I31" s="127">
+        <f>0.429</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J31" s="126">
+        <f t="shared" si="1"/>
+        <v>0.25920000000000004</v>
+      </c>
+      <c r="K31" s="126">
+        <f t="shared" si="2"/>
+        <v>4.6332000000000004</v>
+      </c>
+      <c r="L31" s="119" t="str">
+        <f>нагрів!E23</f>
         <v>20+13i</v>
       </c>
-      <c r="F23" s="56">
-        <f>Fрозр!G17</f>
-        <v>23.85</v>
-      </c>
-      <c r="G23" s="56">
-        <f>Fрозр!H17</f>
-        <v>220</v>
-      </c>
-      <c r="H23" s="55">
-        <f t="shared" si="1"/>
-        <v>62.590017818966253</v>
-      </c>
-      <c r="I23" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="56">
-        <v>610</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>131</v>
+      <c r="M31" s="119">
+        <f t="shared" ref="M30:M31" si="3">(IMREAL(L31)*J31+IMAGINARY(L31)*K31)/$N$29</f>
+        <v>0.29734363636363642</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="119"/>
+    </row>
+    <row r="35" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B11"/>
+  <mergeCells count="27">
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="E27:L27"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5501,52 +6744,52 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
+        <oleObject progId="Equation.3" shapeId="19458" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4"/>
+        <oleObject progId="Equation.3" shapeId="19458" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
+        <oleObject progId="Equation.3" shapeId="19457" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6"/>
+        <oleObject progId="Equation.3" shapeId="19457" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -6567,7 +7810,7 @@
   <dimension ref="G3:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,26 +8049,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="60" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="59"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -6974,7 +8217,7 @@
         <f>K6+K5*3</f>
         <v>45.480000000000004</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="38">
         <f>L6+L5*3</f>
         <v>44.92</v>
       </c>
@@ -7155,138 +8398,138 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="81"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="40" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="40">
         <v>114</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>26.6</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="42">
         <f>D5/E5</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="40" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="40">
         <v>147</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="40">
         <v>34.299999999999997</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="42">
         <f t="shared" ref="F6:F9" si="0">D6/E6</f>
         <v>4.2857142857142865</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="40" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="40">
         <v>185</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="40">
         <v>43.1</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="42">
         <f t="shared" si="0"/>
         <v>4.2923433874709973</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="40" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="40">
         <v>241</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="40">
         <v>56.3</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="42">
         <f t="shared" si="0"/>
         <v>4.2806394316163416</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="40" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="40">
         <v>288.5</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="40">
         <v>67.3</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="42">
         <f t="shared" si="0"/>
         <v>4.2867756315007428</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="40" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <v>394</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <v>51.1</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="42">
         <f t="shared" ref="F10" si="1">D10/E10</f>
         <v>7.7103718199608604</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="40" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7305,7 +8548,7 @@
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7341,10 +8584,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="26" t="str">
@@ -7357,22 +8600,22 @@
       </c>
       <c r="F3" s="28">
         <f>Потокорозподіл!E5</f>
-        <v>25.19</v>
+        <v>26.968</v>
       </c>
       <c r="G3" s="26">
         <v>1</v>
       </c>
       <c r="H3" s="26">
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
-        <v>88.4</v>
-      </c>
-      <c r="I3" s="69">
+        <v>91.4</v>
+      </c>
+      <c r="I3" s="66">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -7383,20 +8626,20 @@
       </c>
       <c r="F4" s="28">
         <f>Потокорозподіл!E6</f>
-        <v>36.81</v>
+        <v>35.031999999999996</v>
       </c>
       <c r="G4" s="27">
         <v>1</v>
       </c>
       <c r="H4" s="26">
-        <f t="shared" ref="H4:H15" si="0">ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
-        <v>106</v>
-      </c>
-      <c r="I4" s="67"/>
+        <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
+        <v>103.5</v>
+      </c>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64"/>
-      <c r="C5" s="75"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -7406,21 +8649,21 @@
         <v>5.6</v>
       </c>
       <c r="F5" s="28">
-        <f>Потокорозподіл!E7</f>
-        <v>1.8099999999999987</v>
+        <f>-Потокорозподіл!E7</f>
+        <v>8.032</v>
       </c>
       <c r="G5" s="27">
         <v>1</v>
       </c>
       <c r="H5" s="26">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
-      </c>
-      <c r="I5" s="70"/>
+        <f t="shared" ref="H4:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
+        <v>50.3</v>
+      </c>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="73" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="26" t="str">
@@ -7432,23 +8675,23 @@
         <v>5.6</v>
       </c>
       <c r="F6" s="28">
-        <f>35</f>
+        <f>Потокорозподіл!E8</f>
         <v>35</v>
       </c>
       <c r="G6" s="27">
         <v>2</v>
       </c>
       <c r="H6" s="26">
-        <f>ROUND(4.34*SQRT(E6+16*F6/G6),1)</f>
+        <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="63">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -7458,23 +8701,23 @@
         <v>7.8</v>
       </c>
       <c r="F7" s="28">
-        <f>62</f>
+        <f>Потокорозподіл!E9</f>
         <v>62</v>
       </c>
       <c r="G7" s="27">
         <v>2</v>
       </c>
       <c r="H7" s="26">
-        <f>ROUND(4.34*SQRT(E7+16*F7/G7),1)</f>
+        <f t="shared" si="0"/>
         <v>97.4</v>
       </c>
-      <c r="I7" s="70"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="73" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="29" t="str">
@@ -7492,17 +8735,17 @@
       <c r="G8" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="26">
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="75">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -7518,15 +8761,15 @@
       <c r="G9" s="29">
         <v>1</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="26">
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="79"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="75"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -7542,15 +8785,15 @@
       <c r="G10" s="29">
         <v>1</v>
       </c>
-      <c r="H10" s="29">
-        <f>ROUND(4.34*SQRT(E10+16*F10/G10),1)</f>
+      <c r="H10" s="26">
+        <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="I10" s="80"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="73" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="29" t="str">
@@ -7568,17 +8811,17 @@
       <c r="G11" s="29">
         <v>2</v>
       </c>
-      <c r="H11" s="29">
-        <f>ROUND(4.34*SQRT(E11+16*F11/G11),1)</f>
+      <c r="H11" s="26">
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="75">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -7594,15 +8837,15 @@
       <c r="G12" s="29">
         <v>2</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="26">
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="79"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="72"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -7619,71 +8862,71 @@
         <v>2</v>
       </c>
       <c r="H13" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
         <v>73.7</v>
       </c>
-      <c r="I13" s="80"/>
+      <c r="I13" s="77"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="31" t="str">
+      <c r="C14" s="63"/>
+      <c r="D14" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <f>'мережа зовнішньго електр.'!H4</f>
         <v>14.8</v>
       </c>
       <c r="F14" s="28">
         <f>Потокорозподіл!F25</f>
-        <v>165</v>
-      </c>
-      <c r="G14" s="31">
+        <v>166.15</v>
+      </c>
+      <c r="G14" s="30">
         <v>2</v>
       </c>
-      <c r="H14" s="31">
-        <f t="shared" si="0"/>
-        <v>158.6</v>
-      </c>
-      <c r="I14" s="78">
+      <c r="H14" s="30">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="I14" s="75">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="31" t="str">
+      <c r="B15" s="61"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <f>'мережа зовнішньго електр.'!H5</f>
         <v>22.6</v>
       </c>
       <c r="F15" s="28">
         <f>Потокорозподіл!F26</f>
-        <v>145</v>
-      </c>
-      <c r="G15" s="32">
+        <v>146.15</v>
+      </c>
+      <c r="G15" s="31">
         <v>2</v>
       </c>
-      <c r="H15" s="32">
-        <f t="shared" si="0"/>
-        <v>149.19999999999999</v>
-      </c>
-      <c r="I15" s="79"/>
+      <c r="H15" s="31">
+        <f t="shared" si="1"/>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="31" t="str">
+      <c r="B16" s="62"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <f>'мережа зовнішньго електр.'!H6</f>
         <v>10.8</v>
       </c>
@@ -7691,14 +8934,14 @@
         <f>Потокорозподіл!F27</f>
         <v>20</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>2</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="80"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7852,582 +9095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R35"/>
-  <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="15">
-        <f>J5+P5</f>
-        <v>62</v>
-      </c>
-      <c r="R2" s="15">
-        <f>K5+Q5</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3">
-        <f>K10+N10</f>
-        <v>62</v>
-      </c>
-      <c r="R3">
-        <f>L10+O10</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="str">
-        <f>'Вар1. Длинна'!G5</f>
-        <v>ВП-В</v>
-      </c>
-      <c r="D5">
-        <f>'Вар1. Длинна'!H5</f>
-        <v>11.8</v>
-      </c>
-      <c r="E5" s="14">
-        <f>J5</f>
-        <v>25.19</v>
-      </c>
-      <c r="F5" s="14">
-        <f>K5</f>
-        <v>15.984</v>
-      </c>
-      <c r="J5" s="14">
-        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
-        <v>25.19</v>
-      </c>
-      <c r="K5" s="14">
-        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
-        <v>15.984</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="14">
-        <f>J5-K10</f>
-        <v>-1.8099999999999987</v>
-      </c>
-      <c r="N5" s="14">
-        <f>K5-L10</f>
-        <v>-3.016</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="14">
-        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>36.81</v>
-      </c>
-      <c r="Q5" s="14">
-        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>22.015999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" t="str">
-        <f>'Вар1. Длинна'!G6</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="D6">
-        <f>'Вар1. Длинна'!H6</f>
-        <v>7.8</v>
-      </c>
-      <c r="E6" s="14">
-        <f>P5</f>
-        <v>36.81</v>
-      </c>
-      <c r="F6" s="14">
-        <f>Q5</f>
-        <v>22.015999999999998</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" t="str">
-        <f>'Вар1. Длинна'!G7</f>
-        <v>В-Д</v>
-      </c>
-      <c r="D7">
-        <f>'Вар1. Длинна'!H7</f>
-        <v>5.6</v>
-      </c>
-      <c r="E7" s="14">
-        <f>-M5</f>
-        <v>1.8099999999999987</v>
-      </c>
-      <c r="F7" s="14">
-        <f>-N5</f>
-        <v>3.016</v>
-      </c>
-      <c r="J7">
-        <f>D5</f>
-        <v>11.8</v>
-      </c>
-      <c r="M7">
-        <f>D7</f>
-        <v>5.6</v>
-      </c>
-      <c r="P7">
-        <f>D6</f>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="str">
-        <f>'Вар1. Длинна'!G29</f>
-        <v>В-Д</v>
-      </c>
-      <c r="D8">
-        <f>'Вар1. Длинна'!H29</f>
-        <v>5.6</v>
-      </c>
-      <c r="E8">
-        <f>27</f>
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <f>13.8</f>
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="str">
-        <f>'Вар1. Длинна'!G30</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="D9" s="4">
-        <f>'Вар1. Длинна'!H30</f>
-        <v>7.8</v>
-      </c>
-      <c r="E9" s="4">
-        <f>35</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="K10">
-        <f>E8</f>
-        <v>27</v>
-      </c>
-      <c r="L10">
-        <f>19</f>
-        <v>19</v>
-      </c>
-      <c r="N10">
-        <f>E9</f>
-        <v>35</v>
-      </c>
-      <c r="O10">
-        <f>F9</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'Таблиця 1-3'!I4</f>
-        <v>а)</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f>'Вар2. Длинна'!F5</f>
-        <v>ВП-Г</v>
-      </c>
-      <c r="D11" s="3">
-        <f>'Вар2. Длинна'!G5</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E11" s="14">
-        <f>J15</f>
-        <v>34.843000000000004</v>
-      </c>
-      <c r="F11" s="14">
-        <f>K15</f>
-        <v>16.891999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="str">
-        <f>'Вар2. Длинна'!F6</f>
-        <v>ВП-Е</v>
-      </c>
-      <c r="D12" s="3">
-        <f>'Вар2. Длинна'!G6</f>
-        <v>11.9</v>
-      </c>
-      <c r="E12" s="14">
-        <f>P15</f>
-        <v>32.156999999999996</v>
-      </c>
-      <c r="F12" s="14">
-        <f>Q15</f>
-        <v>15.608000000000001</v>
-      </c>
-      <c r="P12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="15">
-        <f>J15+P15</f>
-        <v>67</v>
-      </c>
-      <c r="R12">
-        <f>K15+Q15</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="str">
-        <f>'Вар2. Длинна'!F7</f>
-        <v>Е-Г</v>
-      </c>
-      <c r="D13" s="3">
-        <f>'Вар2. Длинна'!G7</f>
-        <v>14.5</v>
-      </c>
-      <c r="E13" s="14">
-        <f>-M15</f>
-        <v>2.8430000000000035</v>
-      </c>
-      <c r="F13" s="14">
-        <f>-N15</f>
-        <v>1.3919999999999995</v>
-      </c>
-      <c r="Q13">
-        <f>K20+N20</f>
-        <v>67</v>
-      </c>
-      <c r="R13">
-        <f>L20+O20</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f>'Таблиця 1-3'!L4</f>
-        <v>г)</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f>'Вар2. Длинна'!X23</f>
-        <v>ВП-2</v>
-      </c>
-      <c r="D14" s="3">
-        <f>'Вар2. Длинна'!Y23</f>
-        <v>5.4</v>
-      </c>
-      <c r="E14" s="4">
-        <f>E15+E16</f>
-        <v>67</v>
-      </c>
-      <c r="F14" s="4">
-        <f>F15+F16</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="str">
-        <f>'Вар2. Длинна'!X24</f>
-        <v>Г-2</v>
-      </c>
-      <c r="D15" s="3">
-        <f>'Вар2. Длинна'!Y24</f>
-        <v>7.2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="J15" s="14">
-        <f>ROUND((K20*(M17+P17)+N20*P17)/(J17+M17+P17),3)</f>
-        <v>34.843000000000004</v>
-      </c>
-      <c r="K15" s="14">
-        <f>ROUND((L20*(M17+P17)+O20*P17)/(J17+M17+P17),3)</f>
-        <v>16.891999999999999</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="14">
-        <f>P15-N20</f>
-        <v>-2.8430000000000035</v>
-      </c>
-      <c r="N15" s="14">
-        <f>Q15-O20</f>
-        <v>-1.3919999999999995</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="14">
-        <f>ROUND((K20*J17+N20*(J17+M17))/(J17+M17+P17),3)</f>
-        <v>32.156999999999996</v>
-      </c>
-      <c r="Q15" s="14">
-        <f>ROUND((L20*J17+O20*(J17+M17))/(J17+M17+P17),3)</f>
-        <v>15.608000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="str">
-        <f>'Вар2. Длинна'!X25</f>
-        <v>Е-2</v>
-      </c>
-      <c r="D16" s="3">
-        <f>'Вар2. Длинна'!Y25</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E16" s="4">
-        <v>35</v>
-      </c>
-      <c r="F16" s="4">
-        <v>17</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J17">
-        <f>D11</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M17">
-        <f>D13</f>
-        <v>14.5</v>
-      </c>
-      <c r="P17">
-        <f>D12</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K20">
-        <f>E15</f>
-        <v>32</v>
-      </c>
-      <c r="L20">
-        <f>F15</f>
-        <v>15.5</v>
-      </c>
-      <c r="N20">
-        <f>E16</f>
-        <v>35</v>
-      </c>
-      <c r="O20">
-        <f>F16</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="str">
-        <f>'Таблиця 1-4'!D14</f>
-        <v>ДЖ-3</v>
-      </c>
-      <c r="E25">
-        <f>'Таблиця 1-4'!E14</f>
-        <v>14.8</v>
-      </c>
-      <c r="F25">
-        <f>'Табл1-1  1-2'!B11</f>
-        <v>165</v>
-      </c>
-      <c r="G25">
-        <f>'Табл1-1  1-2'!C11</f>
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" t="str">
-        <f>'Таблиця 1-4'!D15</f>
-        <v>3-ВП</v>
-      </c>
-      <c r="E26">
-        <f>'Таблиця 1-4'!E15</f>
-        <v>22.6</v>
-      </c>
-      <c r="F26">
-        <f>F25-'Табл1-1  1-2'!B5</f>
-        <v>145</v>
-      </c>
-      <c r="G26">
-        <f>G25-'Табл1-1  1-2'!C5</f>
-        <v>77.3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D27" t="str">
-        <f>'Таблиця 1-4'!D16</f>
-        <v>3-Б</v>
-      </c>
-      <c r="E27">
-        <f>'Таблиця 1-4'!E16</f>
-        <v>10.8</v>
-      </c>
-      <c r="F27">
-        <f>'Табл1-1  1-2'!B5</f>
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <f>'Табл1-1  1-2'!C5</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29">
-        <f>SQRT(F26^2+G26^2)</f>
-        <v>164.31764969107854</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31">
-        <f>0.05*F29</f>
-        <v>8.2158824845539282</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32">
-        <f>0.15*F29</f>
-        <v>24.647647453661779</v>
-      </c>
-    </row>
-    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="L35" s="10"/>
-      <c r="O35" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8441,40 +9113,40 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="35">
         <v>0.8</v>
       </c>
       <c r="O2" t="s">
@@ -8482,25 +9154,25 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="84"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="46" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="46" t="s">
+      <c r="I3" s="83"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
       <c r="N3" t="s">
         <v>89</v>
       </c>
@@ -8508,236 +9180,236 @@
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>Потокорозподіл!E5</f>
-        <v>25.19</v>
+        <v>26.968</v>
       </c>
       <c r="B4">
         <f>Потокорозподіл!F5</f>
-        <v>15.984</v>
-      </c>
-      <c r="C4" s="89" t="s">
+        <v>14.375</v>
+      </c>
+      <c r="C4" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="47" t="str">
+      <c r="E4" s="45" t="str">
         <f>'Таблиця 1-4'!D3</f>
         <v>ВП-В</v>
       </c>
-      <c r="F4" s="47" t="str">
+      <c r="F4" s="45" t="str">
         <f>COMPLEX(A4,B4)</f>
-        <v>25.19+15.984i</v>
-      </c>
-      <c r="G4" s="47">
+        <v>26.968+14.375i</v>
+      </c>
+      <c r="G4" s="45">
         <f>ROUND(1*IMABS(F4),2)</f>
-        <v>29.83</v>
-      </c>
-      <c r="H4" s="47">
+        <v>30.56</v>
+      </c>
+      <c r="H4" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="45">
         <f>'Таблиця 1-4'!G3</f>
         <v>1</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="45">
         <f>ROUND(G4/SQRT(3)/H4/I4*10^3,2)</f>
-        <v>156.57</v>
-      </c>
-      <c r="K4" s="48">
-        <f t="shared" ref="K4:K17" si="0">J4/$N$2</f>
-        <v>195.71249999999998</v>
-      </c>
-      <c r="L4" s="49">
+        <v>160.4</v>
+      </c>
+      <c r="K4" s="46">
+        <f>J4/$N$2</f>
+        <v>200.5</v>
+      </c>
+      <c r="L4" s="47">
         <v>240</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="37">
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>Потокорозподіл!E6</f>
-        <v>36.81</v>
+        <v>35.031999999999996</v>
       </c>
       <c r="B5">
         <f>Потокорозподіл!F6</f>
-        <v>22.015999999999998</v>
-      </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="34" t="str">
+        <v>18.425000000000001</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F5" s="34" t="str">
-        <f t="shared" ref="F5:F17" si="1">COMPLEX(A5,B5)</f>
-        <v>36.81+22.016i</v>
-      </c>
-      <c r="G5" s="34">
-        <f t="shared" ref="G5:G17" si="2">ROUND(1*IMABS(F5),2)</f>
-        <v>42.89</v>
-      </c>
-      <c r="H5" s="34">
+      <c r="F5" s="45" t="str">
+        <f>COMPLEX(A5,B5)</f>
+        <v>35.032+18.425i</v>
+      </c>
+      <c r="G5" s="45">
+        <f>ROUND(1*IMABS(F5),2)</f>
+        <v>39.58</v>
+      </c>
+      <c r="H5" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <f>'Таблиця 1-4'!G4</f>
         <v>1</v>
       </c>
-      <c r="J5" s="34">
-        <f t="shared" ref="J5:J17" si="3">ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
-        <v>225.11</v>
-      </c>
-      <c r="K5" s="35">
-        <f t="shared" si="0"/>
-        <v>281.38749999999999</v>
-      </c>
-      <c r="L5" s="38">
+      <c r="J5" s="45">
+        <f>ROUND(G5/SQRT(3)/H5/I5*10^3,2)</f>
+        <v>207.74</v>
+      </c>
+      <c r="K5" s="46">
+        <f>J5/$N$2</f>
+        <v>259.67500000000001</v>
+      </c>
+      <c r="L5" s="36">
         <v>300</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="48">
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>Потокорозподіл!E7</f>
-        <v>1.8099999999999987</v>
+        <v>-8.032</v>
       </c>
       <c r="B6">
         <f>Потокорозподіл!F7</f>
-        <v>3.016</v>
-      </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="41" t="str">
+        <v>-4.625</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
       </c>
-      <c r="F6" s="41" t="str">
-        <f t="shared" si="1"/>
-        <v>1.81+3.016i</v>
-      </c>
-      <c r="G6" s="41">
-        <f>ROUND(1*IMABS(F6),2)</f>
-        <v>3.52</v>
-      </c>
-      <c r="H6" s="41">
+      <c r="F6" s="45" t="str">
+        <f>COMPLEX(A6,B6)</f>
+        <v>-8.032-4.625i</v>
+      </c>
+      <c r="G6" s="45">
+        <f t="shared" ref="G5:G17" si="0">ROUND(1*IMABS(F6),2)</f>
+        <v>9.27</v>
+      </c>
+      <c r="H6" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="39">
         <f>'Таблиця 1-4'!G5</f>
         <v>1</v>
       </c>
-      <c r="J6" s="41">
-        <f t="shared" si="3"/>
-        <v>18.48</v>
-      </c>
-      <c r="K6" s="51">
-        <f t="shared" si="0"/>
-        <v>23.099999999999998</v>
-      </c>
-      <c r="L6" s="52">
+      <c r="J6" s="45">
+        <f t="shared" ref="J5:J7" si="1">ROUND(G6/SQRT(3)/H6/I6*10^3,2)</f>
+        <v>48.65</v>
+      </c>
+      <c r="K6" s="46">
+        <f>J6/$N$2</f>
+        <v>60.812499999999993</v>
+      </c>
+      <c r="L6" s="49">
         <v>70</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="50">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>35</f>
+        <f>Потокорозподіл!E8</f>
         <v>35</v>
       </c>
       <c r="B7">
-        <f>19</f>
+        <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="83" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="118" t="str">
+      <c r="E7" s="36" t="str">
         <f>'Таблиця 1-4'!D6</f>
         <v>В-Д</v>
       </c>
-      <c r="F7" s="118" t="str">
-        <f>COMPLEX(A7,B7)</f>
+      <c r="F7" s="45" t="str">
+        <f t="shared" ref="F5:F17" si="2">COMPLEX(A7,B7)</f>
         <v>35+19i</v>
       </c>
-      <c r="G7" s="119">
-        <f t="shared" ref="G7:G9" si="4">ROUND(1*IMABS(F7),2)</f>
+      <c r="G7" s="45">
+        <f t="shared" si="0"/>
         <v>39.82</v>
       </c>
-      <c r="H7" s="118">
+      <c r="H7" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I7" s="118">
+      <c r="I7" s="36">
         <f>'Таблиця 1-4'!G6</f>
         <v>2</v>
       </c>
-      <c r="J7" s="118">
-        <f>ROUND(G7/SQRT(3)/H7/I7*10^3,2)</f>
+      <c r="J7" s="45">
+        <f t="shared" si="1"/>
         <v>104.5</v>
       </c>
-      <c r="K7" s="120">
-        <f t="shared" si="0"/>
+      <c r="K7" s="46">
+        <f t="shared" ref="K5:K17" si="3">J7/$N$2</f>
         <v>130.625</v>
       </c>
-      <c r="L7" s="118">
+      <c r="L7" s="36">
         <v>150</v>
       </c>
-      <c r="M7" s="118">
+      <c r="M7" s="36">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>62</f>
+        <f>Потокорозподіл!E9</f>
         <v>62</v>
       </c>
       <c r="B8">
-        <f>32.8</f>
+        <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="118" t="str">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F8" s="118" t="str">
-        <f>COMPLEX(A8,B8)</f>
+      <c r="F8" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>62+32.8i</v>
       </c>
-      <c r="G8" s="119">
-        <f t="shared" si="4"/>
+      <c r="G8" s="45">
+        <f t="shared" si="0"/>
         <v>70.14</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I8" s="118">
+      <c r="I8" s="36">
         <f>'Таблиця 1-4'!G7</f>
         <v>2</v>
       </c>
-      <c r="J8" s="118">
-        <f>ROUND(G8/SQRT(3)/H8/I8*10^3,2)</f>
+      <c r="J8" s="45">
+        <f t="shared" ref="J5:J17" si="4">ROUND(G8/SQRT(3)/H8/I8*10^3,2)</f>
         <v>184.07</v>
       </c>
-      <c r="K8" s="120">
-        <f t="shared" si="0"/>
+      <c r="K8" s="46">
+        <f t="shared" si="3"/>
         <v>230.08749999999998</v>
       </c>
-      <c r="L8" s="118">
+      <c r="L8" s="36">
         <v>240</v>
       </c>
-      <c r="M8" s="118">
+      <c r="M8" s="36">
         <v>240</v>
       </c>
     </row>
@@ -8750,44 +9422,44 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="34" t="str">
+      <c r="E9" s="33" t="str">
         <f>'Таблиця 1-4'!D8</f>
         <v>ВП-Г</v>
       </c>
-      <c r="F9" s="34" t="str">
-        <f>COMPLEX(A9,B9)</f>
+      <c r="F9" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>34.843+16.892i</v>
       </c>
-      <c r="G9" s="41">
-        <f t="shared" si="4"/>
+      <c r="G9" s="45">
+        <f t="shared" si="0"/>
         <v>38.72</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <f>'Таблиця 1-4'!G8</f>
         <v>1</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="45">
+        <f t="shared" si="4"/>
+        <v>203.23</v>
+      </c>
+      <c r="K9" s="46">
         <f t="shared" si="3"/>
-        <v>203.23</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="0"/>
         <v>254.03749999999997</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>300</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <v>300</v>
       </c>
     </row>
@@ -8800,40 +9472,40 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="34" t="str">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
       </c>
-      <c r="F10" s="34" t="str">
-        <f t="shared" si="1"/>
+      <c r="F10" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>32.157+15.608i</v>
       </c>
-      <c r="G10" s="34">
-        <f t="shared" si="2"/>
+      <c r="G10" s="45">
+        <f t="shared" si="0"/>
         <v>35.74</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <f>'Таблиця 1-4'!G9</f>
         <v>1</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="45">
+        <f t="shared" si="4"/>
+        <v>187.59</v>
+      </c>
+      <c r="K10" s="46">
         <f t="shared" si="3"/>
-        <v>187.59</v>
-      </c>
-      <c r="K10" s="35">
-        <f t="shared" si="0"/>
         <v>234.48749999999998</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="36">
         <v>240</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <v>240</v>
       </c>
     </row>
@@ -8846,40 +9518,40 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="34" t="str">
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
       </c>
-      <c r="F11" s="34" t="str">
-        <f t="shared" si="1"/>
+      <c r="F11" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>2.843+1.392i</v>
       </c>
-      <c r="G11" s="34">
-        <f t="shared" si="2"/>
+      <c r="G11" s="45">
+        <f t="shared" si="0"/>
         <v>3.17</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <f>'Таблиця 1-4'!G10</f>
         <v>1</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="45">
+        <f t="shared" si="4"/>
+        <v>16.64</v>
+      </c>
+      <c r="K11" s="46">
         <f t="shared" si="3"/>
-        <v>16.64</v>
-      </c>
-      <c r="K11" s="35">
-        <f t="shared" si="0"/>
         <v>20.8</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>70</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <v>150</v>
       </c>
     </row>
@@ -8892,42 +9564,42 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="82" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="34" t="str">
+      <c r="E12" s="33" t="str">
         <f>'Таблиця 1-4'!D11</f>
         <v>ВП-2</v>
       </c>
-      <c r="F12" s="34" t="str">
-        <f>COMPLEX(A12,B12)</f>
+      <c r="F12" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>67+32.5i</v>
       </c>
-      <c r="G12" s="34">
-        <f>ROUND(1*IMABS(F12),2)</f>
+      <c r="G12" s="45">
+        <f t="shared" si="0"/>
         <v>74.47</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <f>'Таблиця 1-4'!G11</f>
         <v>2</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="45">
+        <f t="shared" si="4"/>
+        <v>195.43</v>
+      </c>
+      <c r="K12" s="46">
         <f t="shared" si="3"/>
-        <v>195.43</v>
-      </c>
-      <c r="K12" s="35">
-        <f t="shared" si="0"/>
         <v>244.28749999999999</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="36">
         <v>300</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <v>300</v>
       </c>
     </row>
@@ -8940,40 +9612,40 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="34" t="str">
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
       </c>
-      <c r="F13" s="34" t="str">
-        <f t="shared" si="1"/>
+      <c r="F13" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>32+15.5i</v>
       </c>
-      <c r="G13" s="34">
-        <f t="shared" si="2"/>
+      <c r="G13" s="45">
+        <f t="shared" si="0"/>
         <v>35.56</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <f>'Таблиця 1-4'!G12</f>
         <v>2</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="45">
+        <f t="shared" si="4"/>
+        <v>93.32</v>
+      </c>
+      <c r="K13" s="46">
         <f t="shared" si="3"/>
-        <v>93.32</v>
-      </c>
-      <c r="K13" s="35">
-        <f t="shared" si="0"/>
         <v>116.64999999999999</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>120</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <v>120</v>
       </c>
     </row>
@@ -8986,132 +9658,132 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="34" t="str">
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
       </c>
-      <c r="F14" s="34" t="str">
-        <f t="shared" si="1"/>
+      <c r="F14" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>35+17i</v>
       </c>
-      <c r="G14" s="34">
-        <f t="shared" si="2"/>
+      <c r="G14" s="45">
+        <f t="shared" si="0"/>
         <v>38.909999999999997</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="45">
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <f>'Таблиця 1-4'!G13</f>
         <v>2</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="45">
+        <f t="shared" si="4"/>
+        <v>102.11</v>
+      </c>
+      <c r="K14" s="46">
         <f t="shared" si="3"/>
-        <v>102.11</v>
-      </c>
-      <c r="K14" s="35">
-        <f t="shared" si="0"/>
         <v>127.63749999999999</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <v>150</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>Потокорозподіл!F25</f>
-        <v>165</v>
+        <v>166.15</v>
       </c>
       <c r="B15">
         <f>Потокорозподіл!G25</f>
-        <v>90.3</v>
-      </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="34" t="str">
+        <v>116.7</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
       </c>
-      <c r="F15" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>165+90.3i</v>
-      </c>
-      <c r="G15" s="34">
+      <c r="F15" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>188.09</v>
-      </c>
-      <c r="H15" s="34">
+        <v>166.15+116.7i</v>
+      </c>
+      <c r="G15" s="45">
+        <f t="shared" si="0"/>
+        <v>203.04</v>
+      </c>
+      <c r="H15" s="33">
         <f>220</f>
         <v>220</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <f>'Таблиця 1-4'!G14</f>
         <v>2</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="45">
+        <f t="shared" si="4"/>
+        <v>266.42</v>
+      </c>
+      <c r="K15" s="46">
         <f t="shared" si="3"/>
-        <v>246.8</v>
-      </c>
-      <c r="K15" s="35">
-        <f t="shared" si="0"/>
-        <v>308.5</v>
-      </c>
-      <c r="L15" s="38">
+        <v>333.02499999999998</v>
+      </c>
+      <c r="L15" s="36">
         <v>400</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>Потокорозподіл!F26</f>
-        <v>145</v>
+        <v>146.15</v>
       </c>
       <c r="B16">
         <f>Потокорозподіл!G26</f>
-        <v>77.3</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="34" t="str">
+        <v>103.7</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
       </c>
-      <c r="F16" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>145+77.3i</v>
-      </c>
-      <c r="G16" s="34">
+      <c r="F16" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>164.32</v>
-      </c>
-      <c r="H16" s="34">
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="G16" s="45">
+        <f t="shared" si="0"/>
+        <v>179.2</v>
+      </c>
+      <c r="H16" s="33">
         <f>220</f>
         <v>220</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="33">
         <f>'Таблиця 1-4'!G15</f>
         <v>2</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="45">
+        <f t="shared" si="4"/>
+        <v>235.14</v>
+      </c>
+      <c r="K16" s="46">
         <f t="shared" si="3"/>
-        <v>215.61</v>
-      </c>
-      <c r="K16" s="35">
-        <f t="shared" si="0"/>
-        <v>269.51249999999999</v>
-      </c>
-      <c r="L16" s="34">
+        <v>293.92499999999995</v>
+      </c>
+      <c r="L16" s="33">
         <v>300</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="33">
         <v>300</v>
       </c>
     </row>
@@ -9124,40 +9796,40 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="34" t="str">
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
       </c>
-      <c r="F17" s="34" t="str">
-        <f t="shared" si="1"/>
+      <c r="F17" s="45" t="str">
+        <f t="shared" si="2"/>
         <v>20+13i</v>
       </c>
-      <c r="G17" s="34">
-        <f t="shared" si="2"/>
+      <c r="G17" s="45">
+        <f t="shared" si="0"/>
         <v>23.85</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <f>220</f>
         <v>220</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f>'Таблиця 1-4'!G16</f>
         <v>2</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="45">
+        <f t="shared" si="4"/>
+        <v>31.3</v>
+      </c>
+      <c r="K17" s="46">
         <f t="shared" si="3"/>
-        <v>31.3</v>
-      </c>
-      <c r="K17" s="35">
-        <f t="shared" si="0"/>
         <v>39.125</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="33">
         <v>70</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <v>240</v>
       </c>
     </row>
@@ -9182,4 +9854,730 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="108"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="103"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="41" t="str">
+        <f>COMPLEX(62,38)</f>
+        <v>62+38i</v>
+      </c>
+      <c r="F5" s="41">
+        <f>IMABS(E5)</f>
+        <v>72.718635850791372</v>
+      </c>
+      <c r="G5" s="41">
+        <v>110</v>
+      </c>
+      <c r="H5" s="51">
+        <f>(F5/SQRT(3)/G5)*1000</f>
+        <v>381.67385439597064</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="41">
+        <v>680</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="103"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="41" t="str">
+        <f>COMPLEX(27,19)</f>
+        <v>27+19i</v>
+      </c>
+      <c r="F6" s="41">
+        <f>IMABS(E6)</f>
+        <v>33.015148038438355</v>
+      </c>
+      <c r="G6" s="41">
+        <v>110</v>
+      </c>
+      <c r="H6" s="41">
+        <f>(F6/SQRT(3)/G6)*1000</f>
+        <v>173.28458733934301</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="41">
+        <v>450</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="106"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
+    </row>
+    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="106"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="41" t="str">
+        <f>E5</f>
+        <v>62+38i</v>
+      </c>
+      <c r="F8" s="41">
+        <f>IMABS(E8)</f>
+        <v>72.718635850791372</v>
+      </c>
+      <c r="G8" s="41">
+        <v>110</v>
+      </c>
+      <c r="H8" s="51">
+        <f>(F8/SQRT(3)/G8)*1000</f>
+        <v>381.67385439597064</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="41">
+        <v>610</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="106"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="41" t="str">
+        <f>COMPLEX(35,19)</f>
+        <v>35+19i</v>
+      </c>
+      <c r="F9" s="41">
+        <f>IMABS(E9)</f>
+        <v>39.824615503479755</v>
+      </c>
+      <c r="G9" s="41">
+        <v>110</v>
+      </c>
+      <c r="H9" s="51">
+        <f>(F9/SQRT(3)/G9)*1000</f>
+        <v>209.02502255733981</v>
+      </c>
+      <c r="I9" s="41" t="str">
+        <f>I6</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="J9" s="41">
+        <v>450</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="106"/>
+      <c r="C10" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="53" t="str">
+        <f>'Таблиця 1-4'!D6</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E10" s="53" t="str">
+        <f>Fрозр!F7</f>
+        <v>35+19i</v>
+      </c>
+      <c r="F10" s="51">
+        <f t="shared" ref="F10" si="0">IMABS(E10)</f>
+        <v>39.824615503479755</v>
+      </c>
+      <c r="G10" s="41">
+        <v>110</v>
+      </c>
+      <c r="H10" s="53">
+        <f>(F10/SQRT(3)/G10)*1000</f>
+        <v>209.02502255733981</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="53">
+        <v>450</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="106"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="53" t="str">
+        <f>'Таблиця 1-4'!D7</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="E11" s="53" t="str">
+        <f>Fрозр!F8</f>
+        <v>62+32.8i</v>
+      </c>
+      <c r="F11" s="51">
+        <f>IMABS(E11)</f>
+        <v>70.141571125830936</v>
+      </c>
+      <c r="G11" s="41">
+        <v>110</v>
+      </c>
+      <c r="H11" s="53">
+        <f>(F11/SQRT(3)/G11)*1000</f>
+        <v>368.14777246256159</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="53">
+        <v>450</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+    </row>
+    <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="103"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="41" t="str">
+        <f>COMPLEX(62,32.5)</f>
+        <v>62+32.5i</v>
+      </c>
+      <c r="F13" s="41">
+        <f>IMABS(E13)</f>
+        <v>70.001785691509326</v>
+      </c>
+      <c r="G13" s="41">
+        <v>110</v>
+      </c>
+      <c r="H13" s="51">
+        <f>(F13/SQRT(3)/G13)*1000</f>
+        <v>367.41408920679464</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="41">
+        <v>610</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="103"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="41" t="str">
+        <f>COMPLEX(27,15.5)</f>
+        <v>27+15.5i</v>
+      </c>
+      <c r="F14" s="41">
+        <f>IMABS(E14)</f>
+        <v>31.132780152116194</v>
+      </c>
+      <c r="G14" s="41">
+        <v>110</v>
+      </c>
+      <c r="H14" s="41">
+        <f>(F14/SQRT(3)/G14)*1000</f>
+        <v>163.40471819496113</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="41">
+        <v>450</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="106"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="102"/>
+    </row>
+    <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="106"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="41" t="str">
+        <f>E13</f>
+        <v>62+32.5i</v>
+      </c>
+      <c r="F16" s="41">
+        <f>IMABS(E16)</f>
+        <v>70.001785691509326</v>
+      </c>
+      <c r="G16" s="41">
+        <v>110</v>
+      </c>
+      <c r="H16" s="51">
+        <f>(F16/SQRT(3)/G16)*1000</f>
+        <v>367.41408920679464</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="41">
+        <v>680</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="106"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="41" t="str">
+        <f>COMPLEX(35,17)</f>
+        <v>35+17i</v>
+      </c>
+      <c r="F17" s="41">
+        <f>IMABS(E17)</f>
+        <v>38.910152916687437</v>
+      </c>
+      <c r="G17" s="41">
+        <v>110</v>
+      </c>
+      <c r="H17" s="51">
+        <f t="shared" ref="H17:H22" si="1">(F17/SQRT(3)/G17)*1000</f>
+        <v>204.22533873326358</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="41">
+        <v>450</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="106"/>
+      <c r="C18" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="52" t="str">
+        <f>Fрозр!E12</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="E18" s="52" t="str">
+        <f>Fрозр!F12</f>
+        <v>67+32.5i</v>
+      </c>
+      <c r="F18" s="52">
+        <f>Fрозр!G12</f>
+        <v>74.47</v>
+      </c>
+      <c r="G18" s="41">
+        <v>110</v>
+      </c>
+      <c r="H18" s="51">
+        <f t="shared" si="1"/>
+        <v>390.86613224137665</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="52">
+        <v>680</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="106"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="52" t="str">
+        <f>Fрозр!E13</f>
+        <v>Г-2</v>
+      </c>
+      <c r="E19" s="52" t="str">
+        <f>Fрозр!F13</f>
+        <v>32+15.5i</v>
+      </c>
+      <c r="F19" s="52">
+        <f>Fрозр!G13</f>
+        <v>35.56</v>
+      </c>
+      <c r="G19" s="41">
+        <v>110</v>
+      </c>
+      <c r="H19" s="51">
+        <f t="shared" si="1"/>
+        <v>186.64159611257361</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="52">
+        <v>375</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="106"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="52" t="str">
+        <f>Fрозр!E14</f>
+        <v>Е-2</v>
+      </c>
+      <c r="E20" s="52" t="str">
+        <f>Fрозр!F14</f>
+        <v>35+17i</v>
+      </c>
+      <c r="F20" s="52">
+        <f>Fрозр!G14</f>
+        <v>38.909999999999997</v>
+      </c>
+      <c r="G20" s="52">
+        <f>Fрозр!H14</f>
+        <v>110</v>
+      </c>
+      <c r="H20" s="51">
+        <f t="shared" si="1"/>
+        <v>204.22453612880309</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="52">
+        <v>450</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="93"/>
+      <c r="D21" s="52" t="str">
+        <f>'Таблиця 1-4'!D14</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E21" s="52" t="str">
+        <f>Fрозр!F15</f>
+        <v>166.15+116.7i</v>
+      </c>
+      <c r="F21" s="52">
+        <f>Fрозр!G15</f>
+        <v>203.04</v>
+      </c>
+      <c r="G21" s="52">
+        <f>Fрозр!H15</f>
+        <v>220</v>
+      </c>
+      <c r="H21" s="51">
+        <f>(F21/SQRT(3)/G21)*1000</f>
+        <v>532.84181207391646</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="52">
+        <v>825</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="64"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="52" t="str">
+        <f>'Таблиця 1-4'!D15</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E22" s="52" t="str">
+        <f>Fрозр!F16</f>
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="F22" s="52">
+        <f>Fрозр!G16</f>
+        <v>179.2</v>
+      </c>
+      <c r="G22" s="52">
+        <f>Fрозр!H16</f>
+        <v>220</v>
+      </c>
+      <c r="H22" s="51">
+        <f t="shared" si="1"/>
+        <v>470.27803744900427</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J22" s="52">
+        <v>680</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="94"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="52" t="str">
+        <f>'Таблиця 1-4'!D16</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E23" s="52" t="str">
+        <f>Fрозр!F17</f>
+        <v>20+13i</v>
+      </c>
+      <c r="F23" s="52">
+        <f>Fрозр!G17</f>
+        <v>23.85</v>
+      </c>
+      <c r="G23" s="52">
+        <f>Fрозр!H17</f>
+        <v>220</v>
+      </c>
+      <c r="H23" s="51">
+        <f>(F23/SQRT(3)/G23)*1000</f>
+        <v>62.590017818966253</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="52">
+        <v>610</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
+++ b/ЕСіМ2/Сіденко_М_О_28_03_2021.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Табл1-1  1-2" sheetId="1" r:id="rId1"/>
     <sheet name="Вар1. Длинна" sheetId="2" r:id="rId2"/>
     <sheet name="Вар2. Длинна" sheetId="5" r:id="rId3"/>
-    <sheet name="мережа зовнішньго електр." sheetId="7" r:id="rId4"/>
-    <sheet name="Таблиця 1-3" sheetId="3" r:id="rId5"/>
-    <sheet name="мех міцн" sheetId="9" r:id="rId6"/>
-    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId7"/>
-    <sheet name="Fрозр" sheetId="8" r:id="rId8"/>
-    <sheet name="нагрів" sheetId="10" r:id="rId9"/>
-    <sheet name="Потокорозподіл" sheetId="4" r:id="rId10"/>
+    <sheet name="Потокорозподіл" sheetId="4" r:id="rId4"/>
+    <sheet name="мережа зовнішньго електр." sheetId="7" r:id="rId5"/>
+    <sheet name="Таблиця 1-3" sheetId="3" r:id="rId6"/>
+    <sheet name="мех міцн" sheetId="9" r:id="rId7"/>
+    <sheet name="Таблиця 1-4" sheetId="6" r:id="rId8"/>
+    <sheet name="Fрозр" sheetId="8" r:id="rId9"/>
+    <sheet name="нагрів" sheetId="10" r:id="rId10"/>
     <sheet name="падіння напруги" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="175">
   <si>
     <t>Найм. ПС</t>
   </si>
@@ -480,20 +480,6 @@
     <t>n</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>кВ</t>
-    </r>
-  </si>
-  <si>
     <t>а</t>
   </si>
   <si>
@@ -507,48 +493,6 @@
   </si>
   <si>
     <t>3-Б</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">           , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>кВ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>МВт</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> км</t>
-    </r>
   </si>
   <si>
     <t>3-ВП</t>
@@ -1131,7 +1075,106 @@
     </r>
   </si>
   <si>
-    <t>кОм</t>
+    <t>До точки А(ВП)</t>
+  </si>
+  <si>
+    <t>До точки Б</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">о </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кОм</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>о</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Ом</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> гол, км</t>
+    </r>
+  </si>
+  <si>
+    <t>P гол, Мвт</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Up, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>кВ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U ном , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>кВ</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1140,9 +1183,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1335,20 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -1940,7 +1997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2089,6 +2146,28 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2107,6 +2186,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2161,12 +2243,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,25 +2285,43 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2227,52 +2345,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2283,55 +2391,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2881,590 +2944,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11266" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s11266"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3078" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3078"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3077" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3077"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3076" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3076"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9220" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9220"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>314325</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9219" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9219"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9218" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9218"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9217" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9217"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9221" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9221"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15361"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15362"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4119,29 +3598,86 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11266" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11266"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19458" name="Object 2" hidden="1">
+            <xdr:cNvPr id="3078" name="Object 6" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s19458"/>
+                  <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4176,23 +3712,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19457" name="Object 1" hidden="1">
+            <xdr:cNvPr id="3077" name="Object 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s19457"/>
+                  <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4216,6 +3752,426 @@
                 </a14:hiddenFill>
               </a:ext>
             </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3076" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>590550</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>542925</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9219" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9219"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9218" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4534,7 +4490,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4552,14 +4508,14 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="62" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4575,7 +4531,7 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="2"/>
       <c r="M3" s="1"/>
     </row>
@@ -4782,7 +4738,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4812,7 +4768,7 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -5190,542 +5146,671 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R35"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28:O29"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="15">
-        <f>J5+P5</f>
-        <v>62</v>
-      </c>
-      <c r="R2" s="15">
-        <f>K5+Q5</f>
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3">
-        <f>K10+N10</f>
-        <v>62</v>
-      </c>
-      <c r="R3">
-        <f>L10+O10</f>
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="str">
-        <f>'Вар1. Длинна'!G5</f>
-        <v>ВП-В</v>
-      </c>
-      <c r="D5">
-        <f>'Вар1. Длинна'!H5</f>
-        <v>11.8</v>
-      </c>
-      <c r="E5" s="14">
-        <f>J5</f>
-        <v>26.968</v>
-      </c>
-      <c r="F5" s="14">
-        <f>K5</f>
-        <v>14.375</v>
-      </c>
-      <c r="J5" s="14">
-        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
-        <v>26.968</v>
-      </c>
-      <c r="K5" s="14">
-        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
-        <v>14.375</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="14">
-        <f>J5-K10</f>
-        <v>-8.032</v>
-      </c>
-      <c r="N5" s="14">
-        <f>K5-L10</f>
-        <v>-4.625</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="14">
-        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>35.031999999999996</v>
-      </c>
-      <c r="Q5" s="14">
-        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
-        <v>18.425000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" t="str">
-        <f>'Вар1. Длинна'!G6</f>
+      <c r="D2" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="102"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="111"/>
+    </row>
+    <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
+    </row>
+    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="108"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="41" t="str">
+        <f>COMPLEX(62,38)</f>
+        <v>62+38i</v>
+      </c>
+      <c r="F5" s="41">
+        <f>IMABS(E5)</f>
+        <v>72.718635850791372</v>
+      </c>
+      <c r="G5" s="41">
+        <v>110</v>
+      </c>
+      <c r="H5" s="51">
+        <f>(F5/SQRT(3)/G5)*1000</f>
+        <v>381.67385439597064</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="41">
+        <v>680</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="108"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="41" t="str">
+        <f>COMPLEX(27,19)</f>
+        <v>27+19i</v>
+      </c>
+      <c r="F6" s="41">
+        <f>IMABS(E6)</f>
+        <v>33.015148038438355</v>
+      </c>
+      <c r="G6" s="41">
+        <v>110</v>
+      </c>
+      <c r="H6" s="41">
+        <f>(F6/SQRT(3)/G6)*1000</f>
+        <v>173.28458733934301</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="41">
+        <v>450</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="109"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
+    </row>
+    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="109"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="41" t="str">
+        <f>E5</f>
+        <v>62+38i</v>
+      </c>
+      <c r="F8" s="41">
+        <f>IMABS(E8)</f>
+        <v>72.718635850791372</v>
+      </c>
+      <c r="G8" s="41">
+        <v>110</v>
+      </c>
+      <c r="H8" s="51">
+        <f>(F8/SQRT(3)/G8)*1000</f>
+        <v>381.67385439597064</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="41">
+        <v>610</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="109"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="41" t="str">
+        <f>COMPLEX(35,19)</f>
+        <v>35+19i</v>
+      </c>
+      <c r="F9" s="41">
+        <f>IMABS(E9)</f>
+        <v>39.824615503479755</v>
+      </c>
+      <c r="G9" s="41">
+        <v>110</v>
+      </c>
+      <c r="H9" s="51">
+        <f>(F9/SQRT(3)/G9)*1000</f>
+        <v>209.02502255733981</v>
+      </c>
+      <c r="I9" s="41" t="str">
+        <f>I6</f>
+        <v>АС-150/34</v>
+      </c>
+      <c r="J9" s="41">
+        <v>450</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="109"/>
+      <c r="C10" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="53" t="str">
+        <f>'Таблиця 1-4'!D6</f>
+        <v>В-Д</v>
+      </c>
+      <c r="E10" s="53" t="str">
+        <f>Fрозр!F7</f>
+        <v>35+19i</v>
+      </c>
+      <c r="F10" s="51">
+        <f t="shared" ref="F10" si="0">IMABS(E10)</f>
+        <v>39.824615503479755</v>
+      </c>
+      <c r="G10" s="41">
+        <v>110</v>
+      </c>
+      <c r="H10" s="53">
+        <f>(F10/SQRT(3)/G10)*1000</f>
+        <v>209.02502255733981</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="53">
+        <v>450</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="109"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="53" t="str">
+        <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
       </c>
-      <c r="D6">
-        <f>'Вар1. Длинна'!H6</f>
-        <v>7.8</v>
-      </c>
-      <c r="E6" s="14">
-        <f>P5</f>
-        <v>35.031999999999996</v>
-      </c>
-      <c r="F6" s="14">
-        <f>Q5</f>
-        <v>18.425000000000001</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" t="str">
-        <f>'Вар1. Длинна'!G7</f>
-        <v>В-Д</v>
-      </c>
-      <c r="D7">
-        <f>'Вар1. Длинна'!H7</f>
-        <v>5.6</v>
-      </c>
-      <c r="E7" s="14">
-        <f>--M5</f>
-        <v>-8.032</v>
-      </c>
-      <c r="F7" s="14">
-        <f>--N5</f>
-        <v>-4.625</v>
-      </c>
-      <c r="J7">
-        <f>D5</f>
-        <v>11.8</v>
-      </c>
-      <c r="M7">
-        <f>D7</f>
-        <v>5.6</v>
-      </c>
-      <c r="P7">
-        <f>D6</f>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="str">
-        <f>'Вар1. Длинна'!G29</f>
-        <v>В-Д</v>
-      </c>
-      <c r="D8">
-        <f>'Вар1. Длинна'!H29</f>
-        <v>5.6</v>
-      </c>
-      <c r="E8">
-        <f>35</f>
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <f>19</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="str">
-        <f>'Вар1. Длинна'!G30</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="D9" s="4">
-        <f>'Вар1. Длинна'!H30</f>
-        <v>7.8</v>
-      </c>
-      <c r="E9" s="4">
-        <f>62</f>
-        <v>62</v>
-      </c>
-      <c r="F9" s="4">
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="K10">
-        <f>E8</f>
-        <v>35</v>
-      </c>
-      <c r="L10">
-        <f>19</f>
-        <v>19</v>
-      </c>
-      <c r="N10">
-        <f>27</f>
-        <v>27</v>
-      </c>
-      <c r="O10">
-        <f>13.8</f>
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="str">
-        <f>'Таблиця 1-3'!I4</f>
-        <v>а)</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f>'Вар2. Длинна'!F5</f>
-        <v>ВП-Г</v>
-      </c>
-      <c r="D11" s="3">
-        <f>'Вар2. Длинна'!G5</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E11" s="14">
-        <f>J15</f>
-        <v>34.843000000000004</v>
-      </c>
-      <c r="F11" s="14">
-        <f>K15</f>
-        <v>16.891999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="str">
-        <f>'Вар2. Длинна'!F6</f>
-        <v>ВП-Е</v>
-      </c>
-      <c r="D12" s="3">
-        <f>'Вар2. Длинна'!G6</f>
-        <v>11.9</v>
-      </c>
-      <c r="E12" s="14">
-        <f>P15</f>
-        <v>32.156999999999996</v>
-      </c>
-      <c r="F12" s="14">
-        <f>Q15</f>
-        <v>15.608000000000001</v>
-      </c>
-      <c r="P12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="15">
-        <f>J15+P15</f>
-        <v>67</v>
-      </c>
-      <c r="R12">
-        <f>K15+Q15</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="str">
-        <f>'Вар2. Длинна'!F7</f>
-        <v>Е-Г</v>
-      </c>
-      <c r="D13" s="3">
-        <f>'Вар2. Длинна'!G7</f>
-        <v>14.5</v>
-      </c>
-      <c r="E13" s="14">
-        <f>-M15</f>
-        <v>2.8430000000000035</v>
-      </c>
-      <c r="F13" s="14">
-        <f>-N15</f>
-        <v>1.3919999999999995</v>
-      </c>
-      <c r="Q13">
-        <f>K20+N20</f>
-        <v>67</v>
-      </c>
-      <c r="R13">
-        <f>L20+O20</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f>'Таблиця 1-3'!L4</f>
-        <v>г)</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f>'Вар2. Длинна'!X23</f>
+      <c r="E11" s="53" t="str">
+        <f>Fрозр!F8</f>
+        <v>62+32.8i</v>
+      </c>
+      <c r="F11" s="51">
+        <f>IMABS(E11)</f>
+        <v>70.141571125830936</v>
+      </c>
+      <c r="G11" s="41">
+        <v>110</v>
+      </c>
+      <c r="H11" s="53">
+        <f>(F11/SQRT(3)/G11)*1000</f>
+        <v>368.14777246256159</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="53">
+        <v>450</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
+    </row>
+    <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="108"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="41" t="str">
+        <f>COMPLEX(62,32.5)</f>
+        <v>62+32.5i</v>
+      </c>
+      <c r="F13" s="41">
+        <f>IMABS(E13)</f>
+        <v>70.001785691509326</v>
+      </c>
+      <c r="G13" s="41">
+        <v>110</v>
+      </c>
+      <c r="H13" s="51">
+        <f>(F13/SQRT(3)/G13)*1000</f>
+        <v>367.41408920679464</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="41">
+        <v>610</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="108"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="41" t="str">
+        <f>COMPLEX(27,15.5)</f>
+        <v>27+15.5i</v>
+      </c>
+      <c r="F14" s="41">
+        <f>IMABS(E14)</f>
+        <v>31.132780152116194</v>
+      </c>
+      <c r="G14" s="41">
+        <v>110</v>
+      </c>
+      <c r="H14" s="41">
+        <f>(F14/SQRT(3)/G14)*1000</f>
+        <v>163.40471819496113</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="41">
+        <v>450</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="109"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+    </row>
+    <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="109"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="41" t="str">
+        <f>E13</f>
+        <v>62+32.5i</v>
+      </c>
+      <c r="F16" s="41">
+        <f>IMABS(E16)</f>
+        <v>70.001785691509326</v>
+      </c>
+      <c r="G16" s="41">
+        <v>110</v>
+      </c>
+      <c r="H16" s="51">
+        <f>(F16/SQRT(3)/G16)*1000</f>
+        <v>367.41408920679464</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="41">
+        <v>680</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="109"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="41" t="str">
+        <f>COMPLEX(35,17)</f>
+        <v>35+17i</v>
+      </c>
+      <c r="F17" s="41">
+        <f>IMABS(E17)</f>
+        <v>38.910152916687437</v>
+      </c>
+      <c r="G17" s="41">
+        <v>110</v>
+      </c>
+      <c r="H17" s="51">
+        <f t="shared" ref="H17:H22" si="1">(F17/SQRT(3)/G17)*1000</f>
+        <v>204.22533873326358</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="41">
+        <v>450</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="109"/>
+      <c r="C18" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="52" t="str">
+        <f>Fрозр!E12</f>
         <v>ВП-2</v>
       </c>
-      <c r="D14" s="3">
-        <f>'Вар2. Длинна'!Y23</f>
-        <v>5.4</v>
-      </c>
-      <c r="E14" s="4">
-        <f>E15+E16</f>
-        <v>67</v>
-      </c>
-      <c r="F14" s="4">
-        <f>F15+F16</f>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="str">
-        <f>'Вар2. Длинна'!X24</f>
+      <c r="E18" s="52" t="str">
+        <f>Fрозр!F12</f>
+        <v>67+32.5i</v>
+      </c>
+      <c r="F18" s="52">
+        <f>Fрозр!G12</f>
+        <v>74.47</v>
+      </c>
+      <c r="G18" s="41">
+        <v>110</v>
+      </c>
+      <c r="H18" s="51">
+        <f t="shared" si="1"/>
+        <v>390.86613224137665</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="52">
+        <v>680</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="109"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="52" t="str">
+        <f>Fрозр!E13</f>
         <v>Г-2</v>
       </c>
-      <c r="D15" s="3">
-        <f>'Вар2. Длинна'!Y24</f>
-        <v>7.2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>32</v>
-      </c>
-      <c r="F15" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="J15" s="14">
-        <f>ROUND((K20*(M17+P17)+N20*P17)/(J17+M17+P17),3)</f>
-        <v>34.843000000000004</v>
-      </c>
-      <c r="K15" s="14">
-        <f>ROUND((L20*(M17+P17)+O20*P17)/(J17+M17+P17),3)</f>
-        <v>16.891999999999999</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="14">
-        <f>P15-N20</f>
-        <v>-2.8430000000000035</v>
-      </c>
-      <c r="N15" s="14">
-        <f>Q15-O20</f>
-        <v>-1.3919999999999995</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="14">
-        <f>ROUND((K20*J17+N20*(J17+M17))/(J17+M17+P17),3)</f>
-        <v>32.156999999999996</v>
-      </c>
-      <c r="Q15" s="14">
-        <f>ROUND((L20*J17+O20*(J17+M17))/(J17+M17+P17),3)</f>
-        <v>15.608000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="str">
-        <f>'Вар2. Длинна'!X25</f>
+      <c r="E19" s="52" t="str">
+        <f>Fрозр!F13</f>
+        <v>32+15.5i</v>
+      </c>
+      <c r="F19" s="52">
+        <f>Fрозр!G13</f>
+        <v>35.56</v>
+      </c>
+      <c r="G19" s="41">
+        <v>110</v>
+      </c>
+      <c r="H19" s="51">
+        <f t="shared" si="1"/>
+        <v>186.64159611257361</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="52">
+        <v>375</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="109"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="52" t="str">
+        <f>Fрозр!E14</f>
         <v>Е-2</v>
       </c>
-      <c r="D16" s="3">
-        <f>'Вар2. Длинна'!Y25</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E16" s="4">
-        <v>35</v>
-      </c>
-      <c r="F16" s="4">
-        <v>17</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J17">
-        <f>D11</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M17">
-        <f>D13</f>
-        <v>14.5</v>
-      </c>
-      <c r="P17">
-        <f>D12</f>
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K20">
-        <f>E15</f>
-        <v>32</v>
-      </c>
-      <c r="L20">
-        <f>F15</f>
-        <v>15.5</v>
-      </c>
-      <c r="N20">
-        <f>E16</f>
-        <v>35</v>
-      </c>
-      <c r="O20">
-        <f>F16</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="str">
+      <c r="E20" s="52" t="str">
+        <f>Fрозр!F14</f>
+        <v>35+17i</v>
+      </c>
+      <c r="F20" s="52">
+        <f>Fрозр!G14</f>
+        <v>38.909999999999997</v>
+      </c>
+      <c r="G20" s="52">
+        <f>Fрозр!H14</f>
+        <v>110</v>
+      </c>
+      <c r="H20" s="51">
+        <f t="shared" si="1"/>
+        <v>204.22453612880309</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="52">
+        <v>450</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="52" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
       </c>
-      <c r="E25">
-        <f>'Таблиця 1-4'!E14</f>
-        <v>14.8</v>
-      </c>
-      <c r="F25">
-        <f>166.15</f>
-        <v>166.15</v>
-      </c>
-      <c r="G25">
-        <f>116.7</f>
-        <v>116.7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" t="str">
+      <c r="E21" s="52" t="str">
+        <f>Fрозр!F15</f>
+        <v>166.15+116.7i</v>
+      </c>
+      <c r="F21" s="52">
+        <f>Fрозр!G15</f>
+        <v>203.04</v>
+      </c>
+      <c r="G21" s="52">
+        <f>Fрозр!H15</f>
+        <v>220</v>
+      </c>
+      <c r="H21" s="51">
+        <f>(F21/SQRT(3)/G21)*1000</f>
+        <v>532.84181207391646</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="52">
+        <v>825</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="73"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="52" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
       </c>
-      <c r="E26">
-        <f>'Таблиця 1-4'!E15</f>
-        <v>22.6</v>
-      </c>
-      <c r="F26">
-        <f>F25-'Табл1-1  1-2'!B5</f>
-        <v>146.15</v>
-      </c>
-      <c r="G26">
-        <f>G25-'Табл1-1  1-2'!C5</f>
-        <v>103.7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D27" t="str">
+      <c r="E22" s="52" t="str">
+        <f>Fрозр!F16</f>
+        <v>146.15+103.7i</v>
+      </c>
+      <c r="F22" s="52">
+        <f>Fрозр!G16</f>
+        <v>179.2</v>
+      </c>
+      <c r="G22" s="52">
+        <f>Fрозр!H16</f>
+        <v>220</v>
+      </c>
+      <c r="H22" s="51">
+        <f t="shared" si="1"/>
+        <v>470.27803744900427</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="52">
+        <v>680</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="115"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="52" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
       </c>
-      <c r="E27">
-        <f>'Таблиця 1-4'!E16</f>
-        <v>10.8</v>
-      </c>
-      <c r="F27">
-        <f>'Табл1-1  1-2'!B5</f>
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <f>'Табл1-1  1-2'!C5</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>165</v>
-      </c>
-      <c r="E29">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31">
-        <f>SQRT(D29^2+E29^2)</f>
-        <v>188.09330131612873</v>
-      </c>
-    </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33">
-        <f>0.05*F31</f>
-        <v>9.4046650658064372</v>
-      </c>
-    </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34">
-        <f>0.15*F31</f>
-        <v>28.213995197419308</v>
-      </c>
-      <c r="O34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="O35" s="10"/>
-      <c r="P35" s="4"/>
+      <c r="E23" s="52" t="str">
+        <f>Fрозр!F17</f>
+        <v>20+13i</v>
+      </c>
+      <c r="F23" s="52">
+        <f>Fрозр!G17</f>
+        <v>23.85</v>
+      </c>
+      <c r="G23" s="52">
+        <f>Fрозр!H17</f>
+        <v>220</v>
+      </c>
+      <c r="H23" s="51">
+        <f>(F23/SQRT(3)/G23)*1000</f>
+        <v>62.590017818966253</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="52">
+        <v>610</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5733,27 +5818,52 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -5761,11 +5871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,830 +5890,830 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="120" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="119" t="s">
+      <c r="C3" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="120" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="120" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="120" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" s="121" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="121" t="s">
-        <v>170</v>
+      <c r="L3" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="120"/>
-      <c r="D4" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="119" t="s">
-        <v>169</v>
-      </c>
-      <c r="M4" s="119" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="120" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
+      <c r="D5" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
     </row>
     <row r="6" spans="3:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="129"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="130"/>
-      <c r="E6" s="119" t="str">
+      <c r="E6" s="55" t="str">
         <f>нагрів!D5</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F6" s="119" t="str">
+      <c r="F6" s="55" t="str">
         <f>нагрів!I5</f>
         <v>АС-300/67</v>
       </c>
-      <c r="G6" s="124">
+      <c r="G6" s="58">
         <f>'Таблиця 1-4'!E4</f>
         <v>7.8</v>
       </c>
-      <c r="H6" s="127">
+      <c r="H6" s="61">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I6" s="127">
+      <c r="I6" s="61">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J6" s="126">
+      <c r="J6" s="60">
         <f>H6*G6</f>
         <v>0.26519999999999999</v>
       </c>
-      <c r="K6" s="126">
+      <c r="K6" s="60">
         <f>I6*G6</f>
         <v>3.1590000000000003</v>
       </c>
-      <c r="L6" s="119" t="str">
+      <c r="L6" s="55" t="str">
         <f>нагрів!E5</f>
         <v>62+38i</v>
       </c>
-      <c r="M6" s="126">
+      <c r="M6" s="60">
         <f>(IMREAL(L6)*J6+IMAGINARY(L6)*K6)/$N$6</f>
         <v>1.2407672727272729</v>
       </c>
-      <c r="N6" s="115">
+      <c r="N6" s="54">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="3:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="129"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="130"/>
-      <c r="E7" s="119" t="str">
+      <c r="E7" s="55" t="str">
         <f>нагрів!D6</f>
         <v>Д-В</v>
       </c>
-      <c r="F7" s="119" t="str">
+      <c r="F7" s="55" t="str">
         <f>нагрів!I6</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="59">
         <f>'Таблиця 1-4'!E5</f>
         <v>5.6</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="61">
         <v>0.19800000000000001</v>
       </c>
-      <c r="I7" s="126">
+      <c r="I7" s="60">
         <v>0.42</v>
       </c>
-      <c r="J7" s="126">
+      <c r="J7" s="60">
         <f>H7*G7</f>
         <v>1.1088</v>
       </c>
-      <c r="K7" s="126">
+      <c r="K7" s="60">
         <f>I7*G7</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="L7" s="119" t="str">
+      <c r="L7" s="55" t="str">
         <f>нагрів!E6</f>
         <v>27+19i</v>
       </c>
-      <c r="M7" s="126">
+      <c r="M7" s="60">
         <f>(IMREAL(L7)*J7+IMAGINARY(L7)*K7)/$N$6</f>
         <v>0.67841454545454538</v>
       </c>
-      <c r="N7" s="115"/>
+      <c r="N7" s="54"/>
     </row>
     <row r="8" spans="3:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="129"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="130"/>
       <c r="E8" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="126">
+        <v>159</v>
+      </c>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="60">
         <f>M6+M7</f>
         <v>1.9191818181818183</v>
       </c>
-      <c r="P8" s="116" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="118"/>
+      <c r="P8" s="133" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="134"/>
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="134"/>
+      <c r="Y8" s="135"/>
       <c r="Z8" s="33"/>
     </row>
     <row r="9" spans="3:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="129"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="130"/>
       <c r="E9" s="123" t="str">
         <f>нагрів!D7</f>
         <v>відключення ВП-Д</v>
       </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="132"/>
-      <c r="P9" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="118"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125"/>
+      <c r="P9" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q9" s="134"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="134"/>
+      <c r="X9" s="134"/>
+      <c r="Y9" s="135"/>
       <c r="Z9" s="33"/>
     </row>
     <row r="10" spans="3:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="129"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="130"/>
-      <c r="E10" s="119" t="str">
+      <c r="E10" s="55" t="str">
         <f>нагрів!D8</f>
         <v>ВП-В</v>
       </c>
-      <c r="F10" s="119" t="str">
+      <c r="F10" s="55" t="str">
         <f>нагрів!I8</f>
         <v>АС-240/56</v>
       </c>
-      <c r="G10" s="119">
+      <c r="G10" s="55">
         <f>'Таблиця 1-4'!E3</f>
         <v>11.8</v>
       </c>
-      <c r="H10" s="127">
+      <c r="H10" s="61">
         <v>0.12</v>
       </c>
-      <c r="I10" s="127">
+      <c r="I10" s="61">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J10" s="126">
+      <c r="J10" s="60">
         <f>H10*G10</f>
         <v>1.4159999999999999</v>
       </c>
-      <c r="K10" s="126">
+      <c r="K10" s="60">
         <f>I10*G10</f>
         <v>4.7790000000000008</v>
       </c>
-      <c r="L10" s="119" t="str">
+      <c r="L10" s="55" t="str">
         <f>нагрів!E10</f>
         <v>35+19i</v>
       </c>
-      <c r="M10" s="126">
+      <c r="M10" s="60">
         <f>(IMREAL(L10)*J10+IMAGINARY(L10)*K10)/$N$6</f>
         <v>1.2760090909090911</v>
       </c>
     </row>
     <row r="11" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="129"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="130"/>
-      <c r="E11" s="119" t="str">
+      <c r="E11" s="55" t="str">
         <f>нагрів!D9</f>
         <v>В-Д</v>
       </c>
-      <c r="F11" s="119" t="str">
+      <c r="F11" s="55" t="str">
         <f>нагрів!I9</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G11" s="119">
+      <c r="G11" s="55">
         <f>G7</f>
         <v>5.6</v>
       </c>
-      <c r="H11" s="127">
+      <c r="H11" s="61">
         <v>0.19800000000000001</v>
       </c>
-      <c r="I11" s="126">
+      <c r="I11" s="60">
         <v>0.42</v>
       </c>
-      <c r="J11" s="126">
+      <c r="J11" s="60">
         <f>H11*G11</f>
         <v>1.1088</v>
       </c>
-      <c r="K11" s="126">
+      <c r="K11" s="60">
         <f>I11*G11</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="L11" s="119" t="str">
+      <c r="L11" s="55" t="str">
         <f>нагрів!E11</f>
         <v>62+32.8i</v>
       </c>
-      <c r="M11" s="126">
+      <c r="M11" s="60">
         <f>(IMREAL(L11)*J11+IMAGINARY(L11)*K11)/$N$6</f>
         <v>1.3262836363636361</v>
       </c>
     </row>
     <row r="12" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="129"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="130"/>
       <c r="E12" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="126">
+        <v>160</v>
+      </c>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="60">
         <f>M10+M11</f>
         <v>2.6022927272727272</v>
       </c>
     </row>
     <row r="13" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="129"/>
-      <c r="D13" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="119" t="str">
+      <c r="C13" s="131"/>
+      <c r="D13" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="55" t="str">
         <f>Fрозр!E7</f>
         <v>В-Д</v>
       </c>
-      <c r="F13" s="119" t="str">
+      <c r="F13" s="55" t="str">
         <f>нагрів!I10</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G13" s="119">
+      <c r="G13" s="55">
         <f>Потокорозподіл!D8</f>
         <v>5.6</v>
       </c>
-      <c r="H13" s="127">
+      <c r="H13" s="61">
         <f>H11</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="I13" s="126">
+      <c r="I13" s="60">
         <f>I11</f>
         <v>0.42</v>
       </c>
-      <c r="J13" s="119">
+      <c r="J13" s="55">
         <f>H13*G13</f>
         <v>1.1088</v>
       </c>
-      <c r="K13" s="119">
+      <c r="K13" s="55">
         <f>I13*G13</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="L13" s="119" t="str">
+      <c r="L13" s="55" t="str">
         <f>нагрів!E10</f>
         <v>35+19i</v>
       </c>
-      <c r="M13" s="126">
+      <c r="M13" s="60">
         <f>(IMREAL(L13)*J13+IMAGINARY(L13)*K13)/$N$6</f>
         <v>0.75905454545454543</v>
       </c>
     </row>
     <row r="14" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="119" t="str">
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="55" t="str">
         <f>Fрозр!E8</f>
         <v>ВП-Д</v>
       </c>
-      <c r="F14" s="119" t="str">
+      <c r="F14" s="55" t="str">
         <f>нагрів!I11</f>
         <v>АС-240/56</v>
       </c>
-      <c r="G14" s="119">
+      <c r="G14" s="55">
         <f>Потокорозподіл!D9</f>
         <v>7.8</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="61">
         <f>H10</f>
         <v>0.12</v>
       </c>
-      <c r="I14" s="127">
+      <c r="I14" s="61">
         <f>I10</f>
         <v>0.40500000000000003</v>
       </c>
-      <c r="J14" s="119">
+      <c r="J14" s="55">
         <f>H14*G14</f>
         <v>0.93599999999999994</v>
       </c>
-      <c r="K14" s="119">
+      <c r="K14" s="55">
         <f>I14*G14</f>
         <v>3.1590000000000003</v>
       </c>
-      <c r="L14" s="119" t="str">
+      <c r="L14" s="55" t="str">
         <f>нагрів!E11</f>
         <v>62+32.8i</v>
       </c>
-      <c r="M14" s="126">
+      <c r="M14" s="60">
         <f>(IMREAL(L14)*J14+IMAGINARY(L14)*K14)/$N$6</f>
         <v>1.4695199999999999</v>
       </c>
     </row>
     <row r="15" spans="3:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="123" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="126">
+        <v>161</v>
+      </c>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="60">
         <f>M13+M14</f>
         <v>2.2285745454545456</v>
       </c>
     </row>
     <row r="16" spans="3:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="120" t="s">
-        <v>160</v>
+      <c r="D16" s="129" t="s">
+        <v>156</v>
       </c>
       <c r="E16" s="123" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="132"/>
+        <v>141</v>
+      </c>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="125"/>
     </row>
     <row r="17" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="120"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="130"/>
-      <c r="E17" s="119" t="str">
+      <c r="E17" s="55" t="str">
         <f>нагрів!D13</f>
         <v>ВП-Е</v>
       </c>
-      <c r="F17" s="119" t="str">
+      <c r="F17" s="55" t="str">
         <f>нагрів!I13</f>
         <v>АС-240/56</v>
       </c>
-      <c r="G17" s="119">
+      <c r="G17" s="55">
         <v>7.8</v>
       </c>
-      <c r="H17" s="127">
+      <c r="H17" s="61">
         <f>H10</f>
         <v>0.12</v>
       </c>
-      <c r="I17" s="127">
+      <c r="I17" s="61">
         <f>I10</f>
         <v>0.40500000000000003</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="55">
         <f>H17*G17</f>
         <v>0.93599999999999994</v>
       </c>
-      <c r="K17" s="119">
+      <c r="K17" s="55">
         <f>I17*G17</f>
         <v>3.1590000000000003</v>
       </c>
-      <c r="L17" s="119" t="str">
+      <c r="L17" s="55" t="str">
         <f>нагрів!E13</f>
         <v>62+32.5i</v>
       </c>
-      <c r="M17" s="126">
+      <c r="M17" s="60">
         <f>(IMREAL(L17)*J17+IMAGINARY(L14)*K17)/$N$6</f>
         <v>1.4695199999999999</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="120"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="130"/>
-      <c r="E18" s="119" t="str">
+      <c r="E18" s="55" t="str">
         <f>нагрів!D14</f>
         <v>Е-Г</v>
       </c>
-      <c r="F18" s="119" t="str">
+      <c r="F18" s="55" t="str">
         <f>нагрів!I14</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G18" s="119">
+      <c r="G18" s="55">
         <v>5.6</v>
       </c>
-      <c r="H18" s="127">
+      <c r="H18" s="61">
         <f>H11</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="I18" s="126">
+      <c r="I18" s="60">
         <f>I11</f>
         <v>0.42</v>
       </c>
-      <c r="J18" s="119">
+      <c r="J18" s="55">
         <f>H18*G18</f>
         <v>1.1088</v>
       </c>
-      <c r="K18" s="119">
+      <c r="K18" s="55">
         <f>I18*G18</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="L18" s="119" t="str">
+      <c r="L18" s="55" t="str">
         <f>нагрів!E14</f>
         <v>27+15.5i</v>
       </c>
-      <c r="M18" s="126">
+      <c r="M18" s="60">
         <f>(IMREAL(L18)*J18+IMAGINARY(L15)*K18)/$N$6</f>
         <v>0.27216000000000001</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="120"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="130"/>
       <c r="E19" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="126">
+        <v>162</v>
+      </c>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="60">
         <f>M17+M18</f>
         <v>1.7416799999999999</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="120"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="130"/>
       <c r="E20" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
+        <v>140</v>
+      </c>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="125"/>
     </row>
     <row r="21" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="120"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="130"/>
-      <c r="E21" s="119" t="str">
+      <c r="E21" s="55" t="str">
         <f>нагрів!D16</f>
         <v>ВП-Г</v>
       </c>
-      <c r="F21" s="119" t="str">
+      <c r="F21" s="55" t="str">
         <f>нагрів!I16</f>
         <v>АС-300/67</v>
       </c>
-      <c r="G21" s="119">
+      <c r="G21" s="55">
         <f>11.8</f>
         <v>11.8</v>
       </c>
-      <c r="H21" s="119">
+      <c r="H21" s="55">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I21" s="119">
+      <c r="I21" s="55">
         <v>0.40500000000000003</v>
       </c>
-      <c r="J21" s="125">
+      <c r="J21" s="59">
         <f>H21*G21</f>
         <v>0.40120000000000006</v>
       </c>
-      <c r="K21" s="125">
+      <c r="K21" s="59">
         <f>G21*I21</f>
         <v>4.7790000000000008</v>
       </c>
-      <c r="L21" s="119" t="str">
+      <c r="L21" s="55" t="str">
         <f>нагрів!E16</f>
         <v>62+32.5i</v>
       </c>
-      <c r="M21" s="126">
+      <c r="M21" s="60">
         <f>(IMREAL(L21)*J21+IMAGINARY(L21)*K21)/$N$6</f>
         <v>1.6381081818181822</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="120"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="130"/>
-      <c r="E22" s="119" t="str">
+      <c r="E22" s="55" t="str">
         <f>нагрів!D17</f>
         <v>Г-Е</v>
       </c>
-      <c r="F22" s="119" t="str">
+      <c r="F22" s="55" t="str">
         <f>нагрів!I17</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G22" s="119">
+      <c r="G22" s="55">
         <v>5.6</v>
       </c>
-      <c r="H22" s="119">
+      <c r="H22" s="55">
         <v>0.19800000000000001</v>
       </c>
-      <c r="I22" s="119">
+      <c r="I22" s="55">
         <v>0.42</v>
       </c>
-      <c r="J22" s="125">
+      <c r="J22" s="59">
         <f>H22*G22</f>
         <v>1.1088</v>
       </c>
-      <c r="K22" s="125">
+      <c r="K22" s="59">
         <f>G22*I22</f>
         <v>2.3519999999999999</v>
       </c>
-      <c r="L22" s="119" t="str">
+      <c r="L22" s="55" t="str">
         <f>нагрів!E17</f>
         <v>35+17i</v>
       </c>
-      <c r="M22" s="126">
+      <c r="M22" s="60">
         <f>(IMREAL(L22)*J22+IMAGINARY(L22)*K22)/$N$6</f>
         <v>0.71629090909090909</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="120"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="130"/>
       <c r="E23" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="126">
+        <v>163</v>
+      </c>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="60">
         <f>M21+M22</f>
         <v>2.3543990909090913</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="120"/>
-      <c r="D24" s="120" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="119" t="str">
+      <c r="C24" s="129"/>
+      <c r="D24" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="55" t="str">
         <f>нагрів!D18</f>
         <v>ВП-2</v>
       </c>
-      <c r="F24" s="119" t="str">
+      <c r="F24" s="55" t="str">
         <f>нагрів!I18</f>
         <v>АС-300/67</v>
       </c>
-      <c r="G24" s="119">
+      <c r="G24" s="55">
         <f>'Таблиця 1-4'!E11</f>
         <v>5.4</v>
       </c>
-      <c r="H24" s="119">
+      <c r="H24" s="55">
         <f>H21</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I24" s="119">
+      <c r="I24" s="55">
         <f>I21</f>
         <v>0.40500000000000003</v>
       </c>
-      <c r="J24" s="119">
+      <c r="J24" s="55">
         <f>H24*G24</f>
         <v>0.18360000000000001</v>
       </c>
-      <c r="K24" s="119">
+      <c r="K24" s="55">
         <f>I24*G24</f>
         <v>2.1870000000000003</v>
       </c>
-      <c r="L24" s="119" t="str">
+      <c r="L24" s="55" t="str">
         <f>нагрів!E18</f>
         <v>67+32.5i</v>
       </c>
-      <c r="M24" s="126">
+      <c r="M24" s="60">
         <f>(IMREAL(L24)*J24+IMAGINARY(L24)*K24)/$N$6</f>
         <v>0.75798818181818195</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="119" t="str">
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="55" t="str">
         <f>нагрів!D19</f>
         <v>Г-2</v>
       </c>
-      <c r="F25" s="119" t="str">
+      <c r="F25" s="55" t="str">
         <f>нагрів!I19</f>
         <v>АС-120/27</v>
       </c>
-      <c r="G25" s="119">
+      <c r="G25" s="55">
         <f>'Таблиця 1-4'!E12</f>
         <v>7.2</v>
       </c>
-      <c r="H25" s="119">
+      <c r="H25" s="55">
         <f>0.249</f>
         <v>0.249</v>
       </c>
-      <c r="I25" s="119">
+      <c r="I25" s="55">
         <v>0.42699999999999999</v>
       </c>
-      <c r="J25" s="119">
+      <c r="J25" s="55">
         <f>H25*G25</f>
         <v>1.7927999999999999</v>
       </c>
-      <c r="K25" s="119">
+      <c r="K25" s="55">
         <f>I25*G25</f>
         <v>3.0743999999999998</v>
       </c>
-      <c r="L25" s="119" t="str">
+      <c r="L25" s="55" t="str">
         <f>нагрів!E19</f>
         <v>32+15.5i</v>
       </c>
-      <c r="M25" s="126">
+      <c r="M25" s="60">
         <f t="shared" ref="M25:M26" si="0">(IMREAL(L25)*J25+IMAGINARY(L25)*K25)/$N$6</f>
         <v>0.9547527272727272</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="119" t="str">
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="55" t="str">
         <f>нагрів!D20</f>
         <v>Е-2</v>
       </c>
-      <c r="F26" s="119" t="str">
+      <c r="F26" s="55" t="str">
         <f>нагрів!I20</f>
         <v>АС-150/34</v>
       </c>
-      <c r="G26" s="119">
+      <c r="G26" s="55">
         <f>'Таблиця 1-4'!E13</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="H26" s="127">
+      <c r="H26" s="61">
         <f>H18</f>
         <v>0.19800000000000001</v>
       </c>
-      <c r="I26" s="126">
+      <c r="I26" s="60">
         <f>I18</f>
         <v>0.42</v>
       </c>
-      <c r="J26" s="119">
+      <c r="J26" s="55">
         <f>H26*G26</f>
         <v>1.6434000000000002</v>
       </c>
-      <c r="K26" s="119">
+      <c r="K26" s="55">
         <f>I26*G26</f>
         <v>3.4860000000000002</v>
       </c>
-      <c r="L26" s="119" t="str">
+      <c r="L26" s="55" t="str">
         <f>нагрів!E20</f>
         <v>35+17i</v>
       </c>
-      <c r="M26" s="126">
+      <c r="M26" s="60">
         <f t="shared" si="0"/>
         <v>1.0616454545454546</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="126">
+        <v>163</v>
+      </c>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="60">
         <f>M26</f>
         <v>1.0616454545454546</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="126">
+        <v>162</v>
+      </c>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="60">
         <f>M24+M25</f>
         <v>1.7127409090909091</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="120" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="119" t="str">
+      <c r="C29" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="126"/>
+      <c r="E29" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="55" t="str">
         <f>нагрів!I21</f>
         <v>АС-400/51</v>
       </c>
-      <c r="G29" s="119">
+      <c r="G29" s="55">
         <v>14.8</v>
       </c>
-      <c r="H29" s="119">
+      <c r="H29" s="55">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I29" s="119">
+      <c r="I29" s="55">
         <v>0.42</v>
       </c>
-      <c r="J29" s="126">
+      <c r="J29" s="60">
         <f>H29*G29</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="K29" s="126">
+      <c r="K29" s="60">
         <f>I29*G29</f>
         <v>6.2160000000000002</v>
       </c>
-      <c r="L29" s="119" t="str">
+      <c r="L29" s="55" t="str">
         <f>нагрів!E21</f>
         <v>166.15+116.7i</v>
       </c>
-      <c r="M29" s="119">
+      <c r="M29" s="55">
         <f>(IMREAL(L29)*J29+IMAGINARY(L29)*K29)/$N$29</f>
         <v>4.1356077272727276</v>
       </c>
@@ -6612,103 +6722,146 @@
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="120"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="119" t="str">
+      <c r="C30" s="129"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="55" t="str">
         <f>нагрів!I22</f>
         <v>АС-300/67</v>
       </c>
-      <c r="G30" s="119">
+      <c r="G30" s="55">
         <v>22.6</v>
       </c>
-      <c r="H30" s="119">
+      <c r="H30" s="55">
         <f>0.034</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I30" s="119">
+      <c r="I30" s="55">
         <f>0.429</f>
         <v>0.42899999999999999</v>
       </c>
-      <c r="J30" s="126">
+      <c r="J30" s="60">
         <f t="shared" ref="J30:J31" si="1">H30*G30</f>
         <v>0.76840000000000008</v>
       </c>
-      <c r="K30" s="126">
+      <c r="K30" s="60">
         <f t="shared" ref="K30:K31" si="2">I30*G30</f>
         <v>9.6954000000000011</v>
       </c>
-      <c r="L30" s="119" t="str">
+      <c r="L30" s="55" t="str">
         <f>нагрів!E22</f>
         <v>146.15+103.7i</v>
       </c>
-      <c r="M30" s="119">
+      <c r="M30" s="55">
         <f>(IMREAL(L30)*J30+IMAGINARY(L30)*K30)/$N$29</f>
         <v>5.0805210909090919</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="120"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="119" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="119" t="str">
+      <c r="C31" s="129"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="55" t="str">
         <f>нагрів!I23</f>
         <v>АС-240/56</v>
       </c>
-      <c r="G31" s="119">
+      <c r="G31" s="55">
         <v>10.8</v>
       </c>
-      <c r="H31" s="127">
+      <c r="H31" s="61">
         <v>2.4E-2</v>
       </c>
-      <c r="I31" s="127">
+      <c r="I31" s="61">
         <f>0.429</f>
         <v>0.42899999999999999</v>
       </c>
-      <c r="J31" s="126">
+      <c r="J31" s="60">
         <f t="shared" si="1"/>
         <v>0.25920000000000004</v>
       </c>
-      <c r="K31" s="126">
+      <c r="K31" s="60">
         <f t="shared" si="2"/>
         <v>4.6332000000000004</v>
       </c>
-      <c r="L31" s="119" t="str">
+      <c r="L31" s="55" t="str">
         <f>нагрів!E23</f>
         <v>20+13i</v>
       </c>
-      <c r="M31" s="119">
-        <f t="shared" ref="M30:M31" si="3">(IMREAL(L31)*J31+IMAGINARY(L31)*K31)/$N$29</f>
+      <c r="M31" s="55">
+        <f t="shared" ref="M31" si="3">(IMREAL(L31)*J31+IMAGINARY(L31)*K31)/$N$29</f>
         <v>0.29734363636363642</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="122" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="119"/>
-    </row>
-    <row r="35" spans="14:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="136" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="55">
+        <f>M29+M30</f>
+        <v>9.2161288181818186</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="56">
+        <f>M29+M31</f>
+        <v>4.4329513636363638</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="E23:L23"/>
     <mergeCell ref="E27:L27"/>
     <mergeCell ref="E28:L28"/>
@@ -6716,83 +6869,9 @@
     <mergeCell ref="C16:C28"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="19458" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="19458" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="19457" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="19457" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -7648,7 +7727,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P26">
         <f>ROUND(1.1*Q26/10*2,1)</f>
@@ -7807,6 +7886,578 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="15">
+        <f>J5+P5</f>
+        <v>62</v>
+      </c>
+      <c r="R2" s="15">
+        <f>K5+Q5</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3">
+        <f>K10+N10</f>
+        <v>62</v>
+      </c>
+      <c r="R3">
+        <f>L10+O10</f>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Вар1. Длинна'!G5</f>
+        <v>ВП-В</v>
+      </c>
+      <c r="D5">
+        <f>'Вар1. Длинна'!H5</f>
+        <v>11.8</v>
+      </c>
+      <c r="E5" s="14">
+        <f>J5</f>
+        <v>26.968</v>
+      </c>
+      <c r="F5" s="14">
+        <f>K5</f>
+        <v>14.375</v>
+      </c>
+      <c r="J5" s="14">
+        <f>ROUND((K10*(M7+P7)+N10*P7)/(J7+M7+P7),3)</f>
+        <v>26.968</v>
+      </c>
+      <c r="K5" s="14">
+        <f>ROUND((L10*(M7+P7)+O10*P7)/(J7+M7+P7),3)</f>
+        <v>14.375</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="14">
+        <f>J5-K10</f>
+        <v>-8.032</v>
+      </c>
+      <c r="N5" s="14">
+        <f>K5-L10</f>
+        <v>-4.625</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="14">
+        <f>ROUND((K10*J7+N10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>ROUND((L10*J7+O10*(J7+M7))/(J7+M7+P7),3)</f>
+        <v>18.425000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>'Вар1. Длинна'!G6</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D6">
+        <f>'Вар1. Длинна'!H6</f>
+        <v>7.8</v>
+      </c>
+      <c r="E6" s="14">
+        <f>P5</f>
+        <v>35.031999999999996</v>
+      </c>
+      <c r="F6" s="14">
+        <f>Q5</f>
+        <v>18.425000000000001</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>'Вар1. Длинна'!G7</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D7">
+        <f>'Вар1. Длинна'!H7</f>
+        <v>5.6</v>
+      </c>
+      <c r="E7" s="14">
+        <f>--M5</f>
+        <v>-8.032</v>
+      </c>
+      <c r="F7" s="14">
+        <f>--N5</f>
+        <v>-4.625</v>
+      </c>
+      <c r="J7">
+        <f>D5</f>
+        <v>11.8</v>
+      </c>
+      <c r="M7">
+        <f>D7</f>
+        <v>5.6</v>
+      </c>
+      <c r="P7">
+        <f>D6</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="str">
+        <f>'Вар1. Длинна'!G29</f>
+        <v>В-Д</v>
+      </c>
+      <c r="D8">
+        <f>'Вар1. Длинна'!H29</f>
+        <v>5.6</v>
+      </c>
+      <c r="E8">
+        <f>35</f>
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <f>19</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="str">
+        <f>'Вар1. Длинна'!G30</f>
+        <v>ВП-Д</v>
+      </c>
+      <c r="D9" s="4">
+        <f>'Вар1. Длинна'!H30</f>
+        <v>7.8</v>
+      </c>
+      <c r="E9" s="4">
+        <f>62</f>
+        <v>62</v>
+      </c>
+      <c r="F9" s="4">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="K10">
+        <f>E8</f>
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <f>19</f>
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <f>27</f>
+        <v>27</v>
+      </c>
+      <c r="O10">
+        <f>13.8</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Таблиця 1-3'!I4</f>
+        <v>а)</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>'Вар2. Длинна'!F5</f>
+        <v>ВП-Г</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'Вар2. Длинна'!G5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E11" s="14">
+        <f>J15</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="F11" s="14">
+        <f>K15</f>
+        <v>16.891999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="str">
+        <f>'Вар2. Длинна'!F6</f>
+        <v>ВП-Е</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'Вар2. Длинна'!G6</f>
+        <v>11.9</v>
+      </c>
+      <c r="E12" s="14">
+        <f>P15</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="F12" s="14">
+        <f>Q15</f>
+        <v>15.608000000000001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="15">
+        <f>J15+P15</f>
+        <v>67</v>
+      </c>
+      <c r="R12">
+        <f>K15+Q15</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="str">
+        <f>'Вар2. Длинна'!F7</f>
+        <v>Е-Г</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'Вар2. Длинна'!G7</f>
+        <v>14.5</v>
+      </c>
+      <c r="E13" s="14">
+        <f>-M15</f>
+        <v>2.8430000000000035</v>
+      </c>
+      <c r="F13" s="14">
+        <f>-N15</f>
+        <v>1.3919999999999995</v>
+      </c>
+      <c r="Q13">
+        <f>K20+N20</f>
+        <v>67</v>
+      </c>
+      <c r="R13">
+        <f>L20+O20</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f>'Таблиця 1-3'!L4</f>
+        <v>г)</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>'Вар2. Длинна'!X23</f>
+        <v>ВП-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'Вар2. Длинна'!Y23</f>
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E15+E16</f>
+        <v>67</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F15+F16</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="str">
+        <f>'Вар2. Длинна'!X24</f>
+        <v>Г-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f>'Вар2. Длинна'!Y24</f>
+        <v>7.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="J15" s="14">
+        <f>ROUND((K20*(M17+P17)+N20*P17)/(J17+M17+P17),3)</f>
+        <v>34.843000000000004</v>
+      </c>
+      <c r="K15" s="14">
+        <f>ROUND((L20*(M17+P17)+O20*P17)/(J17+M17+P17),3)</f>
+        <v>16.891999999999999</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="14">
+        <f>P15-N20</f>
+        <v>-2.8430000000000035</v>
+      </c>
+      <c r="N15" s="14">
+        <f>Q15-O20</f>
+        <v>-1.3919999999999995</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="14">
+        <f>ROUND((K20*J17+N20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>32.156999999999996</v>
+      </c>
+      <c r="Q15" s="14">
+        <f>ROUND((L20*J17+O20*(J17+M17))/(J17+M17+P17),3)</f>
+        <v>15.608000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="str">
+        <f>'Вар2. Длинна'!X25</f>
+        <v>Е-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'Вар2. Длинна'!Y25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E16" s="4">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>D11</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M17">
+        <f>D13</f>
+        <v>14.5</v>
+      </c>
+      <c r="P17">
+        <f>D12</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>E15</f>
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <f>F15</f>
+        <v>15.5</v>
+      </c>
+      <c r="N20">
+        <f>E16</f>
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <f>F16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="str">
+        <f>'Таблиця 1-4'!D14</f>
+        <v>ДЖ-3</v>
+      </c>
+      <c r="E25">
+        <f>'Таблиця 1-4'!E14</f>
+        <v>14.8</v>
+      </c>
+      <c r="F25">
+        <f>166.15</f>
+        <v>166.15</v>
+      </c>
+      <c r="G25">
+        <f>116.7</f>
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="str">
+        <f>'Таблиця 1-4'!D15</f>
+        <v>3-ВП</v>
+      </c>
+      <c r="E26">
+        <f>'Таблиця 1-4'!E15</f>
+        <v>22.6</v>
+      </c>
+      <c r="F26">
+        <f>F25-'Табл1-1  1-2'!B5</f>
+        <v>146.15</v>
+      </c>
+      <c r="G26">
+        <f>G25-'Табл1-1  1-2'!C5</f>
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="str">
+        <f>'Таблиця 1-4'!D16</f>
+        <v>3-Б</v>
+      </c>
+      <c r="E27">
+        <f>'Таблиця 1-4'!E16</f>
+        <v>10.8</v>
+      </c>
+      <c r="F27">
+        <f>'Табл1-1  1-2'!B5</f>
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <f>'Табл1-1  1-2'!C5</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>165</v>
+      </c>
+      <c r="E29">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31">
+        <f>SQRT(D29^2+E29^2)</f>
+        <v>188.09330131612873</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33">
+        <f>0.05*F31</f>
+        <v>9.4046650658064372</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <f>0.15*F31</f>
+        <v>28.213995197419308</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="10"/>
+      <c r="P35" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="13315" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G3:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7843,7 +8494,7 @@
     </row>
     <row r="4" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <f>ROUND(1.1*I4/10*2,1)</f>
@@ -7868,7 +8519,7 @@
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <f>ROUND(1.1*I5/10*2,1)</f>
@@ -7893,7 +8544,7 @@
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <f>ROUND(1.1*I6/10*2,1)</f>
@@ -7918,7 +8569,7 @@
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7">
         <f>H4+H5</f>
@@ -8034,7 +8685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M9"/>
   <sheetViews>
@@ -8049,26 +8700,26 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="57" t="s">
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="3:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
@@ -8382,12 +9033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G10"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8398,36 +9049,36 @@
   <sheetData>
     <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:7" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="78"/>
+      <c r="C3" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="3:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="78"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D5" s="40">
         <v>114</v>
@@ -8440,12 +9091,12 @@
         <v>4.2857142857142856</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6" s="40">
         <v>147</v>
@@ -8458,12 +9109,12 @@
         <v>4.2857142857142865</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D7" s="40">
         <v>185</v>
@@ -8476,12 +9127,12 @@
         <v>4.2923433874709973</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="40">
         <v>241</v>
@@ -8494,12 +9145,12 @@
         <v>4.2806394316163416</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D9" s="40">
         <v>288.5</v>
@@ -8512,12 +9163,12 @@
         <v>4.2867756315007428</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D10" s="40">
         <v>394</v>
@@ -8530,7 +9181,7 @@
         <v>7.7103718199608604</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -8543,21 +9194,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B2" sqref="B2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="12.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
         <v>66</v>
       </c>
@@ -8568,27 +9222,27 @@
         <v>43</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>87</v>
       </c>
       <c r="H2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>88</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>89</v>
       </c>
       <c r="D3" s="26" t="str">
         <f>Потокорозподіл!C5</f>
@@ -8609,13 +9263,13 @@
         <f>ROUND(4.34*SQRT(E3+16*F3/G3),1)</f>
         <v>91.4</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="75">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="26" t="str">
         <f>Потокорозподіл!C6</f>
         <v>ВП-Д</v>
@@ -8635,11 +9289,11 @@
         <f>ROUND(4.34*SQRT(E4+16*F4/G4),1)</f>
         <v>103.5</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="26" t="str">
         <f>Потокорозподіл!C7</f>
         <v>В-Д</v>
@@ -8656,15 +9310,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="26">
-        <f t="shared" ref="H4:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
+        <f t="shared" ref="H5:H12" si="0">ROUND(4.34*SQRT(E5+16*F5/G5),1)</f>
         <v>50.3</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61"/>
-      <c r="C6" s="73" t="s">
-        <v>90</v>
+      <c r="B6" s="70"/>
+      <c r="C6" s="82" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="26" t="str">
         <f>Потокорозподіл!C8</f>
@@ -8685,13 +9339,13 @@
         <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="72">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="26" t="str">
         <f>Потокорозподіл!C9</f>
         <v>ВП-Д</v>
@@ -8711,14 +9365,14 @@
         <f t="shared" si="0"/>
         <v>97.4</v>
       </c>
-      <c r="I7" s="67"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="73" t="s">
-        <v>89</v>
+      <c r="C8" s="82" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="29" t="str">
         <f>'Вар2. Длинна'!F5</f>
@@ -8739,13 +9393,13 @@
         <f t="shared" si="0"/>
         <v>103.4</v>
       </c>
-      <c r="I8" s="75">
+      <c r="I8" s="84">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="29" t="str">
         <f>'Вар2. Длинна'!F6</f>
         <v>ВП-Е</v>
@@ -8765,11 +9419,11 @@
         <f t="shared" si="0"/>
         <v>99.6</v>
       </c>
-      <c r="I9" s="76"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="29" t="str">
         <f>'Вар2. Длинна'!F7</f>
         <v>Е-Г</v>
@@ -8789,12 +9443,12 @@
         <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
-      <c r="I10" s="77"/>
+      <c r="I10" s="86"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="73" t="s">
-        <v>91</v>
+      <c r="B11" s="70"/>
+      <c r="C11" s="82" t="s">
+        <v>90</v>
       </c>
       <c r="D11" s="29" t="str">
         <f>'Вар2. Длинна'!X23</f>
@@ -8815,13 +9469,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="84">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="29" t="str">
         <f>'Вар2. Длинна'!X24</f>
         <v>Г-2</v>
@@ -8841,11 +9495,11 @@
         <f t="shared" si="0"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="I12" s="76"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="69"/>
-      <c r="C13" s="72"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="29" t="str">
         <f>'Вар2. Длинна'!X25</f>
         <v>Е-2</v>
@@ -8862,16 +9516,16 @@
         <v>2</v>
       </c>
       <c r="H13" s="29">
-        <f t="shared" ref="H4:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
+        <f t="shared" ref="H13:H15" si="1">ROUND(4.34*SQRT(E13+16*F13/G13),1)</f>
         <v>73.7</v>
       </c>
-      <c r="I13" s="77"/>
+      <c r="I13" s="86"/>
     </row>
     <row r="14" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="63"/>
+      <c r="B14" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="72"/>
       <c r="D14" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G4</f>
         <v>ДЖ-3</v>
@@ -8891,13 +9545,13 @@
         <f t="shared" si="1"/>
         <v>159.1</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="84">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G5</f>
         <v>3-ВП</v>
@@ -8917,11 +9571,11 @@
         <f t="shared" si="1"/>
         <v>149.80000000000001</v>
       </c>
-      <c r="I15" s="76"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="2:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="62"/>
-      <c r="C16" s="65"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="30" t="str">
         <f>'мережа зовнішньго електр.'!G6</f>
         <v>3-Б</v>
@@ -8941,7 +9595,7 @@
         <f>ROUND(4.34*SQRT(E16+16*F16/G16),1)</f>
         <v>56.7</v>
       </c>
-      <c r="I16" s="77"/>
+      <c r="I16" s="86"/>
     </row>
     <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8996,16 +9650,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>314325</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9021,16 +9675,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>314325</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9046,16 +9700,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9071,16 +9725,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>295275</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9094,12 +9748,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9113,68 +9767,68 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>109</v>
+      <c r="C2" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>105</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="84" t="s">
-        <v>105</v>
+      <c r="J2" s="99" t="s">
+        <v>101</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="79" t="s">
-        <v>137</v>
+        <v>100</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>133</v>
       </c>
       <c r="N2" s="35">
         <v>0.8</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="81"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="85"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
+        <v>96</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9186,11 +9840,11 @@
         <f>Потокорозподіл!F5</f>
         <v>14.375</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="90" t="s">
-        <v>89</v>
+      <c r="D4" s="92" t="s">
+        <v>88</v>
       </c>
       <c r="E4" s="45" t="str">
         <f>'Таблиця 1-4'!D3</f>
@@ -9236,8 +9890,8 @@
         <f>Потокорозподіл!F6</f>
         <v>18.425000000000001</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="91"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="33" t="str">
         <f>'Таблиця 1-4'!D4</f>
         <v>ВП-Д</v>
@@ -9282,8 +9936,8 @@
         <f>Потокорозподіл!F7</f>
         <v>-4.625</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="92"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="39" t="str">
         <f>'Таблиця 1-4'!D5</f>
         <v>В-Д</v>
@@ -9293,7 +9947,7 @@
         <v>-8.032-4.625i</v>
       </c>
       <c r="G6" s="45">
-        <f t="shared" ref="G5:G17" si="0">ROUND(1*IMABS(F6),2)</f>
+        <f t="shared" ref="G6:G17" si="0">ROUND(1*IMABS(F6),2)</f>
         <v>9.27</v>
       </c>
       <c r="H6" s="45">
@@ -9305,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="45">
-        <f t="shared" ref="J5:J7" si="1">ROUND(G6/SQRT(3)/H6/I6*10^3,2)</f>
+        <f t="shared" ref="J6:J7" si="1">ROUND(G6/SQRT(3)/H6/I6*10^3,2)</f>
         <v>48.65</v>
       </c>
       <c r="K6" s="46">
@@ -9328,16 +9982,16 @@
         <f>Потокорозподіл!F8</f>
         <v>19</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="80" t="s">
-        <v>90</v>
+      <c r="C7" s="89"/>
+      <c r="D7" s="95" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="36" t="str">
         <f>'Таблиця 1-4'!D6</f>
         <v>В-Д</v>
       </c>
       <c r="F7" s="45" t="str">
-        <f t="shared" ref="F5:F17" si="2">COMPLEX(A7,B7)</f>
+        <f t="shared" ref="F7:F17" si="2">COMPLEX(A7,B7)</f>
         <v>35+19i</v>
       </c>
       <c r="G7" s="45">
@@ -9357,7 +10011,7 @@
         <v>104.5</v>
       </c>
       <c r="K7" s="46">
-        <f t="shared" ref="K5:K17" si="3">J7/$N$2</f>
+        <f t="shared" ref="K7:K17" si="3">J7/$N$2</f>
         <v>130.625</v>
       </c>
       <c r="L7" s="36">
@@ -9376,8 +10030,8 @@
         <f>Потокорозподіл!F9</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="36" t="str">
         <f>'Таблиця 1-4'!D7</f>
         <v>ВП-Д</v>
@@ -9399,7 +10053,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="45">
-        <f t="shared" ref="J5:J17" si="4">ROUND(G8/SQRT(3)/H8/I8*10^3,2)</f>
+        <f t="shared" ref="J8:J17" si="4">ROUND(G8/SQRT(3)/H8/I8*10^3,2)</f>
         <v>184.07</v>
       </c>
       <c r="K8" s="46">
@@ -9422,11 +10076,11 @@
         <f>Потокорозподіл!F11</f>
         <v>16.891999999999999</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="79" t="s">
-        <v>89</v>
+      <c r="D9" s="91" t="s">
+        <v>88</v>
       </c>
       <c r="E9" s="33" t="str">
         <f>'Таблиця 1-4'!D8</f>
@@ -9472,8 +10126,8 @@
         <f>Потокорозподіл!F12</f>
         <v>15.608000000000001</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="36" t="str">
         <f>'Таблиця 1-4'!D9</f>
         <v>ВП-Е</v>
@@ -9518,8 +10172,8 @@
         <f>Потокорозподіл!F13</f>
         <v>1.3919999999999995</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="33" t="str">
         <f>'Таблиця 1-4'!D10</f>
         <v>Е-Г</v>
@@ -9564,9 +10218,9 @@
         <f>Потокорозподіл!F14</f>
         <v>32.5</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="79" t="s">
-        <v>91</v>
+      <c r="C12" s="89"/>
+      <c r="D12" s="91" t="s">
+        <v>90</v>
       </c>
       <c r="E12" s="33" t="str">
         <f>'Таблиця 1-4'!D11</f>
@@ -9612,8 +10266,8 @@
         <f>Потокорозподіл!F15</f>
         <v>15.5</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="33" t="str">
         <f>'Таблиця 1-4'!D12</f>
         <v>Г-2</v>
@@ -9658,8 +10312,8 @@
         <f>Потокорозподіл!F16</f>
         <v>17</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="33" t="str">
         <f>'Таблиця 1-4'!D13</f>
         <v>Е-2</v>
@@ -9704,8 +10358,8 @@
         <f>Потокорозподіл!G25</f>
         <v>116.7</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="33" t="str">
         <f>'Таблиця 1-4'!D14</f>
         <v>ДЖ-3</v>
@@ -9750,8 +10404,8 @@
         <f>Потокорозподіл!G26</f>
         <v>103.7</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="33" t="str">
         <f>'Таблиця 1-4'!D15</f>
         <v>3-ВП</v>
@@ -9796,8 +10450,8 @@
         <f>Потокорозподіл!G27</f>
         <v>13</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="33" t="str">
         <f>'Таблиця 1-4'!D16</f>
         <v>3-Б</v>
@@ -9835,6 +10489,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -9843,741 +10504,8 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K23"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="107" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="113" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="113" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="108"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="112"/>
-    </row>
-    <row r="4" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="103"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="41" t="str">
-        <f>COMPLEX(62,38)</f>
-        <v>62+38i</v>
-      </c>
-      <c r="F5" s="41">
-        <f>IMABS(E5)</f>
-        <v>72.718635850791372</v>
-      </c>
-      <c r="G5" s="41">
-        <v>110</v>
-      </c>
-      <c r="H5" s="51">
-        <f>(F5/SQRT(3)/G5)*1000</f>
-        <v>381.67385439597064</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="41">
-        <v>680</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="103"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="41" t="str">
-        <f>COMPLEX(27,19)</f>
-        <v>27+19i</v>
-      </c>
-      <c r="F6" s="41">
-        <f>IMABS(E6)</f>
-        <v>33.015148038438355</v>
-      </c>
-      <c r="G6" s="41">
-        <v>110</v>
-      </c>
-      <c r="H6" s="41">
-        <f>(F6/SQRT(3)/G6)*1000</f>
-        <v>173.28458733934301</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="41">
-        <v>450</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="106"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-    </row>
-    <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="106"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="41" t="str">
-        <f>E5</f>
-        <v>62+38i</v>
-      </c>
-      <c r="F8" s="41">
-        <f>IMABS(E8)</f>
-        <v>72.718635850791372</v>
-      </c>
-      <c r="G8" s="41">
-        <v>110</v>
-      </c>
-      <c r="H8" s="51">
-        <f>(F8/SQRT(3)/G8)*1000</f>
-        <v>381.67385439597064</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="41">
-        <v>610</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="106"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="41" t="str">
-        <f>COMPLEX(35,19)</f>
-        <v>35+19i</v>
-      </c>
-      <c r="F9" s="41">
-        <f>IMABS(E9)</f>
-        <v>39.824615503479755</v>
-      </c>
-      <c r="G9" s="41">
-        <v>110</v>
-      </c>
-      <c r="H9" s="51">
-        <f>(F9/SQRT(3)/G9)*1000</f>
-        <v>209.02502255733981</v>
-      </c>
-      <c r="I9" s="41" t="str">
-        <f>I6</f>
-        <v>АС-150/34</v>
-      </c>
-      <c r="J9" s="41">
-        <v>450</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106"/>
-      <c r="C10" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="53" t="str">
-        <f>'Таблиця 1-4'!D6</f>
-        <v>В-Д</v>
-      </c>
-      <c r="E10" s="53" t="str">
-        <f>Fрозр!F7</f>
-        <v>35+19i</v>
-      </c>
-      <c r="F10" s="51">
-        <f t="shared" ref="F10" si="0">IMABS(E10)</f>
-        <v>39.824615503479755</v>
-      </c>
-      <c r="G10" s="41">
-        <v>110</v>
-      </c>
-      <c r="H10" s="53">
-        <f>(F10/SQRT(3)/G10)*1000</f>
-        <v>209.02502255733981</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="53">
-        <v>450</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="106"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="53" t="str">
-        <f>'Таблиця 1-4'!D7</f>
-        <v>ВП-Д</v>
-      </c>
-      <c r="E11" s="53" t="str">
-        <f>Fрозр!F8</f>
-        <v>62+32.8i</v>
-      </c>
-      <c r="F11" s="51">
-        <f>IMABS(E11)</f>
-        <v>70.141571125830936</v>
-      </c>
-      <c r="G11" s="41">
-        <v>110</v>
-      </c>
-      <c r="H11" s="53">
-        <f>(F11/SQRT(3)/G11)*1000</f>
-        <v>368.14777246256159</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="53">
-        <v>450</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
-    </row>
-    <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="103"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="41" t="str">
-        <f>COMPLEX(62,32.5)</f>
-        <v>62+32.5i</v>
-      </c>
-      <c r="F13" s="41">
-        <f>IMABS(E13)</f>
-        <v>70.001785691509326</v>
-      </c>
-      <c r="G13" s="41">
-        <v>110</v>
-      </c>
-      <c r="H13" s="51">
-        <f>(F13/SQRT(3)/G13)*1000</f>
-        <v>367.41408920679464</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="41">
-        <v>610</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="103"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="41" t="str">
-        <f>COMPLEX(27,15.5)</f>
-        <v>27+15.5i</v>
-      </c>
-      <c r="F14" s="41">
-        <f>IMABS(E14)</f>
-        <v>31.132780152116194</v>
-      </c>
-      <c r="G14" s="41">
-        <v>110</v>
-      </c>
-      <c r="H14" s="41">
-        <f>(F14/SQRT(3)/G14)*1000</f>
-        <v>163.40471819496113</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="41">
-        <v>450</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
-    </row>
-    <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="41" t="str">
-        <f>E13</f>
-        <v>62+32.5i</v>
-      </c>
-      <c r="F16" s="41">
-        <f>IMABS(E16)</f>
-        <v>70.001785691509326</v>
-      </c>
-      <c r="G16" s="41">
-        <v>110</v>
-      </c>
-      <c r="H16" s="51">
-        <f>(F16/SQRT(3)/G16)*1000</f>
-        <v>367.41408920679464</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" s="41">
-        <v>680</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="106"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="41" t="str">
-        <f>COMPLEX(35,17)</f>
-        <v>35+17i</v>
-      </c>
-      <c r="F17" s="41">
-        <f>IMABS(E17)</f>
-        <v>38.910152916687437</v>
-      </c>
-      <c r="G17" s="41">
-        <v>110</v>
-      </c>
-      <c r="H17" s="51">
-        <f t="shared" ref="H17:H22" si="1">(F17/SQRT(3)/G17)*1000</f>
-        <v>204.22533873326358</v>
-      </c>
-      <c r="I17" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="41">
-        <v>450</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="106"/>
-      <c r="C18" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="52" t="str">
-        <f>Fрозр!E12</f>
-        <v>ВП-2</v>
-      </c>
-      <c r="E18" s="52" t="str">
-        <f>Fрозр!F12</f>
-        <v>67+32.5i</v>
-      </c>
-      <c r="F18" s="52">
-        <f>Fрозр!G12</f>
-        <v>74.47</v>
-      </c>
-      <c r="G18" s="41">
-        <v>110</v>
-      </c>
-      <c r="H18" s="51">
-        <f t="shared" si="1"/>
-        <v>390.86613224137665</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="52">
-        <v>680</v>
-      </c>
-      <c r="K18" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="106"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="52" t="str">
-        <f>Fрозр!E13</f>
-        <v>Г-2</v>
-      </c>
-      <c r="E19" s="52" t="str">
-        <f>Fрозр!F13</f>
-        <v>32+15.5i</v>
-      </c>
-      <c r="F19" s="52">
-        <f>Fрозр!G13</f>
-        <v>35.56</v>
-      </c>
-      <c r="G19" s="41">
-        <v>110</v>
-      </c>
-      <c r="H19" s="51">
-        <f t="shared" si="1"/>
-        <v>186.64159611257361</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="52">
-        <v>375</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="106"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="52" t="str">
-        <f>Fрозр!E14</f>
-        <v>Е-2</v>
-      </c>
-      <c r="E20" s="52" t="str">
-        <f>Fрозр!F14</f>
-        <v>35+17i</v>
-      </c>
-      <c r="F20" s="52">
-        <f>Fрозр!G14</f>
-        <v>38.909999999999997</v>
-      </c>
-      <c r="G20" s="52">
-        <f>Fрозр!H14</f>
-        <v>110</v>
-      </c>
-      <c r="H20" s="51">
-        <f t="shared" si="1"/>
-        <v>204.22453612880309</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="52">
-        <v>450</v>
-      </c>
-      <c r="K20" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="52" t="str">
-        <f>'Таблиця 1-4'!D14</f>
-        <v>ДЖ-3</v>
-      </c>
-      <c r="E21" s="52" t="str">
-        <f>Fрозр!F15</f>
-        <v>166.15+116.7i</v>
-      </c>
-      <c r="F21" s="52">
-        <f>Fрозр!G15</f>
-        <v>203.04</v>
-      </c>
-      <c r="G21" s="52">
-        <f>Fрозр!H15</f>
-        <v>220</v>
-      </c>
-      <c r="H21" s="51">
-        <f>(F21/SQRT(3)/G21)*1000</f>
-        <v>532.84181207391646</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="52">
-        <v>825</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="52" t="str">
-        <f>'Таблиця 1-4'!D15</f>
-        <v>3-ВП</v>
-      </c>
-      <c r="E22" s="52" t="str">
-        <f>Fрозр!F16</f>
-        <v>146.15+103.7i</v>
-      </c>
-      <c r="F22" s="52">
-        <f>Fрозр!G16</f>
-        <v>179.2</v>
-      </c>
-      <c r="G22" s="52">
-        <f>Fрозр!H16</f>
-        <v>220</v>
-      </c>
-      <c r="H22" s="51">
-        <f t="shared" si="1"/>
-        <v>470.27803744900427</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="J22" s="52">
-        <v>680</v>
-      </c>
-      <c r="K22" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="94"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="52" t="str">
-        <f>'Таблиця 1-4'!D16</f>
-        <v>3-Б</v>
-      </c>
-      <c r="E23" s="52" t="str">
-        <f>Fрозр!F17</f>
-        <v>20+13i</v>
-      </c>
-      <c r="F23" s="52">
-        <f>Fрозр!G17</f>
-        <v>23.85</v>
-      </c>
-      <c r="G23" s="52">
-        <f>Fрозр!H17</f>
-        <v>220</v>
-      </c>
-      <c r="H23" s="51">
-        <f>(F23/SQRT(3)/G23)*1000</f>
-        <v>62.590017818966253</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="52">
-        <v>610</v>
-      </c>
-      <c r="K23" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="15361" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="15362" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
 </file>